--- a/Datos/personal.xlsx
+++ b/Datos/personal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\parti\proyecto\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reymy\Documents\sexto\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817AA8A1-F5DF-4466-934B-27BC9C88008B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1205CF-2856-4009-B76D-AB0456283C7A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1522,9 +1522,6 @@
     <t>Edgardo Adrián</t>
   </si>
   <si>
-    <t>DOC</t>
-  </si>
-  <si>
     <t>activo</t>
   </si>
   <si>
@@ -3101,12 +3098,15 @@
   </si>
   <si>
     <t>110147</t>
+  </si>
+  <si>
+    <t>ROLE_DOC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3612,52 +3612,80 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{4DF76306-FA76-4A3E-B5FF-930592DA3926}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3670,7 +3698,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3969,10 +3997,10 @@
   <dimension ref="A1:K255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K2" sqref="K2:K255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" customWidth="1"/>
@@ -3987,19 +4015,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>369</v>
@@ -4025,16 +4053,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>377</v>
@@ -4046,13 +4074,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J2" s="1">
         <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4060,16 +4088,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -4081,13 +4109,13 @@
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J3" s="1">
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4095,16 +4123,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>378</v>
@@ -4116,13 +4144,13 @@
         <v>379</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J4" s="1">
         <v>4</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4130,16 +4158,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -4151,13 +4179,13 @@
         <v>6</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J5" s="1">
         <v>4</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4165,16 +4193,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
@@ -4186,13 +4214,13 @@
         <v>8</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J6" s="1">
         <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4200,16 +4228,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -4221,13 +4249,13 @@
         <v>398</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J7" s="1">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4235,16 +4263,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -4256,13 +4284,13 @@
         <v>405</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J8" s="1">
         <v>4</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4270,16 +4298,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
@@ -4291,13 +4319,13 @@
         <v>16</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J9" s="1">
         <v>4</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4305,16 +4333,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
@@ -4326,13 +4354,13 @@
         <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J10" s="1">
         <v>4</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4340,16 +4368,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>380</v>
@@ -4361,13 +4389,13 @@
         <v>21</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4375,34 +4403,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J12" s="1">
         <v>4</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4410,16 +4438,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
@@ -4431,13 +4459,13 @@
         <v>26</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J13" s="1">
         <v>4</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4445,16 +4473,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>27</v>
@@ -4466,13 +4494,13 @@
         <v>29</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4480,16 +4508,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>381</v>
@@ -4501,13 +4529,13 @@
         <v>31</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J15" s="1">
         <v>4</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4515,16 +4543,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>32</v>
@@ -4536,13 +4564,13 @@
         <v>389</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J16" s="1">
         <v>4</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4550,16 +4578,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>382</v>
@@ -4571,13 +4599,13 @@
         <v>35</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J17" s="1">
         <v>4</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4585,16 +4613,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>383</v>
@@ -4606,13 +4634,13 @@
         <v>385</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J18" s="1">
         <v>4</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4620,16 +4648,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>36</v>
@@ -4641,13 +4669,13 @@
         <v>38</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J19" s="1">
         <v>4</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4655,16 +4683,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>39</v>
@@ -4676,13 +4704,13 @@
         <v>411</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J20" s="1">
         <v>4</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4690,16 +4718,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>40</v>
@@ -4711,13 +4739,13 @@
         <v>41</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J21" s="1">
         <v>4</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4725,16 +4753,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>42</v>
@@ -4746,13 +4774,13 @@
         <v>43</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J22" s="1">
         <v>4</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -4760,16 +4788,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>44</v>
@@ -4781,13 +4809,13 @@
         <v>385</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J23" s="1">
         <v>4</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -4795,16 +4823,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>45</v>
@@ -4816,13 +4844,13 @@
         <v>412</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J24" s="1">
         <v>4</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4830,34 +4858,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J25" s="1">
         <v>4</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -4865,16 +4893,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>499</v>
@@ -4886,13 +4914,13 @@
         <v>384</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J26" s="1">
         <v>4</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4900,34 +4928,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>446</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J27" s="1">
         <v>4</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4935,16 +4963,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>52</v>
@@ -4956,13 +4984,13 @@
         <v>413</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J28" s="1">
         <v>4</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -4970,16 +4998,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>52</v>
@@ -4991,13 +5019,13 @@
         <v>54</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J29" s="1">
         <v>4</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -5005,16 +5033,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>52</v>
@@ -5026,13 +5054,13 @@
         <v>55</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J30" s="1">
         <v>4</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -5040,16 +5068,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>52</v>
@@ -5061,13 +5089,13 @@
         <v>56</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J31" s="1">
         <v>4</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -5075,16 +5103,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>57</v>
@@ -5096,13 +5124,13 @@
         <v>414</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J32" s="1">
         <v>4</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -5110,16 +5138,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>58</v>
@@ -5131,13 +5159,13 @@
         <v>60</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J33" s="1">
         <v>4</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -5145,16 +5173,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>61</v>
@@ -5166,13 +5194,13 @@
         <v>391</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J34" s="1">
         <v>4</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -5180,16 +5208,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>64</v>
@@ -5201,13 +5229,13 @@
         <v>66</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J35" s="1">
         <v>4</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -5215,16 +5243,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>67</v>
@@ -5236,13 +5264,13 @@
         <v>69</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J36" s="1">
         <v>4</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -5250,16 +5278,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>70</v>
@@ -5271,13 +5299,13 @@
         <v>71</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J37" s="1">
         <v>4</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -5285,16 +5313,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>72</v>
@@ -5306,13 +5334,13 @@
         <v>5</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J38" s="1">
         <v>5</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -5320,16 +5348,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>475</v>
@@ -5341,13 +5369,13 @@
         <v>75</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J39" s="1">
         <v>5</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -5355,16 +5383,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>76</v>
@@ -5376,13 +5404,13 @@
         <v>385</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J40" s="1">
         <v>5</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -5390,16 +5418,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>78</v>
@@ -5411,13 +5439,13 @@
         <v>389</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J41" s="1">
         <v>5</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -5425,16 +5453,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>80</v>
@@ -5443,16 +5471,16 @@
         <v>389</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J42" s="1">
         <v>5</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -5460,16 +5488,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>476</v>
@@ -5481,13 +5509,13 @@
         <v>59</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J43" s="1">
         <v>5</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -5495,16 +5523,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>81</v>
@@ -5516,13 +5544,13 @@
         <v>82</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J44" s="1">
         <v>5</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -5530,19 +5558,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>448</v>
@@ -5551,13 +5579,13 @@
         <v>6</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J45" s="1">
         <v>5</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -5565,16 +5593,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>83</v>
@@ -5586,13 +5614,13 @@
         <v>84</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J46" s="1">
         <v>5</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -5600,16 +5628,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>85</v>
@@ -5621,13 +5649,13 @@
         <v>86</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J47" s="1">
         <v>5</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -5635,16 +5663,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>87</v>
@@ -5656,13 +5684,13 @@
         <v>415</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J48" s="1">
         <v>5</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -5670,16 +5698,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>449</v>
@@ -5691,13 +5719,13 @@
         <v>411</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J49" s="1">
         <v>5</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -5705,16 +5733,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>89</v>
@@ -5726,13 +5754,13 @@
         <v>6</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J50" s="1">
         <v>5</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -5740,16 +5768,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>91</v>
@@ -5761,13 +5789,13 @@
         <v>92</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J51" s="1">
         <v>5</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -5775,16 +5803,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>93</v>
@@ -5796,13 +5824,13 @@
         <v>94</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J52" s="1">
         <v>5</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -5810,16 +5838,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>93</v>
@@ -5831,13 +5859,13 @@
         <v>95</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J53" s="1">
         <v>5</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -5845,19 +5873,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>412</v>
@@ -5866,13 +5894,13 @@
         <v>96</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J54" s="1">
         <v>5</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -5880,16 +5908,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>97</v>
@@ -5901,13 +5929,13 @@
         <v>99</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J55" s="1">
         <v>5</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -5915,16 +5943,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>100</v>
@@ -5936,13 +5964,13 @@
         <v>102</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J56" s="1">
         <v>5</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -5950,16 +5978,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>477</v>
@@ -5971,13 +5999,13 @@
         <v>493</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J57" s="1">
         <v>5</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -5985,16 +6013,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>478</v>
@@ -6006,13 +6034,13 @@
         <v>450</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J58" s="1">
         <v>3</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -6020,34 +6048,34 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J59" s="1">
         <v>3</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -6055,16 +6083,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>106</v>
@@ -6076,13 +6104,13 @@
         <v>107</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J60" s="1">
         <v>3</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -6090,16 +6118,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>108</v>
@@ -6111,13 +6139,13 @@
         <v>110</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J61" s="1">
         <v>3</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -6125,16 +6153,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>111</v>
@@ -6146,13 +6174,13 @@
         <v>113</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J62" s="1">
         <v>3</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -6160,16 +6188,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>452</v>
@@ -6181,13 +6209,13 @@
         <v>114</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J63" s="1">
         <v>3</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -6195,16 +6223,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>400</v>
@@ -6216,13 +6244,13 @@
         <v>417</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J64" s="1">
         <v>3</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -6230,16 +6258,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>400</v>
@@ -6251,13 +6279,13 @@
         <v>402</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J65" s="1">
         <v>3</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -6265,16 +6293,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>453</v>
@@ -6286,13 +6314,13 @@
         <v>115</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J66" s="1">
         <v>3</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -6300,16 +6328,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>454</v>
@@ -6321,13 +6349,13 @@
         <v>117</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J67" s="1">
         <v>3</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -6335,16 +6363,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>455</v>
@@ -6356,13 +6384,13 @@
         <v>119</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J68" s="1">
         <v>3</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -6370,16 +6398,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>456</v>
@@ -6391,13 +6419,13 @@
         <v>120</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J69" s="1">
         <v>3</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -6405,16 +6433,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>457</v>
@@ -6426,13 +6454,13 @@
         <v>488</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J70" s="1">
         <v>3</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -6440,16 +6468,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>458</v>
@@ -6461,13 +6489,13 @@
         <v>450</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J71" s="1">
         <v>3</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -6475,16 +6503,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>459</v>
@@ -6496,13 +6524,13 @@
         <v>121</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J72" s="1">
         <v>3</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -6510,16 +6538,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>460</v>
@@ -6531,13 +6559,13 @@
         <v>79</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J73" s="1">
         <v>3</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -6545,16 +6573,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>461</v>
@@ -6566,13 +6594,13 @@
         <v>462</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J74" s="1">
         <v>3</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -6580,16 +6608,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>463</v>
@@ -6601,13 +6629,13 @@
         <v>23</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J75" s="1">
         <v>3</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -6615,16 +6643,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>123</v>
@@ -6636,13 +6664,13 @@
         <v>124</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J76" s="1">
         <v>3</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -6650,16 +6678,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>125</v>
@@ -6671,13 +6699,13 @@
         <v>126</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J77" s="1">
         <v>3</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -6685,16 +6713,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>127</v>
@@ -6706,13 +6734,13 @@
         <v>129</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J78" s="1">
         <v>3</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -6720,16 +6748,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>130</v>
@@ -6741,13 +6769,13 @@
         <v>8</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J79" s="1">
         <v>3</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -6755,16 +6783,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>130</v>
@@ -6776,13 +6804,13 @@
         <v>132</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J80" s="1">
         <v>3</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -6790,16 +6818,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>479</v>
@@ -6811,13 +6839,13 @@
         <v>385</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J81" s="1">
         <v>3</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -6825,16 +6853,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>464</v>
@@ -6846,13 +6874,13 @@
         <v>418</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J82" s="1">
         <v>3</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -6860,16 +6888,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>127</v>
@@ -6881,13 +6909,13 @@
         <v>134</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J83" s="1">
         <v>3</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -6895,16 +6923,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>135</v>
@@ -6916,13 +6944,13 @@
         <v>136</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J84" s="1">
         <v>3</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -6930,16 +6958,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>465</v>
@@ -6951,13 +6979,13 @@
         <v>138</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J85" s="1">
         <v>3</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -6965,16 +6993,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>139</v>
@@ -6986,13 +7014,13 @@
         <v>140</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J86" s="1">
         <v>3</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -7000,16 +7028,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>141</v>
@@ -7021,13 +7049,13 @@
         <v>142</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J87" s="1">
         <v>3</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -7035,16 +7063,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>143</v>
@@ -7056,13 +7084,13 @@
         <v>145</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J88" s="1">
         <v>3</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -7070,16 +7098,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>146</v>
@@ -7091,13 +7119,13 @@
         <v>385</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J89" s="1">
         <v>3</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -7105,16 +7133,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>148</v>
@@ -7126,13 +7154,13 @@
         <v>150</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J90" s="1">
         <v>3</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -7140,16 +7168,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>466</v>
@@ -7161,13 +7189,13 @@
         <v>28</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J91" s="1">
         <v>3</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -7175,16 +7203,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>152</v>
@@ -7196,13 +7224,13 @@
         <v>8</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J92" s="1">
         <v>3</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -7210,16 +7238,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>153</v>
@@ -7231,13 +7259,13 @@
         <v>155</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J93" s="1">
         <v>3</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -7245,16 +7273,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>156</v>
@@ -7266,13 +7294,13 @@
         <v>63</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J94" s="1">
         <v>3</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -7280,16 +7308,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>156</v>
@@ -7301,13 +7329,13 @@
         <v>158</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J95" s="1">
         <v>3</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -7315,16 +7343,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>159</v>
@@ -7336,13 +7364,13 @@
         <v>160</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J96" s="1">
         <v>3</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -7350,16 +7378,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>419</v>
@@ -7371,13 +7399,13 @@
         <v>467</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J97" s="1">
         <v>3</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -7385,16 +7413,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>420</v>
@@ -7406,13 +7434,13 @@
         <v>162</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J98" s="1">
         <v>3</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -7420,16 +7448,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>421</v>
@@ -7441,13 +7469,13 @@
         <v>411</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J99" s="1">
         <v>3</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -7455,16 +7483,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>422</v>
@@ -7476,13 +7504,13 @@
         <v>163</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J100" s="1">
         <v>3</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -7490,16 +7518,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>164</v>
@@ -7511,13 +7539,13 @@
         <v>450</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J101" s="1">
         <v>3</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -7525,16 +7553,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>166</v>
@@ -7546,13 +7574,13 @@
         <v>131</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J102" s="1">
         <v>3</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -7560,16 +7588,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>167</v>
@@ -7581,13 +7609,13 @@
         <v>388</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J103" s="1">
         <v>3</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -7595,16 +7623,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>409</v>
@@ -7616,13 +7644,13 @@
         <v>392</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J104" s="1">
         <v>3</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -7630,16 +7658,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>409</v>
@@ -7651,13 +7679,13 @@
         <v>170</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J105" s="1">
         <v>3</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -7665,16 +7693,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>468</v>
@@ -7686,13 +7714,13 @@
         <v>172</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J106" s="1">
         <v>3</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -7700,16 +7728,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>480</v>
@@ -7721,13 +7749,13 @@
         <v>423</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J107" s="1">
         <v>3</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -7735,16 +7763,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>173</v>
@@ -7756,13 +7784,13 @@
         <v>55</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J108" s="1">
         <v>3</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -7770,16 +7798,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>175</v>
@@ -7791,13 +7819,13 @@
         <v>495</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J109" s="1">
         <v>6</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -7805,16 +7833,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>177</v>
@@ -7826,13 +7854,13 @@
         <v>26</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J110" s="1">
         <v>6</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -7840,16 +7868,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>438</v>
@@ -7861,13 +7889,13 @@
         <v>179</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J111" s="1">
         <v>6</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -7875,16 +7903,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>439</v>
@@ -7896,13 +7924,13 @@
         <v>180</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J112" s="1">
         <v>6</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -7910,16 +7938,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>181</v>
@@ -7931,13 +7959,13 @@
         <v>133</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J113" s="1">
         <v>6</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -7945,16 +7973,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>182</v>
@@ -7966,13 +7994,13 @@
         <v>26</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J114" s="1">
         <v>6</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -7980,16 +8008,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>440</v>
@@ -8001,13 +8029,13 @@
         <v>185</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J115" s="1">
         <v>6</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -8015,16 +8043,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>186</v>
@@ -8036,13 +8064,13 @@
         <v>188</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J116" s="1">
         <v>6</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -8050,16 +8078,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>189</v>
@@ -8071,13 +8099,13 @@
         <v>191</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J117" s="1">
         <v>6</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -8085,16 +8113,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>192</v>
@@ -8106,13 +8134,13 @@
         <v>193</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J118" s="1">
         <v>6</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -8120,16 +8148,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>194</v>
@@ -8141,13 +8169,13 @@
         <v>195</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J119" s="1">
         <v>6</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -8155,16 +8183,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>196</v>
@@ -8176,13 +8204,13 @@
         <v>198</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J120" s="1">
         <v>6</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -8190,16 +8218,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>199</v>
@@ -8211,13 +8239,13 @@
         <v>56</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J121" s="1">
         <v>6</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -8225,16 +8253,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>196</v>
@@ -8246,13 +8274,13 @@
         <v>415</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J122" s="1">
         <v>6</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -8260,16 +8288,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>201</v>
@@ -8281,13 +8309,13 @@
         <v>202</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J123" s="1">
         <v>6</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -8295,16 +8323,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>203</v>
@@ -8316,13 +8344,13 @@
         <v>204</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J124" s="1">
         <v>6</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -8330,16 +8358,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>203</v>
@@ -8351,13 +8379,13 @@
         <v>379</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J125" s="1">
         <v>6</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -8365,16 +8393,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>203</v>
@@ -8386,13 +8414,13 @@
         <v>448</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J126" s="1">
         <v>6</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -8400,16 +8428,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>206</v>
@@ -8421,13 +8449,13 @@
         <v>385</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J127" s="1">
         <v>6</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -8435,16 +8463,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>207</v>
@@ -8456,13 +8484,13 @@
         <v>209</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J128" s="1">
         <v>6</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -8470,16 +8498,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>469</v>
@@ -8491,13 +8519,13 @@
         <v>211</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J129" s="1">
         <v>6</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -8505,16 +8533,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>212</v>
@@ -8526,13 +8554,13 @@
         <v>214</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J130" s="1">
         <v>6</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -8540,16 +8568,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>215</v>
@@ -8561,13 +8589,13 @@
         <v>441</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J131" s="1">
         <v>6</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -8575,16 +8603,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>481</v>
@@ -8596,13 +8624,13 @@
         <v>62</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J132" s="1">
         <v>6</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -8610,16 +8638,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>424</v>
@@ -8631,13 +8659,13 @@
         <v>218</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J133" s="1">
         <v>6</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -8645,16 +8673,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>219</v>
@@ -8666,13 +8694,13 @@
         <v>221</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J134" s="1">
         <v>6</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -8680,16 +8708,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>222</v>
@@ -8701,13 +8729,13 @@
         <v>120</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J135" s="1">
         <v>6</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -8715,16 +8743,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>224</v>
@@ -8736,13 +8764,13 @@
         <v>71</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J136" s="1">
         <v>6</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -8750,16 +8778,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>226</v>
@@ -8771,13 +8799,13 @@
         <v>376</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J137" s="1">
         <v>6</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -8785,16 +8813,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>227</v>
@@ -8806,13 +8834,13 @@
         <v>116</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J138" s="1">
         <v>6</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -8820,16 +8848,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>229</v>
@@ -8841,13 +8869,13 @@
         <v>417</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J139" s="1">
         <v>6</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -8855,16 +8883,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>229</v>
@@ -8876,13 +8904,13 @@
         <v>8</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J140" s="1">
         <v>6</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -8890,16 +8918,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>425</v>
@@ -8911,13 +8939,13 @@
         <v>231</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J141" s="1">
         <v>6</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -8925,16 +8953,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>232</v>
@@ -8946,13 +8974,13 @@
         <v>41</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J142" s="1">
         <v>6</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -8960,16 +8988,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>469</v>
@@ -8981,13 +9009,13 @@
         <v>233</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J143" s="1">
         <v>6</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -8995,16 +9023,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>482</v>
@@ -9016,13 +9044,13 @@
         <v>235</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J144" s="1">
         <v>6</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -9030,16 +9058,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>78</v>
@@ -9051,13 +9079,13 @@
         <v>237</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J145" s="1">
         <v>6</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -9065,16 +9093,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>394</v>
@@ -9086,13 +9114,13 @@
         <v>238</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J146" s="1">
         <v>6</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -9100,16 +9128,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>470</v>
@@ -9121,13 +9149,13 @@
         <v>209</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J147" s="1">
         <v>6</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -9135,16 +9163,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>409</v>
@@ -9156,13 +9184,13 @@
         <v>240</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J148" s="1">
         <v>6</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -9170,16 +9198,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>241</v>
@@ -9191,13 +9219,13 @@
         <v>243</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J149" s="1">
         <v>6</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -9205,16 +9233,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>490</v>
@@ -9226,13 +9254,13 @@
         <v>79</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J150" s="1">
         <v>6</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -9240,16 +9268,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>469</v>
@@ -9261,13 +9289,13 @@
         <v>63</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J151" s="1">
         <v>6</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -9275,16 +9303,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>483</v>
@@ -9296,13 +9324,13 @@
         <v>245</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J152" s="1">
         <v>6</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -9310,16 +9338,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>130</v>
@@ -9331,13 +9359,13 @@
         <v>426</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J153" s="1">
         <v>6</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -9345,16 +9373,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>427</v>
@@ -9366,13 +9394,13 @@
         <v>385</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J154" s="1">
         <v>6</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -9380,16 +9408,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>449</v>
@@ -9401,13 +9429,13 @@
         <v>411</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J155" s="1">
         <v>6</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -9415,16 +9443,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>471</v>
@@ -9436,13 +9464,13 @@
         <v>248</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J156" s="1">
         <v>6</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -9450,16 +9478,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>249</v>
@@ -9471,13 +9499,13 @@
         <v>6</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J157" s="1">
         <v>6</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -9485,16 +9513,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>428</v>
@@ -9506,13 +9534,13 @@
         <v>496</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J158" s="1">
         <v>6</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -9520,16 +9548,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>251</v>
@@ -9541,13 +9569,13 @@
         <v>6</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J159" s="1">
         <v>6</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -9555,16 +9583,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>470</v>
@@ -9576,13 +9604,13 @@
         <v>131</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J160" s="1">
         <v>6</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -9590,16 +9618,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>469</v>
@@ -9611,13 +9639,13 @@
         <v>417</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J161" s="1">
         <v>6</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -9625,16 +9653,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>253</v>
@@ -9646,13 +9674,13 @@
         <v>254</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J162" s="1">
         <v>6</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -9660,16 +9688,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>255</v>
@@ -9681,13 +9709,13 @@
         <v>256</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J163" s="1">
         <v>6</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -9695,16 +9723,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>257</v>
@@ -9716,13 +9744,13 @@
         <v>412</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J164" s="1">
         <v>6</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -9730,16 +9758,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>258</v>
@@ -9751,13 +9779,13 @@
         <v>68</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J165" s="1">
         <v>6</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -9765,16 +9793,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>106</v>
@@ -9786,13 +9814,13 @@
         <v>193</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J166" s="1">
         <v>6</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -9800,16 +9828,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>32</v>
@@ -9821,13 +9849,13 @@
         <v>261</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J167" s="1">
         <v>6</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -9835,16 +9863,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>262</v>
@@ -9856,13 +9884,13 @@
         <v>264</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J168" s="1">
         <v>6</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -9870,16 +9898,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>442</v>
@@ -9891,13 +9919,13 @@
         <v>491</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J169" s="1">
         <v>6</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -9905,16 +9933,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>265</v>
@@ -9926,13 +9954,13 @@
         <v>497</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J170" s="1">
         <v>6</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -9940,16 +9968,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>266</v>
@@ -9961,13 +9989,13 @@
         <v>384</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J171" s="1">
         <v>6</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -9975,16 +10003,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>268</v>
@@ -9996,13 +10024,13 @@
         <v>256</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J172" s="1">
         <v>6</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -10010,16 +10038,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>269</v>
@@ -10031,13 +10059,13 @@
         <v>13</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J173" s="1">
         <v>6</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -10045,16 +10073,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>429</v>
@@ -10066,13 +10094,13 @@
         <v>270</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J174" s="1">
         <v>6</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -10080,16 +10108,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>271</v>
@@ -10101,13 +10129,13 @@
         <v>79</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J175" s="1">
         <v>6</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -10115,16 +10143,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>272</v>
@@ -10136,13 +10164,13 @@
         <v>273</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J176" s="1">
         <v>6</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -10150,16 +10178,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>484</v>
@@ -10171,13 +10199,13 @@
         <v>275</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J177" s="1">
         <v>6</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -10185,16 +10213,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>222</v>
@@ -10206,13 +10234,13 @@
         <v>276</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J178" s="1">
         <v>6</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -10220,16 +10248,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>277</v>
@@ -10241,13 +10269,13 @@
         <v>133</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J179" s="1">
         <v>6</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -10255,16 +10283,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>278</v>
@@ -10276,13 +10304,13 @@
         <v>280</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J180" s="1">
         <v>6</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -10290,16 +10318,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>430</v>
@@ -10311,13 +10339,13 @@
         <v>402</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J181" s="1">
         <v>6</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -10325,16 +10353,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>483</v>
@@ -10346,13 +10374,13 @@
         <v>282</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J182" s="1">
         <v>6</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -10360,16 +10388,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>32</v>
@@ -10381,13 +10409,13 @@
         <v>284</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J183" s="1">
         <v>6</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -10395,16 +10423,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>285</v>
@@ -10416,13 +10444,13 @@
         <v>286</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J184" s="1">
         <v>6</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -10430,16 +10458,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>472</v>
@@ -10451,13 +10479,13 @@
         <v>13</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J185" s="1">
         <v>6</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -10465,16 +10493,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>49</v>
@@ -10486,13 +10514,13 @@
         <v>384</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J186" s="1">
         <v>6</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -10500,16 +10528,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>482</v>
@@ -10521,13 +10549,13 @@
         <v>288</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J187" s="1">
         <v>6</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -10535,16 +10563,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>289</v>
@@ -10556,13 +10584,13 @@
         <v>290</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J188" s="1">
         <v>6</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -10570,16 +10598,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>291</v>
@@ -10591,13 +10619,13 @@
         <v>293</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J189" s="1">
         <v>6</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -10605,16 +10633,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>294</v>
@@ -10626,13 +10654,13 @@
         <v>295</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J190" s="1">
         <v>6</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -10640,16 +10668,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>296</v>
@@ -10661,13 +10689,13 @@
         <v>2</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J191" s="1">
         <v>6</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -10675,16 +10703,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>431</v>
@@ -10696,13 +10724,13 @@
         <v>297</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J192" s="1">
         <v>6</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -10710,16 +10738,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>473</v>
@@ -10731,13 +10759,13 @@
         <v>388</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J193" s="1">
         <v>6</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -10745,16 +10773,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>485</v>
@@ -10766,13 +10794,13 @@
         <v>260</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J194" s="1">
         <v>6</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -10780,16 +10808,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>4</v>
@@ -10801,13 +10829,13 @@
         <v>26</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J195" s="1">
         <v>6</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -10815,16 +10843,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>156</v>
@@ -10836,13 +10864,13 @@
         <v>403</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J196" s="1">
         <v>6</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -10850,16 +10878,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>432</v>
@@ -10871,13 +10899,13 @@
         <v>247</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J197" s="1">
         <v>6</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -10885,16 +10913,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>409</v>
@@ -10906,13 +10934,13 @@
         <v>301</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J198" s="1">
         <v>6</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -10920,16 +10948,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>302</v>
@@ -10941,13 +10969,13 @@
         <v>385</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J199" s="1">
         <v>6</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -10955,16 +10983,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>486</v>
@@ -10973,16 +11001,16 @@
         <v>62</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J200" s="1">
         <v>6</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -10990,16 +11018,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>303</v>
@@ -11011,13 +11039,13 @@
         <v>384</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J201" s="1">
         <v>6</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -11025,16 +11053,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>304</v>
@@ -11046,13 +11074,13 @@
         <v>433</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J202" s="1">
         <v>6</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -11060,16 +11088,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>305</v>
@@ -11081,13 +11109,13 @@
         <v>403</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J203" s="1">
         <v>6</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -11095,16 +11123,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>130</v>
@@ -11116,13 +11144,13 @@
         <v>412</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J204" s="1">
         <v>6</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -11130,16 +11158,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>146</v>
@@ -11151,13 +11179,13 @@
         <v>385</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J205" s="1">
         <v>6</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -11165,16 +11193,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>192</v>
@@ -11186,13 +11214,13 @@
         <v>307</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J206" s="1">
         <v>23</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -11200,16 +11228,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>308</v>
@@ -11221,13 +11249,13 @@
         <v>384</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J207" s="1">
         <v>23</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -11235,16 +11263,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>309</v>
@@ -11256,13 +11284,13 @@
         <v>33</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J208" s="1">
         <v>23</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -11270,16 +11298,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>311</v>
@@ -11291,13 +11319,13 @@
         <v>412</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J209" s="1">
         <v>23</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -11305,16 +11333,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>420</v>
@@ -11326,13 +11354,13 @@
         <v>188</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J210" s="1">
         <v>23</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -11340,16 +11368,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>381</v>
@@ -11361,13 +11389,13 @@
         <v>62</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J211" s="1">
         <v>23</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -11375,16 +11403,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>194</v>
@@ -11396,13 +11424,13 @@
         <v>12</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J212" s="1">
         <v>23</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -11410,16 +11438,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>45</v>
@@ -11431,13 +11459,13 @@
         <v>26</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J213" s="1">
         <v>23</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -11445,16 +11473,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>313</v>
@@ -11466,13 +11494,13 @@
         <v>411</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J214" s="1">
         <v>23</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -11480,16 +11508,16 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>434</v>
@@ -11501,13 +11529,13 @@
         <v>392</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J215" s="1">
         <v>23</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -11515,16 +11543,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>314</v>
@@ -11536,13 +11564,13 @@
         <v>315</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J216" s="1">
         <v>23</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -11550,16 +11578,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>106</v>
@@ -11571,13 +11599,13 @@
         <v>316</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J217" s="1">
         <v>23</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -11585,16 +11613,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>410</v>
@@ -11606,13 +11634,13 @@
         <v>317</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J218" s="1">
         <v>23</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -11620,16 +11648,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>266</v>
@@ -11641,13 +11669,13 @@
         <v>244</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J219" s="1">
         <v>23</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -11655,16 +11683,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>318</v>
@@ -11676,13 +11704,13 @@
         <v>8</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J220" s="1">
         <v>23</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -11690,16 +11718,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>320</v>
@@ -11711,13 +11739,13 @@
         <v>68</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J221" s="1">
         <v>23</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -11725,16 +11753,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>406</v>
@@ -11746,13 +11774,13 @@
         <v>411</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J222" s="1">
         <v>23</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -11760,16 +11788,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>322</v>
@@ -11781,13 +11809,13 @@
         <v>385</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J223" s="1">
         <v>23</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -11795,16 +11823,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>323</v>
@@ -11816,13 +11844,13 @@
         <v>325</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J224" s="1">
         <v>23</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -11830,16 +11858,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>313</v>
@@ -11851,13 +11879,13 @@
         <v>327</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J225" s="1">
         <v>23</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -11865,16 +11893,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>328</v>
@@ -11886,13 +11914,13 @@
         <v>329</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J226" s="1">
         <v>23</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -11900,16 +11928,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>330</v>
@@ -11918,16 +11946,16 @@
         <v>245</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J227" s="1">
         <v>23</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -11935,16 +11963,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>320</v>
@@ -11956,13 +11984,13 @@
         <v>331</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J228" s="1">
         <v>23</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -11970,16 +11998,16 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>332</v>
@@ -11991,13 +12019,13 @@
         <v>333</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J229" s="1">
         <v>23</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -12005,16 +12033,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>334</v>
@@ -12026,13 +12054,13 @@
         <v>403</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J230" s="1">
         <v>23</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -12040,16 +12068,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>336</v>
@@ -12061,13 +12089,13 @@
         <v>245</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J231" s="1">
         <v>23</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -12075,16 +12103,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>338</v>
@@ -12096,13 +12124,13 @@
         <v>339</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J232" s="1">
         <v>11</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -12110,16 +12138,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>401</v>
@@ -12131,13 +12159,13 @@
         <v>340</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J233" s="1">
         <v>11</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -12145,16 +12173,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>341</v>
@@ -12166,13 +12194,13 @@
         <v>243</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J234" s="1">
         <v>11</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -12180,16 +12208,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>343</v>
@@ -12201,13 +12229,13 @@
         <v>29</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J235" s="1">
         <v>11</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -12215,16 +12243,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>399</v>
@@ -12236,13 +12264,13 @@
         <v>345</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J236" s="1">
         <v>11</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -12250,16 +12278,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>156</v>
@@ -12271,13 +12299,13 @@
         <v>223</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J237" s="1">
         <v>11</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -12285,16 +12313,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>400</v>
@@ -12306,13 +12334,13 @@
         <v>118</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J238" s="1">
         <v>11</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -12320,16 +12348,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>346</v>
@@ -12341,13 +12369,13 @@
         <v>8</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J239" s="1">
         <v>11</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -12355,16 +12383,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>348</v>
@@ -12376,13 +12404,13 @@
         <v>349</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J240" s="1">
         <v>11</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -12390,16 +12418,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>350</v>
@@ -12411,13 +12439,13 @@
         <v>352</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J241" s="1">
         <v>11</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -12425,16 +12453,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>353</v>
@@ -12446,13 +12474,13 @@
         <v>354</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J242" s="1">
         <v>11</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -12460,16 +12488,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>355</v>
@@ -12481,13 +12509,13 @@
         <v>293</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J243" s="1">
         <v>11</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -12495,16 +12523,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>357</v>
@@ -12513,16 +12541,16 @@
         <v>358</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J244" s="1">
         <v>11</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -12530,16 +12558,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>397</v>
@@ -12551,13 +12579,13 @@
         <v>437</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J245" s="1">
         <v>11</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -12565,16 +12593,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>130</v>
@@ -12586,13 +12614,13 @@
         <v>385</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J246" s="1">
         <v>11</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -12600,16 +12628,16 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>359</v>
@@ -12621,13 +12649,13 @@
         <v>361</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J247" s="1">
         <v>11</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -12635,16 +12663,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>362</v>
@@ -12656,13 +12684,13 @@
         <v>333</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J248" s="1">
         <v>11</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -12670,16 +12698,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>11</v>
@@ -12691,13 +12719,13 @@
         <v>193</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J249" s="1">
         <v>11</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -12705,16 +12733,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>435</v>
@@ -12726,13 +12754,13 @@
         <v>162</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J250" s="1">
         <v>11</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -12740,16 +12768,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>365</v>
@@ -12761,13 +12789,13 @@
         <v>366</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J251" s="1">
         <v>11</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -12775,16 +12803,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>396</v>
@@ -12796,13 +12824,13 @@
         <v>367</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J252" s="1">
         <v>11</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -12810,16 +12838,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>395</v>
@@ -12831,13 +12859,13 @@
         <v>198</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J253" s="1">
         <v>11</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -12845,16 +12873,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>394</v>
@@ -12866,13 +12894,13 @@
         <v>3</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J254" s="1">
         <v>11</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -12880,16 +12908,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>393</v>
@@ -12901,13 +12929,13 @@
         <v>389</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J255" s="1">
         <v>11</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>500</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/personal.xlsx
+++ b/Datos/personal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Auxiliar\proyecto\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24AA00C8-0C11-4A39-9222-710F7F3CFD93}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F8D11C9-81C9-4C37-A083-E1554D82F278}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1026">
   <si>
     <t>Alquicira</t>
   </si>
@@ -3095,6 +3095,9 @@
   </si>
   <si>
     <t>ROLE_DOC</t>
+  </si>
+  <si>
+    <t>idhorario</t>
   </si>
 </sst>
 </file>
@@ -3982,10 +3985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J255"/>
+  <dimension ref="A1:K255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3999,9 +4002,10 @@
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>507</v>
       </c>
@@ -4032,8 +4036,11 @@
       <c r="J1" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4064,8 +4071,11 @@
       <c r="J2" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4096,8 +4106,11 @@
       <c r="J3" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4128,8 +4141,11 @@
       <c r="J4" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4160,8 +4176,11 @@
       <c r="J5" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4192,8 +4211,11 @@
       <c r="J6" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4224,8 +4246,11 @@
       <c r="J7" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4256,8 +4281,11 @@
       <c r="J8" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4288,8 +4316,11 @@
       <c r="J9" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4320,8 +4351,11 @@
       <c r="J10" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4352,8 +4386,11 @@
       <c r="J11" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4384,8 +4421,11 @@
       <c r="J12" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4416,8 +4456,11 @@
       <c r="J13" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4448,8 +4491,11 @@
       <c r="J14" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4480,8 +4526,11 @@
       <c r="J15" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4512,8 +4561,11 @@
       <c r="J16" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4544,8 +4596,11 @@
       <c r="J17" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4576,8 +4631,11 @@
       <c r="J18" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4608,8 +4666,11 @@
       <c r="J19" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4640,8 +4701,11 @@
       <c r="J20" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4672,8 +4736,11 @@
       <c r="J21" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4704,8 +4771,11 @@
       <c r="J22" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4736,8 +4806,11 @@
       <c r="J23" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4768,8 +4841,11 @@
       <c r="J24" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4800,8 +4876,11 @@
       <c r="J25" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4832,8 +4911,11 @@
       <c r="J26" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4864,8 +4946,11 @@
       <c r="J27" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4896,8 +4981,11 @@
       <c r="J28" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4928,8 +5016,11 @@
       <c r="J29" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4960,8 +5051,11 @@
       <c r="J30" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4992,8 +5086,11 @@
       <c r="J31" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5024,8 +5121,11 @@
       <c r="J32" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5056,8 +5156,11 @@
       <c r="J33" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5088,8 +5191,11 @@
       <c r="J34" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5120,8 +5226,11 @@
       <c r="J35" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5152,8 +5261,11 @@
       <c r="J36" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5184,8 +5296,11 @@
       <c r="J37" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5216,8 +5331,11 @@
       <c r="J38" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5248,8 +5366,11 @@
       <c r="J39" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5280,8 +5401,11 @@
       <c r="J40" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5312,8 +5436,11 @@
       <c r="J41" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5344,8 +5471,11 @@
       <c r="J42" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5376,8 +5506,11 @@
       <c r="J43" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5408,8 +5541,11 @@
       <c r="J44" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5440,8 +5576,11 @@
       <c r="J45" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5472,8 +5611,11 @@
       <c r="J46" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5504,8 +5646,11 @@
       <c r="J47" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5536,8 +5681,11 @@
       <c r="J48" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5568,8 +5716,11 @@
       <c r="J49" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5600,8 +5751,11 @@
       <c r="J50" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5632,8 +5786,11 @@
       <c r="J51" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5664,8 +5821,11 @@
       <c r="J52" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5696,8 +5856,11 @@
       <c r="J53" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5728,8 +5891,11 @@
       <c r="J54" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5760,8 +5926,11 @@
       <c r="J55" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5792,8 +5961,11 @@
       <c r="J56" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5824,8 +5996,11 @@
       <c r="J57" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5856,8 +6031,11 @@
       <c r="J58" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5888,8 +6066,11 @@
       <c r="J59" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5920,8 +6101,11 @@
       <c r="J60" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5952,8 +6136,11 @@
       <c r="J61" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5984,8 +6171,11 @@
       <c r="J62" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -6016,8 +6206,11 @@
       <c r="J63" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -6048,8 +6241,11 @@
       <c r="J64" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -6080,8 +6276,11 @@
       <c r="J65" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6112,8 +6311,11 @@
       <c r="J66" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -6144,8 +6346,11 @@
       <c r="J67" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6176,8 +6381,11 @@
       <c r="J68" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -6208,8 +6416,11 @@
       <c r="J69" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6240,8 +6451,11 @@
       <c r="J70" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6272,8 +6486,11 @@
       <c r="J71" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6304,8 +6521,11 @@
       <c r="J72" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6336,8 +6556,11 @@
       <c r="J73" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6368,8 +6591,11 @@
       <c r="J74" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6400,8 +6626,11 @@
       <c r="J75" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6432,8 +6661,11 @@
       <c r="J76" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6464,8 +6696,11 @@
       <c r="J77" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6496,8 +6731,11 @@
       <c r="J78" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6528,8 +6766,11 @@
       <c r="J79" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6560,8 +6801,11 @@
       <c r="J80" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6592,8 +6836,11 @@
       <c r="J81" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6624,8 +6871,11 @@
       <c r="J82" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6656,8 +6906,11 @@
       <c r="J83" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6688,8 +6941,11 @@
       <c r="J84" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6720,8 +6976,11 @@
       <c r="J85" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6752,8 +7011,11 @@
       <c r="J86" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6784,8 +7046,11 @@
       <c r="J87" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -6816,8 +7081,11 @@
       <c r="J88" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -6848,8 +7116,11 @@
       <c r="J89" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -6880,8 +7151,11 @@
       <c r="J90" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -6912,8 +7186,11 @@
       <c r="J91" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -6944,8 +7221,11 @@
       <c r="J92" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -6976,8 +7256,11 @@
       <c r="J93" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7008,8 +7291,11 @@
       <c r="J94" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7040,8 +7326,11 @@
       <c r="J95" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -7072,8 +7361,11 @@
       <c r="J96" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -7104,8 +7396,11 @@
       <c r="J97" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7136,8 +7431,11 @@
       <c r="J98" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7168,8 +7466,11 @@
       <c r="J99" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7200,8 +7501,11 @@
       <c r="J100" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7232,8 +7536,11 @@
       <c r="J101" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7264,8 +7571,11 @@
       <c r="J102" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -7296,8 +7606,11 @@
       <c r="J103" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -7328,8 +7641,11 @@
       <c r="J104" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7360,8 +7676,11 @@
       <c r="J105" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -7392,8 +7711,11 @@
       <c r="J106" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7424,8 +7746,11 @@
       <c r="J107" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -7456,8 +7781,11 @@
       <c r="J108" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7488,8 +7816,11 @@
       <c r="J109" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -7520,8 +7851,11 @@
       <c r="J110" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -7552,8 +7886,11 @@
       <c r="J111" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -7584,8 +7921,11 @@
       <c r="J112" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -7616,8 +7956,11 @@
       <c r="J113" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -7648,8 +7991,11 @@
       <c r="J114" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -7680,8 +8026,11 @@
       <c r="J115" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7712,8 +8061,11 @@
       <c r="J116" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -7744,8 +8096,11 @@
       <c r="J117" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -7776,8 +8131,11 @@
       <c r="J118" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7808,8 +8166,11 @@
       <c r="J119" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7840,8 +8201,11 @@
       <c r="J120" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7872,8 +8236,11 @@
       <c r="J121" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7904,8 +8271,11 @@
       <c r="J122" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -7936,8 +8306,11 @@
       <c r="J123" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7968,8 +8341,11 @@
       <c r="J124" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -8000,8 +8376,11 @@
       <c r="J125" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -8032,8 +8411,11 @@
       <c r="J126" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -8064,8 +8446,11 @@
       <c r="J127" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -8096,8 +8481,11 @@
       <c r="J128" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -8128,8 +8516,11 @@
       <c r="J129" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -8160,8 +8551,11 @@
       <c r="J130" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -8192,8 +8586,11 @@
       <c r="J131" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -8224,8 +8621,11 @@
       <c r="J132" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -8256,8 +8656,11 @@
       <c r="J133" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -8288,8 +8691,11 @@
       <c r="J134" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -8320,8 +8726,11 @@
       <c r="J135" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -8352,8 +8761,11 @@
       <c r="J136" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -8384,8 +8796,11 @@
       <c r="J137" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -8416,8 +8831,11 @@
       <c r="J138" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -8448,8 +8866,11 @@
       <c r="J139" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -8480,8 +8901,11 @@
       <c r="J140" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -8512,8 +8936,11 @@
       <c r="J141" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -8544,8 +8971,11 @@
       <c r="J142" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -8576,8 +9006,11 @@
       <c r="J143" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -8608,8 +9041,11 @@
       <c r="J144" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -8640,8 +9076,11 @@
       <c r="J145" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -8672,8 +9111,11 @@
       <c r="J146" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -8704,8 +9146,11 @@
       <c r="J147" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -8736,8 +9181,11 @@
       <c r="J148" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -8768,8 +9216,11 @@
       <c r="J149" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -8800,8 +9251,11 @@
       <c r="J150" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -8832,8 +9286,11 @@
       <c r="J151" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -8864,8 +9321,11 @@
       <c r="J152" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -8896,8 +9356,11 @@
       <c r="J153" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -8928,8 +9391,11 @@
       <c r="J154" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -8960,8 +9426,11 @@
       <c r="J155" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -8992,8 +9461,11 @@
       <c r="J156" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -9024,8 +9496,11 @@
       <c r="J157" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -9056,8 +9531,11 @@
       <c r="J158" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -9088,8 +9566,11 @@
       <c r="J159" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -9120,8 +9601,11 @@
       <c r="J160" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -9152,8 +9636,11 @@
       <c r="J161" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -9184,8 +9671,11 @@
       <c r="J162" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -9216,8 +9706,11 @@
       <c r="J163" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -9248,8 +9741,11 @@
       <c r="J164" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -9280,8 +9776,11 @@
       <c r="J165" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -9312,8 +9811,11 @@
       <c r="J166" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -9344,8 +9846,11 @@
       <c r="J167" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -9376,8 +9881,11 @@
       <c r="J168" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -9408,8 +9916,11 @@
       <c r="J169" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -9440,8 +9951,11 @@
       <c r="J170" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -9472,8 +9986,11 @@
       <c r="J171" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -9504,8 +10021,11 @@
       <c r="J172" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -9536,8 +10056,11 @@
       <c r="J173" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -9568,8 +10091,11 @@
       <c r="J174" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -9600,8 +10126,11 @@
       <c r="J175" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -9632,8 +10161,11 @@
       <c r="J176" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -9664,8 +10196,11 @@
       <c r="J177" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -9696,8 +10231,11 @@
       <c r="J178" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -9728,8 +10266,11 @@
       <c r="J179" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -9760,8 +10301,11 @@
       <c r="J180" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -9792,8 +10336,11 @@
       <c r="J181" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -9824,8 +10371,11 @@
       <c r="J182" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -9856,8 +10406,11 @@
       <c r="J183" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -9888,8 +10441,11 @@
       <c r="J184" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -9920,8 +10476,11 @@
       <c r="J185" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -9952,8 +10511,11 @@
       <c r="J186" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -9984,8 +10546,11 @@
       <c r="J187" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -10016,8 +10581,11 @@
       <c r="J188" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -10048,8 +10616,11 @@
       <c r="J189" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -10080,8 +10651,11 @@
       <c r="J190" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -10112,8 +10686,11 @@
       <c r="J191" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -10144,8 +10721,11 @@
       <c r="J192" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -10176,8 +10756,11 @@
       <c r="J193" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -10208,8 +10791,11 @@
       <c r="J194" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -10240,8 +10826,11 @@
       <c r="J195" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -10272,8 +10861,11 @@
       <c r="J196" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -10304,8 +10896,11 @@
       <c r="J197" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -10336,8 +10931,11 @@
       <c r="J198" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -10368,8 +10966,11 @@
       <c r="J199" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -10400,8 +11001,11 @@
       <c r="J200" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -10432,8 +11036,11 @@
       <c r="J201" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -10464,8 +11071,11 @@
       <c r="J202" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -10496,8 +11106,11 @@
       <c r="J203" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -10528,8 +11141,11 @@
       <c r="J204" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -10560,8 +11176,11 @@
       <c r="J205" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -10592,8 +11211,11 @@
       <c r="J206" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -10624,8 +11246,11 @@
       <c r="J207" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -10656,8 +11281,11 @@
       <c r="J208" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -10688,8 +11316,11 @@
       <c r="J209" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -10720,8 +11351,11 @@
       <c r="J210" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -10752,8 +11386,11 @@
       <c r="J211" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -10784,8 +11421,11 @@
       <c r="J212" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -10816,8 +11456,11 @@
       <c r="J213" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -10848,8 +11491,11 @@
       <c r="J214" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -10880,8 +11526,11 @@
       <c r="J215" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -10912,8 +11561,11 @@
       <c r="J216" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -10944,8 +11596,11 @@
       <c r="J217" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -10976,8 +11631,11 @@
       <c r="J218" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -11008,8 +11666,11 @@
       <c r="J219" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -11040,8 +11701,11 @@
       <c r="J220" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -11072,8 +11736,11 @@
       <c r="J221" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -11104,8 +11771,11 @@
       <c r="J222" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -11136,8 +11806,11 @@
       <c r="J223" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -11168,8 +11841,11 @@
       <c r="J224" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -11200,8 +11876,11 @@
       <c r="J225" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -11232,8 +11911,11 @@
       <c r="J226" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -11264,8 +11946,11 @@
       <c r="J227" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -11296,8 +11981,11 @@
       <c r="J228" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -11328,8 +12016,11 @@
       <c r="J229" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -11360,8 +12051,11 @@
       <c r="J230" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -11392,8 +12086,11 @@
       <c r="J231" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -11424,8 +12121,11 @@
       <c r="J232" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -11456,8 +12156,11 @@
       <c r="J233" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -11488,8 +12191,11 @@
       <c r="J234" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -11520,8 +12226,11 @@
       <c r="J235" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -11552,8 +12261,11 @@
       <c r="J236" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -11584,8 +12296,11 @@
       <c r="J237" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -11616,8 +12331,11 @@
       <c r="J238" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -11648,8 +12366,11 @@
       <c r="J239" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -11680,8 +12401,11 @@
       <c r="J240" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -11712,8 +12436,11 @@
       <c r="J241" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -11744,8 +12471,11 @@
       <c r="J242" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K242">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -11776,8 +12506,11 @@
       <c r="J243" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -11808,8 +12541,11 @@
       <c r="J244" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -11840,8 +12576,11 @@
       <c r="J245" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -11872,8 +12611,11 @@
       <c r="J246" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -11904,8 +12646,11 @@
       <c r="J247" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -11936,8 +12681,11 @@
       <c r="J248" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -11968,8 +12716,11 @@
       <c r="J249" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -12000,8 +12751,11 @@
       <c r="J250" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K250">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -12032,8 +12786,11 @@
       <c r="J251" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -12064,8 +12821,11 @@
       <c r="J252" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -12096,8 +12856,11 @@
       <c r="J253" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K253">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -12128,8 +12891,11 @@
       <c r="J254" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -12159,6 +12925,9 @@
       </c>
       <c r="J255" s="1" t="s">
         <v>1024</v>
+      </c>
+      <c r="K255">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/personal.xlsx
+++ b/Datos/personal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F8D11C9-81C9-4C37-A083-E1554D82F278}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1823F2E7-1F3E-4D36-8B4C-A8BFCADC7D8E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="1042">
   <si>
     <t>Alquicira</t>
   </si>
@@ -3098,6 +3098,54 @@
   </si>
   <si>
     <t>idhorario</t>
+  </si>
+  <si>
+    <t>00000269</t>
+  </si>
+  <si>
+    <t>ROLE_PAEE</t>
+  </si>
+  <si>
+    <t>00000270</t>
+  </si>
+  <si>
+    <t>Vazquez</t>
+  </si>
+  <si>
+    <t>130001</t>
+  </si>
+  <si>
+    <t>130002</t>
+  </si>
+  <si>
+    <t>00000271</t>
+  </si>
+  <si>
+    <t>Nuñez</t>
+  </si>
+  <si>
+    <t>00000272</t>
+  </si>
+  <si>
+    <t>00000273</t>
+  </si>
+  <si>
+    <t>Camacho</t>
+  </si>
+  <si>
+    <t>ROLE_CH</t>
+  </si>
+  <si>
+    <t>00000274</t>
+  </si>
+  <si>
+    <t>Tania</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>Sarabia</t>
   </si>
 </sst>
 </file>
@@ -3985,10 +4033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K255"/>
+  <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="K262" sqref="K262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12930,6 +12978,216 @@
         <v>5</v>
       </c>
     </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I256" s="1">
+        <v>13</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I257" s="1">
+        <v>13</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H258">
+        <v>130003</v>
+      </c>
+      <c r="I258" s="1">
+        <v>13</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H259">
+        <v>170001</v>
+      </c>
+      <c r="I259" s="1">
+        <v>17</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H260">
+        <v>190001</v>
+      </c>
+      <c r="I260" s="1">
+        <v>19</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H261">
+        <v>190002</v>
+      </c>
+      <c r="I261" s="1">
+        <v>19</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Datos/personal.xlsx
+++ b/Datos/personal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1823F2E7-1F3E-4D36-8B4C-A8BFCADC7D8E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2901D2-2D26-4091-AC8E-8730EA7F4632}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2329,114 +2329,6 @@
     <t>00000268</t>
   </si>
   <si>
-    <t>040001</t>
-  </si>
-  <si>
-    <t>040002</t>
-  </si>
-  <si>
-    <t>040003</t>
-  </si>
-  <si>
-    <t>040004</t>
-  </si>
-  <si>
-    <t>040005</t>
-  </si>
-  <si>
-    <t>040006</t>
-  </si>
-  <si>
-    <t>040007</t>
-  </si>
-  <si>
-    <t>040008</t>
-  </si>
-  <si>
-    <t>040009</t>
-  </si>
-  <si>
-    <t>040010</t>
-  </si>
-  <si>
-    <t>040011</t>
-  </si>
-  <si>
-    <t>040012</t>
-  </si>
-  <si>
-    <t>040013</t>
-  </si>
-  <si>
-    <t>040014</t>
-  </si>
-  <si>
-    <t>040015</t>
-  </si>
-  <si>
-    <t>040016</t>
-  </si>
-  <si>
-    <t>040017</t>
-  </si>
-  <si>
-    <t>040018</t>
-  </si>
-  <si>
-    <t>040019</t>
-  </si>
-  <si>
-    <t>040020</t>
-  </si>
-  <si>
-    <t>040021</t>
-  </si>
-  <si>
-    <t>040022</t>
-  </si>
-  <si>
-    <t>040023</t>
-  </si>
-  <si>
-    <t>040024</t>
-  </si>
-  <si>
-    <t>040025</t>
-  </si>
-  <si>
-    <t>040026</t>
-  </si>
-  <si>
-    <t>040027</t>
-  </si>
-  <si>
-    <t>040028</t>
-  </si>
-  <si>
-    <t>040029</t>
-  </si>
-  <si>
-    <t>040030</t>
-  </si>
-  <si>
-    <t>040031</t>
-  </si>
-  <si>
-    <t>040032</t>
-  </si>
-  <si>
-    <t>040033</t>
-  </si>
-  <si>
-    <t>040034</t>
-  </si>
-  <si>
-    <t>040035</t>
-  </si>
-  <si>
-    <t>040036</t>
-  </si>
-  <si>
     <t>050001</t>
   </si>
   <si>
@@ -2509,159 +2401,6 @@
     <t>050020</t>
   </si>
   <si>
-    <t>030001</t>
-  </si>
-  <si>
-    <t>030002</t>
-  </si>
-  <si>
-    <t>030003</t>
-  </si>
-  <si>
-    <t>030004</t>
-  </si>
-  <si>
-    <t>030005</t>
-  </si>
-  <si>
-    <t>030006</t>
-  </si>
-  <si>
-    <t>030007</t>
-  </si>
-  <si>
-    <t>030008</t>
-  </si>
-  <si>
-    <t>030009</t>
-  </si>
-  <si>
-    <t>030010</t>
-  </si>
-  <si>
-    <t>030011</t>
-  </si>
-  <si>
-    <t>030012</t>
-  </si>
-  <si>
-    <t>030013</t>
-  </si>
-  <si>
-    <t>030014</t>
-  </si>
-  <si>
-    <t>030015</t>
-  </si>
-  <si>
-    <t>030016</t>
-  </si>
-  <si>
-    <t>030017</t>
-  </si>
-  <si>
-    <t>030018</t>
-  </si>
-  <si>
-    <t>030019</t>
-  </si>
-  <si>
-    <t>030020</t>
-  </si>
-  <si>
-    <t>030021</t>
-  </si>
-  <si>
-    <t>030022</t>
-  </si>
-  <si>
-    <t>030023</t>
-  </si>
-  <si>
-    <t>030024</t>
-  </si>
-  <si>
-    <t>030025</t>
-  </si>
-  <si>
-    <t>030026</t>
-  </si>
-  <si>
-    <t>030027</t>
-  </si>
-  <si>
-    <t>030028</t>
-  </si>
-  <si>
-    <t>030029</t>
-  </si>
-  <si>
-    <t>030030</t>
-  </si>
-  <si>
-    <t>030031</t>
-  </si>
-  <si>
-    <t>030032</t>
-  </si>
-  <si>
-    <t>030033</t>
-  </si>
-  <si>
-    <t>030034</t>
-  </si>
-  <si>
-    <t>030035</t>
-  </si>
-  <si>
-    <t>030036</t>
-  </si>
-  <si>
-    <t>030037</t>
-  </si>
-  <si>
-    <t>030038</t>
-  </si>
-  <si>
-    <t>030039</t>
-  </si>
-  <si>
-    <t>030040</t>
-  </si>
-  <si>
-    <t>030041</t>
-  </si>
-  <si>
-    <t>030042</t>
-  </si>
-  <si>
-    <t>030043</t>
-  </si>
-  <si>
-    <t>030044</t>
-  </si>
-  <si>
-    <t>030045</t>
-  </si>
-  <si>
-    <t>030046</t>
-  </si>
-  <si>
-    <t>030047</t>
-  </si>
-  <si>
-    <t>030048</t>
-  </si>
-  <si>
-    <t>030049</t>
-  </si>
-  <si>
-    <t>030050</t>
-  </si>
-  <si>
-    <t>030051</t>
-  </si>
-  <si>
     <t>Zúñiga</t>
   </si>
   <si>
@@ -2944,84 +2683,6 @@
     <t>060097</t>
   </si>
   <si>
-    <t>230001</t>
-  </si>
-  <si>
-    <t>230002</t>
-  </si>
-  <si>
-    <t>230003</t>
-  </si>
-  <si>
-    <t>230004</t>
-  </si>
-  <si>
-    <t>230005</t>
-  </si>
-  <si>
-    <t>230006</t>
-  </si>
-  <si>
-    <t>230007</t>
-  </si>
-  <si>
-    <t>230008</t>
-  </si>
-  <si>
-    <t>230009</t>
-  </si>
-  <si>
-    <t>230010</t>
-  </si>
-  <si>
-    <t>230011</t>
-  </si>
-  <si>
-    <t>230012</t>
-  </si>
-  <si>
-    <t>230013</t>
-  </si>
-  <si>
-    <t>230014</t>
-  </si>
-  <si>
-    <t>230015</t>
-  </si>
-  <si>
-    <t>230016</t>
-  </si>
-  <si>
-    <t>230017</t>
-  </si>
-  <si>
-    <t>230018</t>
-  </si>
-  <si>
-    <t>230019</t>
-  </si>
-  <si>
-    <t>230020</t>
-  </si>
-  <si>
-    <t>230021</t>
-  </si>
-  <si>
-    <t>230022</t>
-  </si>
-  <si>
-    <t>230023</t>
-  </si>
-  <si>
-    <t>230024</t>
-  </si>
-  <si>
-    <t>230025</t>
-  </si>
-  <si>
-    <t>230026</t>
-  </si>
-  <si>
     <t>110124</t>
   </si>
   <si>
@@ -3146,6 +2807,345 @@
   </si>
   <si>
     <t>Sarabia</t>
+  </si>
+  <si>
+    <t>070001</t>
+  </si>
+  <si>
+    <t>020001</t>
+  </si>
+  <si>
+    <t>020002</t>
+  </si>
+  <si>
+    <t>020003</t>
+  </si>
+  <si>
+    <t>020004</t>
+  </si>
+  <si>
+    <t>020005</t>
+  </si>
+  <si>
+    <t>020006</t>
+  </si>
+  <si>
+    <t>020007</t>
+  </si>
+  <si>
+    <t>020008</t>
+  </si>
+  <si>
+    <t>020009</t>
+  </si>
+  <si>
+    <t>020010</t>
+  </si>
+  <si>
+    <t>020011</t>
+  </si>
+  <si>
+    <t>020012</t>
+  </si>
+  <si>
+    <t>020013</t>
+  </si>
+  <si>
+    <t>020014</t>
+  </si>
+  <si>
+    <t>020015</t>
+  </si>
+  <si>
+    <t>020016</t>
+  </si>
+  <si>
+    <t>020017</t>
+  </si>
+  <si>
+    <t>020018</t>
+  </si>
+  <si>
+    <t>020019</t>
+  </si>
+  <si>
+    <t>020020</t>
+  </si>
+  <si>
+    <t>020021</t>
+  </si>
+  <si>
+    <t>020022</t>
+  </si>
+  <si>
+    <t>020023</t>
+  </si>
+  <si>
+    <t>020024</t>
+  </si>
+  <si>
+    <t>020025</t>
+  </si>
+  <si>
+    <t>020026</t>
+  </si>
+  <si>
+    <t>020027</t>
+  </si>
+  <si>
+    <t>020028</t>
+  </si>
+  <si>
+    <t>020029</t>
+  </si>
+  <si>
+    <t>020030</t>
+  </si>
+  <si>
+    <t>020031</t>
+  </si>
+  <si>
+    <t>020032</t>
+  </si>
+  <si>
+    <t>020033</t>
+  </si>
+  <si>
+    <t>020034</t>
+  </si>
+  <si>
+    <t>020035</t>
+  </si>
+  <si>
+    <t>020036</t>
+  </si>
+  <si>
+    <t>070002</t>
+  </si>
+  <si>
+    <t>070003</t>
+  </si>
+  <si>
+    <t>070004</t>
+  </si>
+  <si>
+    <t>070005</t>
+  </si>
+  <si>
+    <t>070006</t>
+  </si>
+  <si>
+    <t>070007</t>
+  </si>
+  <si>
+    <t>070008</t>
+  </si>
+  <si>
+    <t>070009</t>
+  </si>
+  <si>
+    <t>070010</t>
+  </si>
+  <si>
+    <t>070011</t>
+  </si>
+  <si>
+    <t>070012</t>
+  </si>
+  <si>
+    <t>070013</t>
+  </si>
+  <si>
+    <t>070014</t>
+  </si>
+  <si>
+    <t>070015</t>
+  </si>
+  <si>
+    <t>070016</t>
+  </si>
+  <si>
+    <t>070017</t>
+  </si>
+  <si>
+    <t>070018</t>
+  </si>
+  <si>
+    <t>070019</t>
+  </si>
+  <si>
+    <t>070020</t>
+  </si>
+  <si>
+    <t>070021</t>
+  </si>
+  <si>
+    <t>070022</t>
+  </si>
+  <si>
+    <t>070023</t>
+  </si>
+  <si>
+    <t>070024</t>
+  </si>
+  <si>
+    <t>070025</t>
+  </si>
+  <si>
+    <t>070026</t>
+  </si>
+  <si>
+    <t>070027</t>
+  </si>
+  <si>
+    <t>070028</t>
+  </si>
+  <si>
+    <t>070029</t>
+  </si>
+  <si>
+    <t>070030</t>
+  </si>
+  <si>
+    <t>070031</t>
+  </si>
+  <si>
+    <t>070032</t>
+  </si>
+  <si>
+    <t>070033</t>
+  </si>
+  <si>
+    <t>070034</t>
+  </si>
+  <si>
+    <t>070035</t>
+  </si>
+  <si>
+    <t>070036</t>
+  </si>
+  <si>
+    <t>070037</t>
+  </si>
+  <si>
+    <t>070038</t>
+  </si>
+  <si>
+    <t>070039</t>
+  </si>
+  <si>
+    <t>070040</t>
+  </si>
+  <si>
+    <t>070041</t>
+  </si>
+  <si>
+    <t>070042</t>
+  </si>
+  <si>
+    <t>070043</t>
+  </si>
+  <si>
+    <t>070044</t>
+  </si>
+  <si>
+    <t>070045</t>
+  </si>
+  <si>
+    <t>070046</t>
+  </si>
+  <si>
+    <t>070047</t>
+  </si>
+  <si>
+    <t>070048</t>
+  </si>
+  <si>
+    <t>070049</t>
+  </si>
+  <si>
+    <t>070050</t>
+  </si>
+  <si>
+    <t>070051</t>
+  </si>
+  <si>
+    <t>080001</t>
+  </si>
+  <si>
+    <t>080002</t>
+  </si>
+  <si>
+    <t>080003</t>
+  </si>
+  <si>
+    <t>080004</t>
+  </si>
+  <si>
+    <t>080005</t>
+  </si>
+  <si>
+    <t>080006</t>
+  </si>
+  <si>
+    <t>080007</t>
+  </si>
+  <si>
+    <t>080008</t>
+  </si>
+  <si>
+    <t>080009</t>
+  </si>
+  <si>
+    <t>080010</t>
+  </si>
+  <si>
+    <t>080011</t>
+  </si>
+  <si>
+    <t>080012</t>
+  </si>
+  <si>
+    <t>080013</t>
+  </si>
+  <si>
+    <t>080014</t>
+  </si>
+  <si>
+    <t>080015</t>
+  </si>
+  <si>
+    <t>080016</t>
+  </si>
+  <si>
+    <t>080017</t>
+  </si>
+  <si>
+    <t>080018</t>
+  </si>
+  <si>
+    <t>080019</t>
+  </si>
+  <si>
+    <t>080020</t>
+  </si>
+  <si>
+    <t>080021</t>
+  </si>
+  <si>
+    <t>080022</t>
+  </si>
+  <si>
+    <t>080023</t>
+  </si>
+  <si>
+    <t>080024</t>
+  </si>
+  <si>
+    <t>080025</t>
+  </si>
+  <si>
+    <t>080026</t>
   </si>
 </sst>
 </file>
@@ -3638,7 +3638,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3649,6 +3649,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4033,10 +4034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K261"/>
+  <dimension ref="A1:K262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="K262" sqref="K262"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G266" sqref="G266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4085,7 +4086,7 @@
         <v>374</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1025</v>
+        <v>912</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4111,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>769</v>
+        <v>930</v>
       </c>
       <c r="I2" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4146,13 +4147,13 @@
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>770</v>
+        <v>931</v>
       </c>
       <c r="I3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4181,13 +4182,13 @@
         <v>379</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>771</v>
+        <v>932</v>
       </c>
       <c r="I4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4216,13 +4217,13 @@
         <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>772</v>
+        <v>933</v>
       </c>
       <c r="I5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4251,13 +4252,13 @@
         <v>8</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>773</v>
+        <v>934</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4286,13 +4287,13 @@
         <v>398</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>774</v>
+        <v>935</v>
       </c>
       <c r="I7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -4321,13 +4322,13 @@
         <v>405</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>775</v>
+        <v>936</v>
       </c>
       <c r="I8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -4356,13 +4357,13 @@
         <v>16</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>776</v>
+        <v>937</v>
       </c>
       <c r="I9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4391,13 +4392,13 @@
         <v>19</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>777</v>
+        <v>938</v>
       </c>
       <c r="I10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4426,13 +4427,13 @@
         <v>21</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>778</v>
+        <v>939</v>
       </c>
       <c r="I11" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -4461,13 +4462,13 @@
         <v>24</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>779</v>
+        <v>940</v>
       </c>
       <c r="I12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4496,13 +4497,13 @@
         <v>26</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>780</v>
+        <v>941</v>
       </c>
       <c r="I13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4531,13 +4532,13 @@
         <v>29</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>781</v>
+        <v>942</v>
       </c>
       <c r="I14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4566,13 +4567,13 @@
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>782</v>
+        <v>943</v>
       </c>
       <c r="I15" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4601,13 +4602,13 @@
         <v>389</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>783</v>
+        <v>944</v>
       </c>
       <c r="I16" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4636,13 +4637,13 @@
         <v>35</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>784</v>
+        <v>945</v>
       </c>
       <c r="I17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4671,13 +4672,13 @@
         <v>385</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>785</v>
+        <v>946</v>
       </c>
       <c r="I18" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4706,13 +4707,13 @@
         <v>38</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>786</v>
+        <v>947</v>
       </c>
       <c r="I19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4741,13 +4742,13 @@
         <v>411</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>787</v>
+        <v>948</v>
       </c>
       <c r="I20" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -4776,13 +4777,13 @@
         <v>41</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>788</v>
+        <v>949</v>
       </c>
       <c r="I21" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -4811,13 +4812,13 @@
         <v>43</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>789</v>
+        <v>950</v>
       </c>
       <c r="I22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -4846,13 +4847,13 @@
         <v>385</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>790</v>
+        <v>951</v>
       </c>
       <c r="I23" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -4881,13 +4882,13 @@
         <v>412</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>791</v>
+        <v>952</v>
       </c>
       <c r="I24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -4916,13 +4917,13 @@
         <v>48</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>792</v>
+        <v>953</v>
       </c>
       <c r="I25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -4951,13 +4952,13 @@
         <v>384</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>793</v>
+        <v>954</v>
       </c>
       <c r="I26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -4986,13 +4987,13 @@
         <v>51</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>794</v>
+        <v>955</v>
       </c>
       <c r="I27" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -5021,13 +5022,13 @@
         <v>413</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>795</v>
+        <v>956</v>
       </c>
       <c r="I28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -5056,13 +5057,13 @@
         <v>54</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>796</v>
+        <v>957</v>
       </c>
       <c r="I29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -5091,13 +5092,13 @@
         <v>55</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>797</v>
+        <v>958</v>
       </c>
       <c r="I30" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -5126,13 +5127,13 @@
         <v>56</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>798</v>
+        <v>959</v>
       </c>
       <c r="I31" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -5161,13 +5162,13 @@
         <v>414</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>799</v>
+        <v>960</v>
       </c>
       <c r="I32" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -5196,13 +5197,13 @@
         <v>60</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>800</v>
+        <v>961</v>
       </c>
       <c r="I33" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -5231,13 +5232,13 @@
         <v>391</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>801</v>
+        <v>962</v>
       </c>
       <c r="I34" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -5266,13 +5267,13 @@
         <v>66</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>802</v>
+        <v>963</v>
       </c>
       <c r="I35" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -5301,13 +5302,13 @@
         <v>69</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>803</v>
+        <v>964</v>
       </c>
       <c r="I36" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -5336,13 +5337,13 @@
         <v>71</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>804</v>
+        <v>965</v>
       </c>
       <c r="I37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -5371,13 +5372,13 @@
         <v>5</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>805</v>
+        <v>769</v>
       </c>
       <c r="I38" s="1">
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -5406,13 +5407,13 @@
         <v>75</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>806</v>
+        <v>770</v>
       </c>
       <c r="I39" s="1">
         <v>5</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -5441,13 +5442,13 @@
         <v>385</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>807</v>
+        <v>771</v>
       </c>
       <c r="I40" s="1">
         <v>5</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -5476,13 +5477,13 @@
         <v>389</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>808</v>
+        <v>772</v>
       </c>
       <c r="I41" s="1">
         <v>5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -5511,13 +5512,13 @@
         <v>510</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>809</v>
+        <v>773</v>
       </c>
       <c r="I42" s="1">
         <v>5</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -5546,13 +5547,13 @@
         <v>59</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>810</v>
+        <v>774</v>
       </c>
       <c r="I43" s="1">
         <v>5</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -5581,13 +5582,13 @@
         <v>82</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>811</v>
+        <v>775</v>
       </c>
       <c r="I44" s="1">
         <v>5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -5616,13 +5617,13 @@
         <v>6</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>812</v>
+        <v>776</v>
       </c>
       <c r="I45" s="1">
         <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -5651,13 +5652,13 @@
         <v>84</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>813</v>
+        <v>777</v>
       </c>
       <c r="I46" s="1">
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -5686,13 +5687,13 @@
         <v>86</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>818</v>
+        <v>782</v>
       </c>
       <c r="I47" s="1">
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -5721,13 +5722,13 @@
         <v>415</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="I48" s="1">
         <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -5756,13 +5757,13 @@
         <v>411</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>820</v>
+        <v>784</v>
       </c>
       <c r="I49" s="1">
         <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -5791,13 +5792,13 @@
         <v>6</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>821</v>
+        <v>785</v>
       </c>
       <c r="I50" s="1">
         <v>5</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5826,13 +5827,13 @@
         <v>92</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="I51" s="1">
         <v>5</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -5861,13 +5862,13 @@
         <v>94</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>823</v>
+        <v>787</v>
       </c>
       <c r="I52" s="1">
         <v>5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5896,13 +5897,13 @@
         <v>95</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>824</v>
+        <v>788</v>
       </c>
       <c r="I53" s="1">
         <v>5</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -5931,13 +5932,13 @@
         <v>96</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>825</v>
+        <v>789</v>
       </c>
       <c r="I54" s="1">
         <v>5</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5966,13 +5967,13 @@
         <v>99</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>826</v>
+        <v>790</v>
       </c>
       <c r="I55" s="1">
         <v>5</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -6001,13 +6002,13 @@
         <v>102</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>827</v>
+        <v>791</v>
       </c>
       <c r="I56" s="1">
         <v>5</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -6036,13 +6037,13 @@
         <v>493</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>828</v>
+        <v>792</v>
       </c>
       <c r="I57" s="1">
         <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -6071,13 +6072,13 @@
         <v>450</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>829</v>
+        <v>929</v>
       </c>
       <c r="I58" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -6106,13 +6107,13 @@
         <v>105</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>830</v>
+        <v>966</v>
       </c>
       <c r="I59" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -6141,13 +6142,13 @@
         <v>107</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>831</v>
+        <v>967</v>
       </c>
       <c r="I60" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -6176,13 +6177,13 @@
         <v>110</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>832</v>
+        <v>968</v>
       </c>
       <c r="I61" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -6211,13 +6212,13 @@
         <v>113</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="I62" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6246,13 +6247,13 @@
         <v>114</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>834</v>
+        <v>970</v>
       </c>
       <c r="I63" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6281,13 +6282,13 @@
         <v>417</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>835</v>
+        <v>971</v>
       </c>
       <c r="I64" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6316,13 +6317,13 @@
         <v>402</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>836</v>
+        <v>972</v>
       </c>
       <c r="I65" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -6351,13 +6352,13 @@
         <v>115</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>837</v>
+        <v>973</v>
       </c>
       <c r="I66" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -6386,13 +6387,13 @@
         <v>117</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>838</v>
+        <v>974</v>
       </c>
       <c r="I67" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6421,13 +6422,13 @@
         <v>119</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>839</v>
+        <v>975</v>
       </c>
       <c r="I68" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6456,13 +6457,13 @@
         <v>120</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>840</v>
+        <v>976</v>
       </c>
       <c r="I69" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -6491,13 +6492,13 @@
         <v>488</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>841</v>
+        <v>977</v>
       </c>
       <c r="I70" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -6526,13 +6527,13 @@
         <v>450</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>842</v>
+        <v>978</v>
       </c>
       <c r="I71" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6561,13 +6562,13 @@
         <v>121</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>843</v>
+        <v>979</v>
       </c>
       <c r="I72" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -6596,13 +6597,13 @@
         <v>79</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>844</v>
+        <v>980</v>
       </c>
       <c r="I73" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -6631,13 +6632,13 @@
         <v>462</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>845</v>
+        <v>981</v>
       </c>
       <c r="I74" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -6666,13 +6667,13 @@
         <v>23</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>846</v>
+        <v>982</v>
       </c>
       <c r="I75" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -6701,13 +6702,13 @@
         <v>124</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>847</v>
+        <v>983</v>
       </c>
       <c r="I76" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -6736,13 +6737,13 @@
         <v>126</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>848</v>
+        <v>984</v>
       </c>
       <c r="I77" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -6771,13 +6772,13 @@
         <v>129</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>849</v>
+        <v>985</v>
       </c>
       <c r="I78" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -6806,13 +6807,13 @@
         <v>8</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>850</v>
+        <v>986</v>
       </c>
       <c r="I79" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -6841,13 +6842,13 @@
         <v>132</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>851</v>
+        <v>987</v>
       </c>
       <c r="I80" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -6876,13 +6877,13 @@
         <v>385</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>852</v>
+        <v>988</v>
       </c>
       <c r="I81" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -6911,13 +6912,13 @@
         <v>418</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>853</v>
+        <v>989</v>
       </c>
       <c r="I82" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -6946,13 +6947,13 @@
         <v>134</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>854</v>
+        <v>990</v>
       </c>
       <c r="I83" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -6981,13 +6982,13 @@
         <v>136</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>855</v>
+        <v>991</v>
       </c>
       <c r="I84" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -7016,13 +7017,13 @@
         <v>138</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>856</v>
+        <v>992</v>
       </c>
       <c r="I85" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -7051,13 +7052,13 @@
         <v>140</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>857</v>
+        <v>993</v>
       </c>
       <c r="I86" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -7086,13 +7087,13 @@
         <v>142</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>858</v>
+        <v>994</v>
       </c>
       <c r="I87" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -7121,13 +7122,13 @@
         <v>145</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>859</v>
+        <v>995</v>
       </c>
       <c r="I88" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -7156,13 +7157,13 @@
         <v>385</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>860</v>
+        <v>996</v>
       </c>
       <c r="I89" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -7191,13 +7192,13 @@
         <v>150</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>861</v>
+        <v>997</v>
       </c>
       <c r="I90" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -7226,13 +7227,13 @@
         <v>28</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>862</v>
+        <v>998</v>
       </c>
       <c r="I91" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -7261,13 +7262,13 @@
         <v>8</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>863</v>
+        <v>999</v>
       </c>
       <c r="I92" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -7296,13 +7297,13 @@
         <v>155</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>864</v>
+        <v>1000</v>
       </c>
       <c r="I93" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -7331,13 +7332,13 @@
         <v>63</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>865</v>
+        <v>1001</v>
       </c>
       <c r="I94" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -7366,13 +7367,13 @@
         <v>158</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>866</v>
+        <v>1002</v>
       </c>
       <c r="I95" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -7401,13 +7402,13 @@
         <v>160</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>867</v>
+        <v>1003</v>
       </c>
       <c r="I96" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -7436,13 +7437,13 @@
         <v>467</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>868</v>
+        <v>1004</v>
       </c>
       <c r="I97" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -7471,13 +7472,13 @@
         <v>162</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>869</v>
+        <v>1005</v>
       </c>
       <c r="I98" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -7506,13 +7507,13 @@
         <v>411</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>870</v>
+        <v>1006</v>
       </c>
       <c r="I99" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -7541,13 +7542,13 @@
         <v>163</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>871</v>
+        <v>1007</v>
       </c>
       <c r="I100" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -7576,13 +7577,13 @@
         <v>450</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>872</v>
+        <v>1008</v>
       </c>
       <c r="I101" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -7611,13 +7612,13 @@
         <v>131</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>873</v>
+        <v>1009</v>
       </c>
       <c r="I102" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -7646,13 +7647,13 @@
         <v>388</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>874</v>
+        <v>1010</v>
       </c>
       <c r="I103" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K103">
         <v>2</v>
@@ -7681,13 +7682,13 @@
         <v>392</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>875</v>
+        <v>1011</v>
       </c>
       <c r="I104" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K104">
         <v>2</v>
@@ -7716,13 +7717,13 @@
         <v>170</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>876</v>
+        <v>1012</v>
       </c>
       <c r="I105" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -7751,13 +7752,13 @@
         <v>172</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>877</v>
+        <v>1013</v>
       </c>
       <c r="I106" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -7786,13 +7787,13 @@
         <v>423</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>878</v>
+        <v>1014</v>
       </c>
       <c r="I107" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K107">
         <v>2</v>
@@ -7821,13 +7822,13 @@
         <v>55</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>879</v>
+        <v>1015</v>
       </c>
       <c r="I108" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K108">
         <v>2</v>
@@ -7856,13 +7857,13 @@
         <v>495</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="I109" s="1">
         <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K109">
         <v>2</v>
@@ -7891,13 +7892,13 @@
         <v>26</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="I110" s="1">
         <v>6</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K110">
         <v>2</v>
@@ -7926,13 +7927,13 @@
         <v>179</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>816</v>
+        <v>780</v>
       </c>
       <c r="I111" s="1">
         <v>6</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -7961,13 +7962,13 @@
         <v>180</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>817</v>
+        <v>781</v>
       </c>
       <c r="I112" s="1">
         <v>6</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -7996,13 +7997,13 @@
         <v>133</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>881</v>
+        <v>794</v>
       </c>
       <c r="I113" s="1">
         <v>6</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -8031,13 +8032,13 @@
         <v>26</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>882</v>
+        <v>795</v>
       </c>
       <c r="I114" s="1">
         <v>6</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -8066,13 +8067,13 @@
         <v>185</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>883</v>
+        <v>796</v>
       </c>
       <c r="I115" s="1">
         <v>6</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K115">
         <v>2</v>
@@ -8101,13 +8102,13 @@
         <v>188</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>884</v>
+        <v>797</v>
       </c>
       <c r="I116" s="1">
         <v>6</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K116">
         <v>2</v>
@@ -8136,13 +8137,13 @@
         <v>191</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>885</v>
+        <v>798</v>
       </c>
       <c r="I117" s="1">
         <v>6</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -8171,13 +8172,13 @@
         <v>193</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>886</v>
+        <v>799</v>
       </c>
       <c r="I118" s="1">
         <v>6</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K118">
         <v>2</v>
@@ -8206,13 +8207,13 @@
         <v>195</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>887</v>
+        <v>800</v>
       </c>
       <c r="I119" s="1">
         <v>6</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K119">
         <v>2</v>
@@ -8241,13 +8242,13 @@
         <v>198</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>888</v>
+        <v>801</v>
       </c>
       <c r="I120" s="1">
         <v>6</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K120">
         <v>2</v>
@@ -8276,13 +8277,13 @@
         <v>56</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="I121" s="1">
         <v>6</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -8311,13 +8312,13 @@
         <v>415</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>890</v>
+        <v>803</v>
       </c>
       <c r="I122" s="1">
         <v>6</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K122">
         <v>3</v>
@@ -8346,13 +8347,13 @@
         <v>202</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>891</v>
+        <v>804</v>
       </c>
       <c r="I123" s="1">
         <v>6</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K123">
         <v>3</v>
@@ -8381,13 +8382,13 @@
         <v>204</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>892</v>
+        <v>805</v>
       </c>
       <c r="I124" s="1">
         <v>6</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K124">
         <v>3</v>
@@ -8416,13 +8417,13 @@
         <v>379</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>893</v>
+        <v>806</v>
       </c>
       <c r="I125" s="1">
         <v>6</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K125">
         <v>3</v>
@@ -8451,13 +8452,13 @@
         <v>448</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>894</v>
+        <v>807</v>
       </c>
       <c r="I126" s="1">
         <v>6</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K126">
         <v>3</v>
@@ -8486,13 +8487,13 @@
         <v>385</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>895</v>
+        <v>808</v>
       </c>
       <c r="I127" s="1">
         <v>6</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K127">
         <v>3</v>
@@ -8521,13 +8522,13 @@
         <v>209</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>896</v>
+        <v>809</v>
       </c>
       <c r="I128" s="1">
         <v>6</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -8556,13 +8557,13 @@
         <v>211</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>897</v>
+        <v>810</v>
       </c>
       <c r="I129" s="1">
         <v>6</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K129">
         <v>3</v>
@@ -8591,13 +8592,13 @@
         <v>214</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>898</v>
+        <v>811</v>
       </c>
       <c r="I130" s="1">
         <v>6</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K130">
         <v>3</v>
@@ -8626,13 +8627,13 @@
         <v>441</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>899</v>
+        <v>812</v>
       </c>
       <c r="I131" s="1">
         <v>6</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K131">
         <v>3</v>
@@ -8661,13 +8662,13 @@
         <v>62</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>900</v>
+        <v>813</v>
       </c>
       <c r="I132" s="1">
         <v>6</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K132">
         <v>3</v>
@@ -8696,13 +8697,13 @@
         <v>218</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>901</v>
+        <v>814</v>
       </c>
       <c r="I133" s="1">
         <v>6</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K133">
         <v>3</v>
@@ -8731,13 +8732,13 @@
         <v>221</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>902</v>
+        <v>815</v>
       </c>
       <c r="I134" s="1">
         <v>6</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K134">
         <v>3</v>
@@ -8766,13 +8767,13 @@
         <v>120</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>903</v>
+        <v>816</v>
       </c>
       <c r="I135" s="1">
         <v>6</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K135">
         <v>3</v>
@@ -8801,13 +8802,13 @@
         <v>71</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>904</v>
+        <v>817</v>
       </c>
       <c r="I136" s="1">
         <v>6</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K136">
         <v>3</v>
@@ -8836,13 +8837,13 @@
         <v>376</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>905</v>
+        <v>818</v>
       </c>
       <c r="I137" s="1">
         <v>6</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K137">
         <v>3</v>
@@ -8871,13 +8872,13 @@
         <v>116</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>906</v>
+        <v>819</v>
       </c>
       <c r="I138" s="1">
         <v>6</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K138">
         <v>3</v>
@@ -8906,13 +8907,13 @@
         <v>417</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>907</v>
+        <v>820</v>
       </c>
       <c r="I139" s="1">
         <v>6</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K139">
         <v>3</v>
@@ -8941,13 +8942,13 @@
         <v>8</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>908</v>
+        <v>821</v>
       </c>
       <c r="I140" s="1">
         <v>6</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K140">
         <v>3</v>
@@ -8976,13 +8977,13 @@
         <v>231</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>909</v>
+        <v>822</v>
       </c>
       <c r="I141" s="1">
         <v>6</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K141">
         <v>3</v>
@@ -9011,13 +9012,13 @@
         <v>41</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>910</v>
+        <v>823</v>
       </c>
       <c r="I142" s="1">
         <v>6</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K142">
         <v>3</v>
@@ -9046,13 +9047,13 @@
         <v>233</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>911</v>
+        <v>824</v>
       </c>
       <c r="I143" s="1">
         <v>6</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K143">
         <v>3</v>
@@ -9081,13 +9082,13 @@
         <v>235</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>912</v>
+        <v>825</v>
       </c>
       <c r="I144" s="1">
         <v>6</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K144">
         <v>3</v>
@@ -9116,13 +9117,13 @@
         <v>237</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>913</v>
+        <v>826</v>
       </c>
       <c r="I145" s="1">
         <v>6</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K145">
         <v>3</v>
@@ -9151,13 +9152,13 @@
         <v>238</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>914</v>
+        <v>827</v>
       </c>
       <c r="I146" s="1">
         <v>6</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K146">
         <v>3</v>
@@ -9186,13 +9187,13 @@
         <v>209</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>915</v>
+        <v>828</v>
       </c>
       <c r="I147" s="1">
         <v>6</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K147">
         <v>3</v>
@@ -9221,13 +9222,13 @@
         <v>240</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>916</v>
+        <v>829</v>
       </c>
       <c r="I148" s="1">
         <v>6</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K148">
         <v>3</v>
@@ -9256,13 +9257,13 @@
         <v>243</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>917</v>
+        <v>830</v>
       </c>
       <c r="I149" s="1">
         <v>6</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K149">
         <v>3</v>
@@ -9291,13 +9292,13 @@
         <v>79</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>918</v>
+        <v>831</v>
       </c>
       <c r="I150" s="1">
         <v>6</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K150">
         <v>3</v>
@@ -9326,13 +9327,13 @@
         <v>63</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>919</v>
+        <v>832</v>
       </c>
       <c r="I151" s="1">
         <v>6</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K151">
         <v>3</v>
@@ -9361,13 +9362,13 @@
         <v>245</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>920</v>
+        <v>833</v>
       </c>
       <c r="I152" s="1">
         <v>6</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K152">
         <v>3</v>
@@ -9396,13 +9397,13 @@
         <v>426</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>921</v>
+        <v>834</v>
       </c>
       <c r="I153" s="1">
         <v>6</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K153">
         <v>3</v>
@@ -9431,13 +9432,13 @@
         <v>385</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>922</v>
+        <v>835</v>
       </c>
       <c r="I154" s="1">
         <v>6</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K154">
         <v>3</v>
@@ -9466,13 +9467,13 @@
         <v>411</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>923</v>
+        <v>836</v>
       </c>
       <c r="I155" s="1">
         <v>6</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K155">
         <v>3</v>
@@ -9501,13 +9502,13 @@
         <v>248</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>924</v>
+        <v>837</v>
       </c>
       <c r="I156" s="1">
         <v>6</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K156">
         <v>3</v>
@@ -9536,13 +9537,13 @@
         <v>6</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>925</v>
+        <v>838</v>
       </c>
       <c r="I157" s="1">
         <v>6</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K157">
         <v>3</v>
@@ -9571,13 +9572,13 @@
         <v>496</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>926</v>
+        <v>839</v>
       </c>
       <c r="I158" s="1">
         <v>6</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K158">
         <v>3</v>
@@ -9606,13 +9607,13 @@
         <v>6</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>927</v>
+        <v>840</v>
       </c>
       <c r="I159" s="1">
         <v>6</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K159">
         <v>3</v>
@@ -9641,13 +9642,13 @@
         <v>131</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>928</v>
+        <v>841</v>
       </c>
       <c r="I160" s="1">
         <v>6</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K160">
         <v>3</v>
@@ -9676,13 +9677,13 @@
         <v>417</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>929</v>
+        <v>842</v>
       </c>
       <c r="I161" s="1">
         <v>6</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K161">
         <v>3</v>
@@ -9711,13 +9712,13 @@
         <v>254</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>930</v>
+        <v>843</v>
       </c>
       <c r="I162" s="1">
         <v>6</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K162">
         <v>4</v>
@@ -9746,13 +9747,13 @@
         <v>256</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>931</v>
+        <v>844</v>
       </c>
       <c r="I163" s="1">
         <v>6</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K163">
         <v>4</v>
@@ -9781,13 +9782,13 @@
         <v>412</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>932</v>
+        <v>845</v>
       </c>
       <c r="I164" s="1">
         <v>6</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K164">
         <v>4</v>
@@ -9816,13 +9817,13 @@
         <v>68</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>933</v>
+        <v>846</v>
       </c>
       <c r="I165" s="1">
         <v>6</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K165">
         <v>4</v>
@@ -9851,13 +9852,13 @@
         <v>193</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>934</v>
+        <v>847</v>
       </c>
       <c r="I166" s="1">
         <v>6</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K166">
         <v>4</v>
@@ -9886,13 +9887,13 @@
         <v>261</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>935</v>
+        <v>848</v>
       </c>
       <c r="I167" s="1">
         <v>6</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K167">
         <v>4</v>
@@ -9921,13 +9922,13 @@
         <v>264</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>936</v>
+        <v>849</v>
       </c>
       <c r="I168" s="1">
         <v>6</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K168">
         <v>4</v>
@@ -9956,13 +9957,13 @@
         <v>491</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>937</v>
+        <v>850</v>
       </c>
       <c r="I169" s="1">
         <v>6</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K169">
         <v>4</v>
@@ -9991,13 +9992,13 @@
         <v>497</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>938</v>
+        <v>851</v>
       </c>
       <c r="I170" s="1">
         <v>6</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K170">
         <v>4</v>
@@ -10026,13 +10027,13 @@
         <v>384</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>939</v>
+        <v>852</v>
       </c>
       <c r="I171" s="1">
         <v>6</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K171">
         <v>4</v>
@@ -10061,13 +10062,13 @@
         <v>256</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>940</v>
+        <v>853</v>
       </c>
       <c r="I172" s="1">
         <v>6</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K172">
         <v>4</v>
@@ -10096,13 +10097,13 @@
         <v>13</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>941</v>
+        <v>854</v>
       </c>
       <c r="I173" s="1">
         <v>6</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K173">
         <v>4</v>
@@ -10131,13 +10132,13 @@
         <v>270</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>942</v>
+        <v>855</v>
       </c>
       <c r="I174" s="1">
         <v>6</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K174">
         <v>4</v>
@@ -10166,13 +10167,13 @@
         <v>79</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>943</v>
+        <v>856</v>
       </c>
       <c r="I175" s="1">
         <v>6</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K175">
         <v>4</v>
@@ -10201,13 +10202,13 @@
         <v>273</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>944</v>
+        <v>857</v>
       </c>
       <c r="I176" s="1">
         <v>6</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K176">
         <v>4</v>
@@ -10236,13 +10237,13 @@
         <v>275</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>945</v>
+        <v>858</v>
       </c>
       <c r="I177" s="1">
         <v>6</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K177">
         <v>4</v>
@@ -10271,13 +10272,13 @@
         <v>276</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>946</v>
+        <v>859</v>
       </c>
       <c r="I178" s="1">
         <v>6</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K178">
         <v>4</v>
@@ -10306,13 +10307,13 @@
         <v>133</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>947</v>
+        <v>860</v>
       </c>
       <c r="I179" s="1">
         <v>6</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K179">
         <v>4</v>
@@ -10341,13 +10342,13 @@
         <v>280</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>948</v>
+        <v>861</v>
       </c>
       <c r="I180" s="1">
         <v>6</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K180">
         <v>4</v>
@@ -10376,13 +10377,13 @@
         <v>402</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>949</v>
+        <v>862</v>
       </c>
       <c r="I181" s="1">
         <v>6</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K181">
         <v>4</v>
@@ -10411,13 +10412,13 @@
         <v>282</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>950</v>
+        <v>863</v>
       </c>
       <c r="I182" s="1">
         <v>6</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K182">
         <v>4</v>
@@ -10446,13 +10447,13 @@
         <v>284</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>951</v>
+        <v>864</v>
       </c>
       <c r="I183" s="1">
         <v>6</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K183">
         <v>4</v>
@@ -10481,13 +10482,13 @@
         <v>286</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>952</v>
+        <v>865</v>
       </c>
       <c r="I184" s="1">
         <v>6</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K184">
         <v>4</v>
@@ -10516,13 +10517,13 @@
         <v>13</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>953</v>
+        <v>866</v>
       </c>
       <c r="I185" s="1">
         <v>6</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K185">
         <v>4</v>
@@ -10551,13 +10552,13 @@
         <v>384</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>954</v>
+        <v>867</v>
       </c>
       <c r="I186" s="1">
         <v>6</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K186">
         <v>4</v>
@@ -10586,13 +10587,13 @@
         <v>288</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>955</v>
+        <v>868</v>
       </c>
       <c r="I187" s="1">
         <v>6</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K187">
         <v>4</v>
@@ -10621,13 +10622,13 @@
         <v>290</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>956</v>
+        <v>869</v>
       </c>
       <c r="I188" s="1">
         <v>6</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K188">
         <v>4</v>
@@ -10656,13 +10657,13 @@
         <v>293</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>957</v>
+        <v>870</v>
       </c>
       <c r="I189" s="1">
         <v>6</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K189">
         <v>4</v>
@@ -10691,13 +10692,13 @@
         <v>295</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>958</v>
+        <v>871</v>
       </c>
       <c r="I190" s="1">
         <v>6</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K190">
         <v>4</v>
@@ -10726,13 +10727,13 @@
         <v>2</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>959</v>
+        <v>872</v>
       </c>
       <c r="I191" s="1">
         <v>6</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K191">
         <v>4</v>
@@ -10761,13 +10762,13 @@
         <v>297</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>960</v>
+        <v>873</v>
       </c>
       <c r="I192" s="1">
         <v>6</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K192">
         <v>4</v>
@@ -10796,13 +10797,13 @@
         <v>388</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>961</v>
+        <v>874</v>
       </c>
       <c r="I193" s="1">
         <v>6</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K193">
         <v>4</v>
@@ -10831,13 +10832,13 @@
         <v>260</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>962</v>
+        <v>875</v>
       </c>
       <c r="I194" s="1">
         <v>6</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K194">
         <v>4</v>
@@ -10866,13 +10867,13 @@
         <v>26</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>963</v>
+        <v>876</v>
       </c>
       <c r="I195" s="1">
         <v>6</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K195">
         <v>4</v>
@@ -10901,13 +10902,13 @@
         <v>403</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>964</v>
+        <v>877</v>
       </c>
       <c r="I196" s="1">
         <v>6</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K196">
         <v>4</v>
@@ -10936,13 +10937,13 @@
         <v>247</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>965</v>
+        <v>878</v>
       </c>
       <c r="I197" s="1">
         <v>6</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K197">
         <v>4</v>
@@ -10971,13 +10972,13 @@
         <v>301</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>966</v>
+        <v>879</v>
       </c>
       <c r="I198" s="1">
         <v>6</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K198">
         <v>4</v>
@@ -11006,13 +11007,13 @@
         <v>385</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>967</v>
+        <v>880</v>
       </c>
       <c r="I199" s="1">
         <v>6</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K199">
         <v>4</v>
@@ -11038,16 +11039,16 @@
         <v>62</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>880</v>
+        <v>793</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>968</v>
+        <v>881</v>
       </c>
       <c r="I200" s="1">
         <v>6</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K200">
         <v>4</v>
@@ -11076,13 +11077,13 @@
         <v>384</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>969</v>
+        <v>882</v>
       </c>
       <c r="I201" s="1">
         <v>6</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K201">
         <v>4</v>
@@ -11111,13 +11112,13 @@
         <v>433</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>970</v>
+        <v>883</v>
       </c>
       <c r="I202" s="1">
         <v>6</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K202">
         <v>4</v>
@@ -11146,13 +11147,13 @@
         <v>403</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>971</v>
+        <v>884</v>
       </c>
       <c r="I203" s="1">
         <v>6</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K203">
         <v>4</v>
@@ -11181,13 +11182,13 @@
         <v>412</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>972</v>
+        <v>885</v>
       </c>
       <c r="I204" s="1">
         <v>6</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K204">
         <v>4</v>
@@ -11216,13 +11217,13 @@
         <v>385</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>973</v>
+        <v>886</v>
       </c>
       <c r="I205" s="1">
         <v>6</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K205">
         <v>4</v>
@@ -11251,13 +11252,13 @@
         <v>307</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>974</v>
+        <v>1016</v>
       </c>
       <c r="I206" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K206">
         <v>4</v>
@@ -11286,13 +11287,13 @@
         <v>384</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>975</v>
+        <v>1017</v>
       </c>
       <c r="I207" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K207">
         <v>4</v>
@@ -11321,13 +11322,13 @@
         <v>33</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>976</v>
+        <v>1018</v>
       </c>
       <c r="I208" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K208">
         <v>4</v>
@@ -11356,13 +11357,13 @@
         <v>412</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>977</v>
+        <v>1019</v>
       </c>
       <c r="I209" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K209">
         <v>4</v>
@@ -11391,13 +11392,13 @@
         <v>188</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>978</v>
+        <v>1020</v>
       </c>
       <c r="I210" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K210">
         <v>4</v>
@@ -11426,13 +11427,13 @@
         <v>62</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>979</v>
+        <v>1021</v>
       </c>
       <c r="I211" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K211">
         <v>4</v>
@@ -11461,13 +11462,13 @@
         <v>12</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>980</v>
+        <v>1022</v>
       </c>
       <c r="I212" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K212">
         <v>4</v>
@@ -11496,13 +11497,13 @@
         <v>26</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>981</v>
+        <v>1023</v>
       </c>
       <c r="I213" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K213">
         <v>4</v>
@@ -11531,13 +11532,13 @@
         <v>411</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>982</v>
+        <v>1024</v>
       </c>
       <c r="I214" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K214">
         <v>4</v>
@@ -11566,13 +11567,13 @@
         <v>392</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>983</v>
+        <v>1025</v>
       </c>
       <c r="I215" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K215">
         <v>4</v>
@@ -11601,13 +11602,13 @@
         <v>315</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>984</v>
+        <v>1026</v>
       </c>
       <c r="I216" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K216">
         <v>4</v>
@@ -11636,13 +11637,13 @@
         <v>316</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>985</v>
+        <v>1027</v>
       </c>
       <c r="I217" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K217">
         <v>4</v>
@@ -11671,13 +11672,13 @@
         <v>317</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>986</v>
+        <v>1028</v>
       </c>
       <c r="I218" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K218">
         <v>4</v>
@@ -11706,13 +11707,13 @@
         <v>244</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>987</v>
+        <v>1029</v>
       </c>
       <c r="I219" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K219">
         <v>4</v>
@@ -11741,13 +11742,13 @@
         <v>8</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>988</v>
+        <v>1030</v>
       </c>
       <c r="I220" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K220">
         <v>4</v>
@@ -11776,13 +11777,13 @@
         <v>68</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>989</v>
+        <v>1031</v>
       </c>
       <c r="I221" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K221">
         <v>4</v>
@@ -11811,13 +11812,13 @@
         <v>411</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>990</v>
+        <v>1032</v>
       </c>
       <c r="I222" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K222">
         <v>5</v>
@@ -11846,13 +11847,13 @@
         <v>385</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>991</v>
+        <v>1033</v>
       </c>
       <c r="I223" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K223">
         <v>5</v>
@@ -11881,13 +11882,13 @@
         <v>325</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>992</v>
+        <v>1034</v>
       </c>
       <c r="I224" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K224">
         <v>5</v>
@@ -11916,13 +11917,13 @@
         <v>327</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>993</v>
+        <v>1035</v>
       </c>
       <c r="I225" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K225">
         <v>5</v>
@@ -11951,13 +11952,13 @@
         <v>329</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>994</v>
+        <v>1036</v>
       </c>
       <c r="I226" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K226">
         <v>5</v>
@@ -11986,13 +11987,13 @@
         <v>514</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>995</v>
+        <v>1037</v>
       </c>
       <c r="I227" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K227">
         <v>5</v>
@@ -12021,13 +12022,13 @@
         <v>331</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>996</v>
+        <v>1038</v>
       </c>
       <c r="I228" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K228">
         <v>5</v>
@@ -12056,13 +12057,13 @@
         <v>333</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>997</v>
+        <v>1039</v>
       </c>
       <c r="I229" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K229">
         <v>5</v>
@@ -12091,13 +12092,13 @@
         <v>403</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>998</v>
+        <v>1040</v>
       </c>
       <c r="I230" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K230">
         <v>5</v>
@@ -12126,13 +12127,13 @@
         <v>245</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>999</v>
+        <v>1041</v>
       </c>
       <c r="I231" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K231">
         <v>5</v>
@@ -12161,13 +12162,13 @@
         <v>339</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>1000</v>
+        <v>887</v>
       </c>
       <c r="I232" s="1">
         <v>11</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K232">
         <v>5</v>
@@ -12196,13 +12197,13 @@
         <v>340</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>1001</v>
+        <v>888</v>
       </c>
       <c r="I233" s="1">
         <v>11</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K233">
         <v>5</v>
@@ -12231,13 +12232,13 @@
         <v>243</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>1002</v>
+        <v>889</v>
       </c>
       <c r="I234" s="1">
         <v>11</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K234">
         <v>5</v>
@@ -12266,13 +12267,13 @@
         <v>29</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>1003</v>
+        <v>890</v>
       </c>
       <c r="I235" s="1">
         <v>11</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K235">
         <v>5</v>
@@ -12301,13 +12302,13 @@
         <v>345</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>1004</v>
+        <v>891</v>
       </c>
       <c r="I236" s="1">
         <v>11</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K236">
         <v>5</v>
@@ -12336,13 +12337,13 @@
         <v>223</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>1005</v>
+        <v>892</v>
       </c>
       <c r="I237" s="1">
         <v>11</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K237">
         <v>5</v>
@@ -12371,13 +12372,13 @@
         <v>118</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>1006</v>
+        <v>893</v>
       </c>
       <c r="I238" s="1">
         <v>11</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K238">
         <v>5</v>
@@ -12406,13 +12407,13 @@
         <v>8</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>1007</v>
+        <v>894</v>
       </c>
       <c r="I239" s="1">
         <v>11</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K239">
         <v>5</v>
@@ -12441,13 +12442,13 @@
         <v>349</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>1008</v>
+        <v>895</v>
       </c>
       <c r="I240" s="1">
         <v>11</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K240">
         <v>5</v>
@@ -12476,13 +12477,13 @@
         <v>352</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>1009</v>
+        <v>896</v>
       </c>
       <c r="I241" s="1">
         <v>11</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K241">
         <v>5</v>
@@ -12511,13 +12512,13 @@
         <v>354</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>1010</v>
+        <v>897</v>
       </c>
       <c r="I242" s="1">
         <v>11</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K242">
         <v>5</v>
@@ -12546,13 +12547,13 @@
         <v>293</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>1011</v>
+        <v>898</v>
       </c>
       <c r="I243" s="1">
         <v>11</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K243">
         <v>5</v>
@@ -12581,13 +12582,13 @@
         <v>513</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>1012</v>
+        <v>899</v>
       </c>
       <c r="I244" s="1">
         <v>11</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K244">
         <v>5</v>
@@ -12616,13 +12617,13 @@
         <v>437</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>1013</v>
+        <v>900</v>
       </c>
       <c r="I245" s="1">
         <v>11</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K245">
         <v>5</v>
@@ -12651,13 +12652,13 @@
         <v>385</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>1014</v>
+        <v>901</v>
       </c>
       <c r="I246" s="1">
         <v>11</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K246">
         <v>5</v>
@@ -12686,13 +12687,13 @@
         <v>361</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>1015</v>
+        <v>902</v>
       </c>
       <c r="I247" s="1">
         <v>11</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K247">
         <v>5</v>
@@ -12721,13 +12722,13 @@
         <v>333</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>1016</v>
+        <v>903</v>
       </c>
       <c r="I248" s="1">
         <v>11</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K248">
         <v>5</v>
@@ -12756,13 +12757,13 @@
         <v>193</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>1017</v>
+        <v>904</v>
       </c>
       <c r="I249" s="1">
         <v>11</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K249">
         <v>5</v>
@@ -12791,13 +12792,13 @@
         <v>162</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>1018</v>
+        <v>905</v>
       </c>
       <c r="I250" s="1">
         <v>11</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K250">
         <v>5</v>
@@ -12826,13 +12827,13 @@
         <v>366</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>1019</v>
+        <v>906</v>
       </c>
       <c r="I251" s="1">
         <v>11</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K251">
         <v>5</v>
@@ -12861,13 +12862,13 @@
         <v>367</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>1020</v>
+        <v>907</v>
       </c>
       <c r="I252" s="1">
         <v>11</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K252">
         <v>5</v>
@@ -12896,13 +12897,13 @@
         <v>198</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>1021</v>
+        <v>908</v>
       </c>
       <c r="I253" s="1">
         <v>11</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K253">
         <v>5</v>
@@ -12931,13 +12932,13 @@
         <v>3</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>1022</v>
+        <v>909</v>
       </c>
       <c r="I254" s="1">
         <v>11</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K254">
         <v>5</v>
@@ -12966,13 +12967,13 @@
         <v>389</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>1023</v>
+        <v>910</v>
       </c>
       <c r="I255" s="1">
         <v>11</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>1024</v>
+        <v>911</v>
       </c>
       <c r="K255">
         <v>5</v>
@@ -12983,7 +12984,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1026</v>
+        <v>913</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>501</v>
@@ -13001,13 +13002,13 @@
         <v>62</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>1030</v>
+        <v>917</v>
       </c>
       <c r="I256" s="1">
         <v>13</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>1027</v>
+        <v>914</v>
       </c>
       <c r="K256">
         <v>5</v>
@@ -13018,7 +13019,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1028</v>
+        <v>915</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>501</v>
@@ -13030,19 +13031,19 @@
         <v>159</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1029</v>
+        <v>916</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>1031</v>
+        <v>918</v>
       </c>
       <c r="I257" s="1">
         <v>13</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>1027</v>
+        <v>914</v>
       </c>
       <c r="K257">
         <v>5</v>
@@ -13053,7 +13054,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1032</v>
+        <v>919</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>501</v>
@@ -13065,7 +13066,7 @@
         <v>87</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1033</v>
+        <v>920</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>202</v>
@@ -13077,7 +13078,7 @@
         <v>13</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>1027</v>
+        <v>914</v>
       </c>
       <c r="K258">
         <v>1</v>
@@ -13088,7 +13089,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1034</v>
+        <v>921</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>501</v>
@@ -13112,7 +13113,7 @@
         <v>17</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>1027</v>
+        <v>914</v>
       </c>
       <c r="K259">
         <v>1</v>
@@ -13123,7 +13124,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1035</v>
+        <v>922</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>501</v>
@@ -13135,7 +13136,7 @@
         <v>512</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1036</v>
+        <v>923</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>131</v>
@@ -13147,7 +13148,7 @@
         <v>19</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>1037</v>
+        <v>924</v>
       </c>
       <c r="K260">
         <v>1</v>
@@ -13158,7 +13159,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1038</v>
+        <v>925</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>501</v>
@@ -13167,13 +13168,13 @@
         <v>504</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1039</v>
+        <v>926</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1040</v>
+        <v>927</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>1041</v>
+        <v>928</v>
       </c>
       <c r="H261">
         <v>190002</v>
@@ -13182,11 +13183,21 @@
         <v>19</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>1037</v>
+        <v>924</v>
       </c>
       <c r="K261">
         <v>2</v>
       </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datos/personal.xlsx
+++ b/Datos/personal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD5B59DC-4548-47B2-9758-3CB37DD46584}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605E026E-2202-4189-991B-BC098DC1DF6A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="789">
   <si>
     <t>idempleado</t>
   </si>
@@ -1601,6 +1601,792 @@
   </si>
   <si>
     <t>Alemán</t>
+  </si>
+  <si>
+    <t>020001</t>
+  </si>
+  <si>
+    <t>020002</t>
+  </si>
+  <si>
+    <t>020003</t>
+  </si>
+  <si>
+    <t>020004</t>
+  </si>
+  <si>
+    <t>020005</t>
+  </si>
+  <si>
+    <t>020006</t>
+  </si>
+  <si>
+    <t>020007</t>
+  </si>
+  <si>
+    <t>020008</t>
+  </si>
+  <si>
+    <t>020009</t>
+  </si>
+  <si>
+    <t>020010</t>
+  </si>
+  <si>
+    <t>020011</t>
+  </si>
+  <si>
+    <t>020012</t>
+  </si>
+  <si>
+    <t>020013</t>
+  </si>
+  <si>
+    <t>020014</t>
+  </si>
+  <si>
+    <t>020015</t>
+  </si>
+  <si>
+    <t>020016</t>
+  </si>
+  <si>
+    <t>020017</t>
+  </si>
+  <si>
+    <t>020018</t>
+  </si>
+  <si>
+    <t>020019</t>
+  </si>
+  <si>
+    <t>020020</t>
+  </si>
+  <si>
+    <t>020021</t>
+  </si>
+  <si>
+    <t>020022</t>
+  </si>
+  <si>
+    <t>020023</t>
+  </si>
+  <si>
+    <t>020024</t>
+  </si>
+  <si>
+    <t>020025</t>
+  </si>
+  <si>
+    <t>020026</t>
+  </si>
+  <si>
+    <t>020027</t>
+  </si>
+  <si>
+    <t>020028</t>
+  </si>
+  <si>
+    <t>020029</t>
+  </si>
+  <si>
+    <t>020030</t>
+  </si>
+  <si>
+    <t>020031</t>
+  </si>
+  <si>
+    <t>020032</t>
+  </si>
+  <si>
+    <t>020033</t>
+  </si>
+  <si>
+    <t>020034</t>
+  </si>
+  <si>
+    <t>020035</t>
+  </si>
+  <si>
+    <t>020036</t>
+  </si>
+  <si>
+    <t>050001</t>
+  </si>
+  <si>
+    <t>050002</t>
+  </si>
+  <si>
+    <t>050003</t>
+  </si>
+  <si>
+    <t>050004</t>
+  </si>
+  <si>
+    <t>050005</t>
+  </si>
+  <si>
+    <t>050006</t>
+  </si>
+  <si>
+    <t>050007</t>
+  </si>
+  <si>
+    <t>050008</t>
+  </si>
+  <si>
+    <t>050009</t>
+  </si>
+  <si>
+    <t>050010</t>
+  </si>
+  <si>
+    <t>050011</t>
+  </si>
+  <si>
+    <t>050012</t>
+  </si>
+  <si>
+    <t>050013</t>
+  </si>
+  <si>
+    <t>050014</t>
+  </si>
+  <si>
+    <t>050015</t>
+  </si>
+  <si>
+    <t>050016</t>
+  </si>
+  <si>
+    <t>050017</t>
+  </si>
+  <si>
+    <t>050018</t>
+  </si>
+  <si>
+    <t>050019</t>
+  </si>
+  <si>
+    <t>050020</t>
+  </si>
+  <si>
+    <t>070001</t>
+  </si>
+  <si>
+    <t>070002</t>
+  </si>
+  <si>
+    <t>070003</t>
+  </si>
+  <si>
+    <t>070004</t>
+  </si>
+  <si>
+    <t>070005</t>
+  </si>
+  <si>
+    <t>070006</t>
+  </si>
+  <si>
+    <t>070007</t>
+  </si>
+  <si>
+    <t>070008</t>
+  </si>
+  <si>
+    <t>070009</t>
+  </si>
+  <si>
+    <t>070010</t>
+  </si>
+  <si>
+    <t>070011</t>
+  </si>
+  <si>
+    <t>070012</t>
+  </si>
+  <si>
+    <t>070013</t>
+  </si>
+  <si>
+    <t>070014</t>
+  </si>
+  <si>
+    <t>070015</t>
+  </si>
+  <si>
+    <t>070016</t>
+  </si>
+  <si>
+    <t>070017</t>
+  </si>
+  <si>
+    <t>070018</t>
+  </si>
+  <si>
+    <t>070019</t>
+  </si>
+  <si>
+    <t>070020</t>
+  </si>
+  <si>
+    <t>070021</t>
+  </si>
+  <si>
+    <t>070022</t>
+  </si>
+  <si>
+    <t>070023</t>
+  </si>
+  <si>
+    <t>070024</t>
+  </si>
+  <si>
+    <t>070025</t>
+  </si>
+  <si>
+    <t>070026</t>
+  </si>
+  <si>
+    <t>070027</t>
+  </si>
+  <si>
+    <t>070028</t>
+  </si>
+  <si>
+    <t>070029</t>
+  </si>
+  <si>
+    <t>070030</t>
+  </si>
+  <si>
+    <t>070031</t>
+  </si>
+  <si>
+    <t>070032</t>
+  </si>
+  <si>
+    <t>070033</t>
+  </si>
+  <si>
+    <t>070034</t>
+  </si>
+  <si>
+    <t>070035</t>
+  </si>
+  <si>
+    <t>070036</t>
+  </si>
+  <si>
+    <t>070037</t>
+  </si>
+  <si>
+    <t>070038</t>
+  </si>
+  <si>
+    <t>070039</t>
+  </si>
+  <si>
+    <t>070040</t>
+  </si>
+  <si>
+    <t>070041</t>
+  </si>
+  <si>
+    <t>070042</t>
+  </si>
+  <si>
+    <t>070043</t>
+  </si>
+  <si>
+    <t>070044</t>
+  </si>
+  <si>
+    <t>070045</t>
+  </si>
+  <si>
+    <t>070046</t>
+  </si>
+  <si>
+    <t>070047</t>
+  </si>
+  <si>
+    <t>070048</t>
+  </si>
+  <si>
+    <t>070049</t>
+  </si>
+  <si>
+    <t>070050</t>
+  </si>
+  <si>
+    <t>070051</t>
+  </si>
+  <si>
+    <t>060001</t>
+  </si>
+  <si>
+    <t>060002</t>
+  </si>
+  <si>
+    <t>060003</t>
+  </si>
+  <si>
+    <t>060004</t>
+  </si>
+  <si>
+    <t>060005</t>
+  </si>
+  <si>
+    <t>060006</t>
+  </si>
+  <si>
+    <t>060007</t>
+  </si>
+  <si>
+    <t>060008</t>
+  </si>
+  <si>
+    <t>060009</t>
+  </si>
+  <si>
+    <t>060010</t>
+  </si>
+  <si>
+    <t>060011</t>
+  </si>
+  <si>
+    <t>060012</t>
+  </si>
+  <si>
+    <t>060013</t>
+  </si>
+  <si>
+    <t>060014</t>
+  </si>
+  <si>
+    <t>060015</t>
+  </si>
+  <si>
+    <t>060016</t>
+  </si>
+  <si>
+    <t>060017</t>
+  </si>
+  <si>
+    <t>060018</t>
+  </si>
+  <si>
+    <t>060019</t>
+  </si>
+  <si>
+    <t>060020</t>
+  </si>
+  <si>
+    <t>060021</t>
+  </si>
+  <si>
+    <t>060022</t>
+  </si>
+  <si>
+    <t>060023</t>
+  </si>
+  <si>
+    <t>060024</t>
+  </si>
+  <si>
+    <t>060025</t>
+  </si>
+  <si>
+    <t>060026</t>
+  </si>
+  <si>
+    <t>060027</t>
+  </si>
+  <si>
+    <t>060028</t>
+  </si>
+  <si>
+    <t>060029</t>
+  </si>
+  <si>
+    <t>060030</t>
+  </si>
+  <si>
+    <t>060031</t>
+  </si>
+  <si>
+    <t>060032</t>
+  </si>
+  <si>
+    <t>060033</t>
+  </si>
+  <si>
+    <t>060034</t>
+  </si>
+  <si>
+    <t>060035</t>
+  </si>
+  <si>
+    <t>060036</t>
+  </si>
+  <si>
+    <t>060037</t>
+  </si>
+  <si>
+    <t>060038</t>
+  </si>
+  <si>
+    <t>060039</t>
+  </si>
+  <si>
+    <t>060040</t>
+  </si>
+  <si>
+    <t>060041</t>
+  </si>
+  <si>
+    <t>060042</t>
+  </si>
+  <si>
+    <t>060043</t>
+  </si>
+  <si>
+    <t>060044</t>
+  </si>
+  <si>
+    <t>060045</t>
+  </si>
+  <si>
+    <t>060046</t>
+  </si>
+  <si>
+    <t>060047</t>
+  </si>
+  <si>
+    <t>060048</t>
+  </si>
+  <si>
+    <t>060049</t>
+  </si>
+  <si>
+    <t>060050</t>
+  </si>
+  <si>
+    <t>060051</t>
+  </si>
+  <si>
+    <t>060052</t>
+  </si>
+  <si>
+    <t>060053</t>
+  </si>
+  <si>
+    <t>060054</t>
+  </si>
+  <si>
+    <t>060055</t>
+  </si>
+  <si>
+    <t>060056</t>
+  </si>
+  <si>
+    <t>060057</t>
+  </si>
+  <si>
+    <t>060058</t>
+  </si>
+  <si>
+    <t>060059</t>
+  </si>
+  <si>
+    <t>060060</t>
+  </si>
+  <si>
+    <t>060061</t>
+  </si>
+  <si>
+    <t>060062</t>
+  </si>
+  <si>
+    <t>060063</t>
+  </si>
+  <si>
+    <t>060064</t>
+  </si>
+  <si>
+    <t>060065</t>
+  </si>
+  <si>
+    <t>060066</t>
+  </si>
+  <si>
+    <t>060067</t>
+  </si>
+  <si>
+    <t>060068</t>
+  </si>
+  <si>
+    <t>060069</t>
+  </si>
+  <si>
+    <t>060070</t>
+  </si>
+  <si>
+    <t>060071</t>
+  </si>
+  <si>
+    <t>060072</t>
+  </si>
+  <si>
+    <t>060073</t>
+  </si>
+  <si>
+    <t>060074</t>
+  </si>
+  <si>
+    <t>060075</t>
+  </si>
+  <si>
+    <t>060076</t>
+  </si>
+  <si>
+    <t>060077</t>
+  </si>
+  <si>
+    <t>060078</t>
+  </si>
+  <si>
+    <t>060079</t>
+  </si>
+  <si>
+    <t>060080</t>
+  </si>
+  <si>
+    <t>060081</t>
+  </si>
+  <si>
+    <t>060082</t>
+  </si>
+  <si>
+    <t>060083</t>
+  </si>
+  <si>
+    <t>060084</t>
+  </si>
+  <si>
+    <t>060085</t>
+  </si>
+  <si>
+    <t>060086</t>
+  </si>
+  <si>
+    <t>060087</t>
+  </si>
+  <si>
+    <t>060088</t>
+  </si>
+  <si>
+    <t>060089</t>
+  </si>
+  <si>
+    <t>060090</t>
+  </si>
+  <si>
+    <t>060091</t>
+  </si>
+  <si>
+    <t>060092</t>
+  </si>
+  <si>
+    <t>060093</t>
+  </si>
+  <si>
+    <t>060094</t>
+  </si>
+  <si>
+    <t>060095</t>
+  </si>
+  <si>
+    <t>060096</t>
+  </si>
+  <si>
+    <t>060097</t>
+  </si>
+  <si>
+    <t>080001</t>
+  </si>
+  <si>
+    <t>080002</t>
+  </si>
+  <si>
+    <t>080003</t>
+  </si>
+  <si>
+    <t>080004</t>
+  </si>
+  <si>
+    <t>080005</t>
+  </si>
+  <si>
+    <t>080006</t>
+  </si>
+  <si>
+    <t>080007</t>
+  </si>
+  <si>
+    <t>080008</t>
+  </si>
+  <si>
+    <t>080009</t>
+  </si>
+  <si>
+    <t>080010</t>
+  </si>
+  <si>
+    <t>080011</t>
+  </si>
+  <si>
+    <t>080012</t>
+  </si>
+  <si>
+    <t>080013</t>
+  </si>
+  <si>
+    <t>080014</t>
+  </si>
+  <si>
+    <t>080015</t>
+  </si>
+  <si>
+    <t>080016</t>
+  </si>
+  <si>
+    <t>080017</t>
+  </si>
+  <si>
+    <t>080018</t>
+  </si>
+  <si>
+    <t>080019</t>
+  </si>
+  <si>
+    <t>080020</t>
+  </si>
+  <si>
+    <t>080021</t>
+  </si>
+  <si>
+    <t>080022</t>
+  </si>
+  <si>
+    <t>080023</t>
+  </si>
+  <si>
+    <t>080024</t>
+  </si>
+  <si>
+    <t>080025</t>
+  </si>
+  <si>
+    <t>080026</t>
+  </si>
+  <si>
+    <t>010001</t>
+  </si>
+  <si>
+    <t>010002</t>
+  </si>
+  <si>
+    <t>010003</t>
+  </si>
+  <si>
+    <t>010004</t>
+  </si>
+  <si>
+    <t>090152</t>
+  </si>
+  <si>
+    <t>090153</t>
+  </si>
+  <si>
+    <t>090124</t>
+  </si>
+  <si>
+    <t>090125</t>
+  </si>
+  <si>
+    <t>090126</t>
+  </si>
+  <si>
+    <t>090127</t>
+  </si>
+  <si>
+    <t>090128</t>
+  </si>
+  <si>
+    <t>090129</t>
+  </si>
+  <si>
+    <t>090130</t>
+  </si>
+  <si>
+    <t>090131</t>
+  </si>
+  <si>
+    <t>090132</t>
+  </si>
+  <si>
+    <t>090133</t>
+  </si>
+  <si>
+    <t>090134</t>
+  </si>
+  <si>
+    <t>090135</t>
+  </si>
+  <si>
+    <t>090136</t>
+  </si>
+  <si>
+    <t>090137</t>
+  </si>
+  <si>
+    <t>090138</t>
+  </si>
+  <si>
+    <t>090139</t>
+  </si>
+  <si>
+    <t>090140</t>
+  </si>
+  <si>
+    <t>090141</t>
+  </si>
+  <si>
+    <t>090142</t>
+  </si>
+  <si>
+    <t>090143</t>
+  </si>
+  <si>
+    <t>090144</t>
+  </si>
+  <si>
+    <t>090145</t>
+  </si>
+  <si>
+    <t>090146</t>
+  </si>
+  <si>
+    <t>090147</t>
+  </si>
+  <si>
+    <t>Itzel</t>
+  </si>
+  <si>
+    <t>090154</t>
   </si>
 </sst>
 </file>
@@ -2084,9 +2870,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2444,10 +3233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L261"/>
+  <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="H235" sqref="H235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,8 +3316,8 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1">
-        <v>20001</v>
+      <c r="I2" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="J2" s="1">
         <v>2</v>
@@ -2565,8 +3354,8 @@
       <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1">
-        <v>20002</v>
+      <c r="I3" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -2603,8 +3392,8 @@
       <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1">
-        <v>20003</v>
+      <c r="I4" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
@@ -2641,8 +3430,8 @@
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1">
-        <v>20004</v>
+      <c r="I5" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="J5" s="1">
         <v>2</v>
@@ -2679,8 +3468,8 @@
       <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="1">
-        <v>20005</v>
+      <c r="I6" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
@@ -2717,8 +3506,8 @@
       <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="1">
-        <v>20006</v>
+      <c r="I7" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
@@ -2755,8 +3544,8 @@
       <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="1">
-        <v>20007</v>
+      <c r="I8" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="J8" s="1">
         <v>2</v>
@@ -2793,8 +3582,8 @@
       <c r="H9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="1">
-        <v>20008</v>
+      <c r="I9" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="J9" s="1">
         <v>2</v>
@@ -2831,8 +3620,8 @@
       <c r="H10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="1">
-        <v>20009</v>
+      <c r="I10" s="2" t="s">
+        <v>535</v>
       </c>
       <c r="J10" s="1">
         <v>2</v>
@@ -2869,8 +3658,8 @@
       <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="1">
-        <v>20010</v>
+      <c r="I11" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="J11" s="1">
         <v>2</v>
@@ -2907,8 +3696,8 @@
       <c r="H12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="1">
-        <v>20011</v>
+      <c r="I12" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
@@ -2945,8 +3734,8 @@
       <c r="H13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="1">
-        <v>20012</v>
+      <c r="I13" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -2983,8 +3772,8 @@
       <c r="H14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="1">
-        <v>20013</v>
+      <c r="I14" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="J14" s="1">
         <v>2</v>
@@ -3021,8 +3810,8 @@
       <c r="H15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="1">
-        <v>20014</v>
+      <c r="I15" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
@@ -3059,8 +3848,8 @@
       <c r="H16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="1">
-        <v>20015</v>
+      <c r="I16" s="2" t="s">
+        <v>541</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
@@ -3097,8 +3886,8 @@
       <c r="H17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="1">
-        <v>20016</v>
+      <c r="I17" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="J17" s="1">
         <v>2</v>
@@ -3135,8 +3924,8 @@
       <c r="H18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="1">
-        <v>20017</v>
+      <c r="I18" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="J18" s="1">
         <v>2</v>
@@ -3173,8 +3962,8 @@
       <c r="H19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="1">
-        <v>20018</v>
+      <c r="I19" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="J19" s="1">
         <v>2</v>
@@ -3211,8 +4000,8 @@
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="1">
-        <v>20019</v>
+      <c r="I20" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="J20" s="1">
         <v>2</v>
@@ -3249,8 +4038,8 @@
       <c r="H21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="1">
-        <v>20020</v>
+      <c r="I21" s="2" t="s">
+        <v>546</v>
       </c>
       <c r="J21" s="1">
         <v>2</v>
@@ -3287,8 +4076,8 @@
       <c r="H22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="1">
-        <v>20021</v>
+      <c r="I22" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
@@ -3325,8 +4114,8 @@
       <c r="H23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="1">
-        <v>20022</v>
+      <c r="I23" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -3363,8 +4152,8 @@
       <c r="H24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="1">
-        <v>20023</v>
+      <c r="I24" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="J24" s="1">
         <v>2</v>
@@ -3401,8 +4190,8 @@
       <c r="H25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="1">
-        <v>20024</v>
+      <c r="I25" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="J25" s="1">
         <v>2</v>
@@ -3439,8 +4228,8 @@
       <c r="H26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="1">
-        <v>20025</v>
+      <c r="I26" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="J26" s="1">
         <v>2</v>
@@ -3477,8 +4266,8 @@
       <c r="H27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="1">
-        <v>20026</v>
+      <c r="I27" s="2" t="s">
+        <v>552</v>
       </c>
       <c r="J27" s="1">
         <v>2</v>
@@ -3515,8 +4304,8 @@
       <c r="H28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="1">
-        <v>20027</v>
+      <c r="I28" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="J28" s="1">
         <v>2</v>
@@ -3553,8 +4342,8 @@
       <c r="H29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I29" s="1">
-        <v>20028</v>
+      <c r="I29" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="J29" s="1">
         <v>2</v>
@@ -3591,8 +4380,8 @@
       <c r="H30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="1">
-        <v>20029</v>
+      <c r="I30" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="J30" s="1">
         <v>2</v>
@@ -3629,8 +4418,8 @@
       <c r="H31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="1">
-        <v>20030</v>
+      <c r="I31" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="J31" s="1">
         <v>2</v>
@@ -3667,8 +4456,8 @@
       <c r="H32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="1">
-        <v>20031</v>
+      <c r="I32" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="J32" s="1">
         <v>2</v>
@@ -3705,8 +4494,8 @@
       <c r="H33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I33" s="1">
-        <v>20032</v>
+      <c r="I33" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="J33" s="1">
         <v>2</v>
@@ -3743,8 +4532,8 @@
       <c r="H34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="1">
-        <v>20033</v>
+      <c r="I34" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="J34" s="1">
         <v>2</v>
@@ -3781,8 +4570,8 @@
       <c r="H35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I35" s="1">
-        <v>20034</v>
+      <c r="I35" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="J35" s="1">
         <v>2</v>
@@ -3819,8 +4608,8 @@
       <c r="H36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I36" s="1">
-        <v>20035</v>
+      <c r="I36" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="J36" s="1">
         <v>2</v>
@@ -3857,8 +4646,8 @@
       <c r="H37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I37" s="1">
-        <v>20036</v>
+      <c r="I37" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="J37" s="1">
         <v>2</v>
@@ -3895,8 +4684,8 @@
       <c r="H38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="1">
-        <v>50001</v>
+      <c r="I38" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="J38" s="1">
         <v>5</v>
@@ -3933,8 +4722,8 @@
       <c r="H39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="1">
-        <v>50002</v>
+      <c r="I39" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="J39" s="1">
         <v>5</v>
@@ -3971,8 +4760,8 @@
       <c r="H40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="1">
-        <v>50003</v>
+      <c r="I40" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="J40" s="1">
         <v>5</v>
@@ -4009,8 +4798,8 @@
       <c r="H41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="1">
-        <v>50004</v>
+      <c r="I41" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="J41" s="1">
         <v>5</v>
@@ -4047,8 +4836,8 @@
       <c r="H42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I42" s="1">
-        <v>50005</v>
+      <c r="I42" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="J42" s="1">
         <v>5</v>
@@ -4085,8 +4874,8 @@
       <c r="H43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="1">
-        <v>50006</v>
+      <c r="I43" s="2" t="s">
+        <v>568</v>
       </c>
       <c r="J43" s="1">
         <v>5</v>
@@ -4123,8 +4912,8 @@
       <c r="H44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I44" s="1">
-        <v>50007</v>
+      <c r="I44" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="J44" s="1">
         <v>5</v>
@@ -4161,8 +4950,8 @@
       <c r="H45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="1">
-        <v>50008</v>
+      <c r="I45" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="J45" s="1">
         <v>5</v>
@@ -4199,8 +4988,8 @@
       <c r="H46" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I46" s="1">
-        <v>50009</v>
+      <c r="I46" s="2" t="s">
+        <v>571</v>
       </c>
       <c r="J46" s="1">
         <v>5</v>
@@ -4237,8 +5026,8 @@
       <c r="H47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I47" s="1">
-        <v>50010</v>
+      <c r="I47" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="J47" s="1">
         <v>5</v>
@@ -4275,8 +5064,8 @@
       <c r="H48" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I48" s="1">
-        <v>50011</v>
+      <c r="I48" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="J48" s="1">
         <v>5</v>
@@ -4313,8 +5102,8 @@
       <c r="H49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="1">
-        <v>50012</v>
+      <c r="I49" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="J49" s="1">
         <v>5</v>
@@ -4351,8 +5140,8 @@
       <c r="H50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I50" s="1">
-        <v>50013</v>
+      <c r="I50" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="J50" s="1">
         <v>5</v>
@@ -4389,8 +5178,8 @@
       <c r="H51" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I51" s="1">
-        <v>50014</v>
+      <c r="I51" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="J51" s="1">
         <v>5</v>
@@ -4427,8 +5216,8 @@
       <c r="H52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I52" s="1">
-        <v>50015</v>
+      <c r="I52" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="J52" s="1">
         <v>5</v>
@@ -4465,8 +5254,8 @@
       <c r="H53" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I53" s="1">
-        <v>50016</v>
+      <c r="I53" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="J53" s="1">
         <v>5</v>
@@ -4503,8 +5292,8 @@
       <c r="H54" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I54" s="1">
-        <v>50017</v>
+      <c r="I54" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="J54" s="1">
         <v>5</v>
@@ -4541,8 +5330,8 @@
       <c r="H55" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I55" s="1">
-        <v>50018</v>
+      <c r="I55" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="J55" s="1">
         <v>5</v>
@@ -4579,8 +5368,8 @@
       <c r="H56" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I56" s="1">
-        <v>50019</v>
+      <c r="I56" s="2" t="s">
+        <v>581</v>
       </c>
       <c r="J56" s="1">
         <v>5</v>
@@ -4617,8 +5406,8 @@
       <c r="H57" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I57" s="1">
-        <v>50020</v>
+      <c r="I57" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="J57" s="1">
         <v>5</v>
@@ -4655,8 +5444,8 @@
       <c r="H58" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I58" s="1">
-        <v>70001</v>
+      <c r="I58" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="J58" s="1">
         <v>7</v>
@@ -4693,8 +5482,8 @@
       <c r="H59" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I59" s="1">
-        <v>70002</v>
+      <c r="I59" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="J59" s="1">
         <v>7</v>
@@ -4731,8 +5520,8 @@
       <c r="H60" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I60" s="1">
-        <v>70003</v>
+      <c r="I60" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="J60" s="1">
         <v>7</v>
@@ -4769,8 +5558,8 @@
       <c r="H61" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I61" s="1">
-        <v>70004</v>
+      <c r="I61" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="J61" s="1">
         <v>7</v>
@@ -4807,8 +5596,8 @@
       <c r="H62" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I62" s="1">
-        <v>70005</v>
+      <c r="I62" s="2" t="s">
+        <v>587</v>
       </c>
       <c r="J62" s="1">
         <v>7</v>
@@ -4845,8 +5634,8 @@
       <c r="H63" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I63" s="1">
-        <v>70006</v>
+      <c r="I63" s="2" t="s">
+        <v>588</v>
       </c>
       <c r="J63" s="1">
         <v>7</v>
@@ -4883,8 +5672,8 @@
       <c r="H64" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I64" s="1">
-        <v>70007</v>
+      <c r="I64" s="2" t="s">
+        <v>589</v>
       </c>
       <c r="J64" s="1">
         <v>7</v>
@@ -4921,8 +5710,8 @@
       <c r="H65" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I65" s="1">
-        <v>70008</v>
+      <c r="I65" s="2" t="s">
+        <v>590</v>
       </c>
       <c r="J65" s="1">
         <v>7</v>
@@ -4959,8 +5748,8 @@
       <c r="H66" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I66" s="1">
-        <v>70009</v>
+      <c r="I66" s="2" t="s">
+        <v>591</v>
       </c>
       <c r="J66" s="1">
         <v>7</v>
@@ -4997,8 +5786,8 @@
       <c r="H67" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I67" s="1">
-        <v>70010</v>
+      <c r="I67" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="J67" s="1">
         <v>7</v>
@@ -5035,8 +5824,8 @@
       <c r="H68" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I68" s="1">
-        <v>70011</v>
+      <c r="I68" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="J68" s="1">
         <v>7</v>
@@ -5073,8 +5862,8 @@
       <c r="H69" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I69" s="1">
-        <v>70012</v>
+      <c r="I69" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="J69" s="1">
         <v>7</v>
@@ -5111,8 +5900,8 @@
       <c r="H70" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I70" s="1">
-        <v>70013</v>
+      <c r="I70" s="2" t="s">
+        <v>595</v>
       </c>
       <c r="J70" s="1">
         <v>7</v>
@@ -5149,8 +5938,8 @@
       <c r="H71" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I71" s="1">
-        <v>70014</v>
+      <c r="I71" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="J71" s="1">
         <v>7</v>
@@ -5187,8 +5976,8 @@
       <c r="H72" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="1">
-        <v>70015</v>
+      <c r="I72" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="J72" s="1">
         <v>7</v>
@@ -5225,8 +6014,8 @@
       <c r="H73" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I73" s="1">
-        <v>70016</v>
+      <c r="I73" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="J73" s="1">
         <v>7</v>
@@ -5263,8 +6052,8 @@
       <c r="H74" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I74" s="1">
-        <v>70017</v>
+      <c r="I74" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="J74" s="1">
         <v>7</v>
@@ -5301,8 +6090,8 @@
       <c r="H75" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I75" s="1">
-        <v>70018</v>
+      <c r="I75" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="J75" s="1">
         <v>7</v>
@@ -5339,8 +6128,8 @@
       <c r="H76" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I76" s="1">
-        <v>70019</v>
+      <c r="I76" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="J76" s="1">
         <v>7</v>
@@ -5377,8 +6166,8 @@
       <c r="H77" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I77" s="1">
-        <v>70020</v>
+      <c r="I77" s="2" t="s">
+        <v>602</v>
       </c>
       <c r="J77" s="1">
         <v>7</v>
@@ -5415,8 +6204,8 @@
       <c r="H78" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I78" s="1">
-        <v>70021</v>
+      <c r="I78" s="2" t="s">
+        <v>603</v>
       </c>
       <c r="J78" s="1">
         <v>7</v>
@@ -5453,8 +6242,8 @@
       <c r="H79" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I79" s="1">
-        <v>70022</v>
+      <c r="I79" s="2" t="s">
+        <v>604</v>
       </c>
       <c r="J79" s="1">
         <v>7</v>
@@ -5491,8 +6280,8 @@
       <c r="H80" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I80" s="1">
-        <v>70023</v>
+      <c r="I80" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="J80" s="1">
         <v>7</v>
@@ -5529,8 +6318,8 @@
       <c r="H81" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I81" s="1">
-        <v>70024</v>
+      <c r="I81" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="J81" s="1">
         <v>7</v>
@@ -5567,8 +6356,8 @@
       <c r="H82" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I82" s="1">
-        <v>70025</v>
+      <c r="I82" s="2" t="s">
+        <v>607</v>
       </c>
       <c r="J82" s="1">
         <v>7</v>
@@ -5605,8 +6394,8 @@
       <c r="H83" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I83" s="1">
-        <v>70026</v>
+      <c r="I83" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="J83" s="1">
         <v>7</v>
@@ -5643,8 +6432,8 @@
       <c r="H84" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I84" s="1">
-        <v>70027</v>
+      <c r="I84" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="J84" s="1">
         <v>7</v>
@@ -5681,8 +6470,8 @@
       <c r="H85" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I85" s="1">
-        <v>70028</v>
+      <c r="I85" s="2" t="s">
+        <v>610</v>
       </c>
       <c r="J85" s="1">
         <v>7</v>
@@ -5719,8 +6508,8 @@
       <c r="H86" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I86" s="1">
-        <v>70029</v>
+      <c r="I86" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="J86" s="1">
         <v>7</v>
@@ -5757,8 +6546,8 @@
       <c r="H87" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I87" s="1">
-        <v>70030</v>
+      <c r="I87" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="J87" s="1">
         <v>7</v>
@@ -5795,8 +6584,8 @@
       <c r="H88" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="I88" s="1">
-        <v>70031</v>
+      <c r="I88" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="J88" s="1">
         <v>7</v>
@@ -5833,8 +6622,8 @@
       <c r="H89" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I89" s="1">
-        <v>70032</v>
+      <c r="I89" s="2" t="s">
+        <v>614</v>
       </c>
       <c r="J89" s="1">
         <v>7</v>
@@ -5871,8 +6660,8 @@
       <c r="H90" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I90" s="1">
-        <v>70033</v>
+      <c r="I90" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="J90" s="1">
         <v>7</v>
@@ -5909,8 +6698,8 @@
       <c r="H91" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I91" s="1">
-        <v>70034</v>
+      <c r="I91" s="2" t="s">
+        <v>616</v>
       </c>
       <c r="J91" s="1">
         <v>7</v>
@@ -5947,8 +6736,8 @@
       <c r="H92" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I92" s="1">
-        <v>70035</v>
+      <c r="I92" s="2" t="s">
+        <v>617</v>
       </c>
       <c r="J92" s="1">
         <v>7</v>
@@ -5985,8 +6774,8 @@
       <c r="H93" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I93" s="1">
-        <v>70036</v>
+      <c r="I93" s="2" t="s">
+        <v>618</v>
       </c>
       <c r="J93" s="1">
         <v>7</v>
@@ -6023,8 +6812,8 @@
       <c r="H94" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I94" s="1">
-        <v>70037</v>
+      <c r="I94" s="2" t="s">
+        <v>619</v>
       </c>
       <c r="J94" s="1">
         <v>7</v>
@@ -6061,8 +6850,8 @@
       <c r="H95" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I95" s="1">
-        <v>70038</v>
+      <c r="I95" s="2" t="s">
+        <v>620</v>
       </c>
       <c r="J95" s="1">
         <v>7</v>
@@ -6099,8 +6888,8 @@
       <c r="H96" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I96" s="1">
-        <v>70039</v>
+      <c r="I96" s="2" t="s">
+        <v>621</v>
       </c>
       <c r="J96" s="1">
         <v>7</v>
@@ -6137,8 +6926,8 @@
       <c r="H97" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I97" s="1">
-        <v>70040</v>
+      <c r="I97" s="2" t="s">
+        <v>622</v>
       </c>
       <c r="J97" s="1">
         <v>7</v>
@@ -6175,8 +6964,8 @@
       <c r="H98" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I98" s="1">
-        <v>70041</v>
+      <c r="I98" s="2" t="s">
+        <v>623</v>
       </c>
       <c r="J98" s="1">
         <v>7</v>
@@ -6213,8 +7002,8 @@
       <c r="H99" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I99" s="1">
-        <v>70042</v>
+      <c r="I99" s="2" t="s">
+        <v>624</v>
       </c>
       <c r="J99" s="1">
         <v>7</v>
@@ -6251,8 +7040,8 @@
       <c r="H100" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="I100" s="1">
-        <v>70043</v>
+      <c r="I100" s="2" t="s">
+        <v>625</v>
       </c>
       <c r="J100" s="1">
         <v>7</v>
@@ -6289,8 +7078,8 @@
       <c r="H101" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I101" s="1">
-        <v>70044</v>
+      <c r="I101" s="2" t="s">
+        <v>626</v>
       </c>
       <c r="J101" s="1">
         <v>7</v>
@@ -6327,8 +7116,8 @@
       <c r="H102" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I102" s="1">
-        <v>70045</v>
+      <c r="I102" s="2" t="s">
+        <v>627</v>
       </c>
       <c r="J102" s="1">
         <v>7</v>
@@ -6365,8 +7154,8 @@
       <c r="H103" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I103" s="1">
-        <v>70046</v>
+      <c r="I103" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="J103" s="1">
         <v>7</v>
@@ -6403,8 +7192,8 @@
       <c r="H104" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I104" s="1">
-        <v>70047</v>
+      <c r="I104" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="J104" s="1">
         <v>7</v>
@@ -6441,8 +7230,8 @@
       <c r="H105" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="I105" s="1">
-        <v>70048</v>
+      <c r="I105" s="2" t="s">
+        <v>630</v>
       </c>
       <c r="J105" s="1">
         <v>7</v>
@@ -6479,8 +7268,8 @@
       <c r="H106" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I106" s="1">
-        <v>70049</v>
+      <c r="I106" s="2" t="s">
+        <v>631</v>
       </c>
       <c r="J106" s="1">
         <v>7</v>
@@ -6517,8 +7306,8 @@
       <c r="H107" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I107" s="1">
-        <v>70050</v>
+      <c r="I107" s="2" t="s">
+        <v>632</v>
       </c>
       <c r="J107" s="1">
         <v>7</v>
@@ -6555,8 +7344,8 @@
       <c r="H108" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I108" s="1">
-        <v>70051</v>
+      <c r="I108" s="2" t="s">
+        <v>633</v>
       </c>
       <c r="J108" s="1">
         <v>7</v>
@@ -6593,8 +7382,8 @@
       <c r="H109" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I109" s="1">
-        <v>60001</v>
+      <c r="I109" s="2" t="s">
+        <v>634</v>
       </c>
       <c r="J109" s="1">
         <v>6</v>
@@ -6631,8 +7420,8 @@
       <c r="H110" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I110" s="1">
-        <v>60002</v>
+      <c r="I110" s="2" t="s">
+        <v>635</v>
       </c>
       <c r="J110" s="1">
         <v>6</v>
@@ -6669,8 +7458,8 @@
       <c r="H111" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="I111" s="1">
-        <v>60003</v>
+      <c r="I111" s="2" t="s">
+        <v>636</v>
       </c>
       <c r="J111" s="1">
         <v>6</v>
@@ -6707,8 +7496,8 @@
       <c r="H112" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I112" s="1">
-        <v>60004</v>
+      <c r="I112" s="2" t="s">
+        <v>637</v>
       </c>
       <c r="J112" s="1">
         <v>6</v>
@@ -6745,8 +7534,8 @@
       <c r="H113" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I113" s="1">
-        <v>60005</v>
+      <c r="I113" s="2" t="s">
+        <v>638</v>
       </c>
       <c r="J113" s="1">
         <v>6</v>
@@ -6783,8 +7572,8 @@
       <c r="H114" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I114" s="1">
-        <v>60006</v>
+      <c r="I114" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="J114" s="1">
         <v>6</v>
@@ -6821,8 +7610,8 @@
       <c r="H115" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I115" s="1">
-        <v>60007</v>
+      <c r="I115" s="2" t="s">
+        <v>640</v>
       </c>
       <c r="J115" s="1">
         <v>6</v>
@@ -6859,8 +7648,8 @@
       <c r="H116" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I116" s="1">
-        <v>60008</v>
+      <c r="I116" s="2" t="s">
+        <v>641</v>
       </c>
       <c r="J116" s="1">
         <v>6</v>
@@ -6897,8 +7686,8 @@
       <c r="H117" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I117" s="1">
-        <v>60009</v>
+      <c r="I117" s="2" t="s">
+        <v>642</v>
       </c>
       <c r="J117" s="1">
         <v>6</v>
@@ -6935,8 +7724,8 @@
       <c r="H118" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="I118" s="1">
-        <v>60010</v>
+      <c r="I118" s="2" t="s">
+        <v>643</v>
       </c>
       <c r="J118" s="1">
         <v>6</v>
@@ -6973,8 +7762,8 @@
       <c r="H119" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I119" s="1">
-        <v>60011</v>
+      <c r="I119" s="2" t="s">
+        <v>644</v>
       </c>
       <c r="J119" s="1">
         <v>6</v>
@@ -7011,8 +7800,8 @@
       <c r="H120" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I120" s="1">
-        <v>60012</v>
+      <c r="I120" s="2" t="s">
+        <v>645</v>
       </c>
       <c r="J120" s="1">
         <v>6</v>
@@ -7049,8 +7838,8 @@
       <c r="H121" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I121" s="1">
-        <v>60013</v>
+      <c r="I121" s="2" t="s">
+        <v>646</v>
       </c>
       <c r="J121" s="1">
         <v>6</v>
@@ -7087,8 +7876,8 @@
       <c r="H122" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I122" s="1">
-        <v>60014</v>
+      <c r="I122" s="2" t="s">
+        <v>647</v>
       </c>
       <c r="J122" s="1">
         <v>6</v>
@@ -7125,8 +7914,8 @@
       <c r="H123" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I123" s="1">
-        <v>60015</v>
+      <c r="I123" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="J123" s="1">
         <v>6</v>
@@ -7163,8 +7952,8 @@
       <c r="H124" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I124" s="1">
-        <v>60016</v>
+      <c r="I124" s="2" t="s">
+        <v>649</v>
       </c>
       <c r="J124" s="1">
         <v>6</v>
@@ -7201,8 +7990,8 @@
       <c r="H125" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I125" s="1">
-        <v>60017</v>
+      <c r="I125" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="J125" s="1">
         <v>6</v>
@@ -7239,8 +8028,8 @@
       <c r="H126" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I126" s="1">
-        <v>60018</v>
+      <c r="I126" s="2" t="s">
+        <v>651</v>
       </c>
       <c r="J126" s="1">
         <v>6</v>
@@ -7277,8 +8066,8 @@
       <c r="H127" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I127" s="1">
-        <v>60019</v>
+      <c r="I127" s="2" t="s">
+        <v>652</v>
       </c>
       <c r="J127" s="1">
         <v>6</v>
@@ -7315,8 +8104,8 @@
       <c r="H128" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I128" s="1">
-        <v>60020</v>
+      <c r="I128" s="2" t="s">
+        <v>653</v>
       </c>
       <c r="J128" s="1">
         <v>6</v>
@@ -7353,8 +8142,8 @@
       <c r="H129" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I129" s="1">
-        <v>60021</v>
+      <c r="I129" s="2" t="s">
+        <v>654</v>
       </c>
       <c r="J129" s="1">
         <v>6</v>
@@ -7391,8 +8180,8 @@
       <c r="H130" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="I130" s="1">
-        <v>60022</v>
+      <c r="I130" s="2" t="s">
+        <v>655</v>
       </c>
       <c r="J130" s="1">
         <v>6</v>
@@ -7429,8 +8218,8 @@
       <c r="H131" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="I131" s="1">
-        <v>60023</v>
+      <c r="I131" s="2" t="s">
+        <v>656</v>
       </c>
       <c r="J131" s="1">
         <v>6</v>
@@ -7467,8 +8256,8 @@
       <c r="H132" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I132" s="1">
-        <v>60024</v>
+      <c r="I132" s="2" t="s">
+        <v>657</v>
       </c>
       <c r="J132" s="1">
         <v>6</v>
@@ -7505,8 +8294,8 @@
       <c r="H133" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I133" s="1">
-        <v>60025</v>
+      <c r="I133" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="J133" s="1">
         <v>6</v>
@@ -7543,8 +8332,8 @@
       <c r="H134" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I134" s="1">
-        <v>60026</v>
+      <c r="I134" s="2" t="s">
+        <v>659</v>
       </c>
       <c r="J134" s="1">
         <v>6</v>
@@ -7581,8 +8370,8 @@
       <c r="H135" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I135" s="1">
-        <v>60027</v>
+      <c r="I135" s="2" t="s">
+        <v>660</v>
       </c>
       <c r="J135" s="1">
         <v>6</v>
@@ -7619,8 +8408,8 @@
       <c r="H136" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I136" s="1">
-        <v>60028</v>
+      <c r="I136" s="2" t="s">
+        <v>661</v>
       </c>
       <c r="J136" s="1">
         <v>6</v>
@@ -7657,8 +8446,8 @@
       <c r="H137" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I137" s="1">
-        <v>60029</v>
+      <c r="I137" s="2" t="s">
+        <v>662</v>
       </c>
       <c r="J137" s="1">
         <v>6</v>
@@ -7695,8 +8484,8 @@
       <c r="H138" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I138" s="1">
-        <v>60030</v>
+      <c r="I138" s="2" t="s">
+        <v>663</v>
       </c>
       <c r="J138" s="1">
         <v>6</v>
@@ -7733,8 +8522,8 @@
       <c r="H139" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I139" s="1">
-        <v>60031</v>
+      <c r="I139" s="2" t="s">
+        <v>664</v>
       </c>
       <c r="J139" s="1">
         <v>6</v>
@@ -7771,8 +8560,8 @@
       <c r="H140" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I140" s="1">
-        <v>60032</v>
+      <c r="I140" s="2" t="s">
+        <v>665</v>
       </c>
       <c r="J140" s="1">
         <v>6</v>
@@ -7809,8 +8598,8 @@
       <c r="H141" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="I141" s="1">
-        <v>60033</v>
+      <c r="I141" s="2" t="s">
+        <v>666</v>
       </c>
       <c r="J141" s="1">
         <v>6</v>
@@ -7847,8 +8636,8 @@
       <c r="H142" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I142" s="1">
-        <v>60034</v>
+      <c r="I142" s="2" t="s">
+        <v>667</v>
       </c>
       <c r="J142" s="1">
         <v>6</v>
@@ -7885,8 +8674,8 @@
       <c r="H143" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I143" s="1">
-        <v>60035</v>
+      <c r="I143" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="J143" s="1">
         <v>6</v>
@@ -7923,8 +8712,8 @@
       <c r="H144" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I144" s="1">
-        <v>60036</v>
+      <c r="I144" s="2" t="s">
+        <v>669</v>
       </c>
       <c r="J144" s="1">
         <v>6</v>
@@ -7961,8 +8750,8 @@
       <c r="H145" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I145" s="1">
-        <v>60037</v>
+      <c r="I145" s="2" t="s">
+        <v>670</v>
       </c>
       <c r="J145" s="1">
         <v>6</v>
@@ -7999,8 +8788,8 @@
       <c r="H146" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I146" s="1">
-        <v>60038</v>
+      <c r="I146" s="2" t="s">
+        <v>671</v>
       </c>
       <c r="J146" s="1">
         <v>6</v>
@@ -8037,8 +8826,8 @@
       <c r="H147" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I147" s="1">
-        <v>60039</v>
+      <c r="I147" s="2" t="s">
+        <v>672</v>
       </c>
       <c r="J147" s="1">
         <v>6</v>
@@ -8075,8 +8864,8 @@
       <c r="H148" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I148" s="1">
-        <v>60040</v>
+      <c r="I148" s="2" t="s">
+        <v>673</v>
       </c>
       <c r="J148" s="1">
         <v>6</v>
@@ -8113,8 +8902,8 @@
       <c r="H149" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I149" s="1">
-        <v>60041</v>
+      <c r="I149" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="J149" s="1">
         <v>6</v>
@@ -8151,8 +8940,8 @@
       <c r="H150" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I150" s="1">
-        <v>60042</v>
+      <c r="I150" s="2" t="s">
+        <v>675</v>
       </c>
       <c r="J150" s="1">
         <v>6</v>
@@ -8189,8 +8978,8 @@
       <c r="H151" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I151" s="1">
-        <v>60043</v>
+      <c r="I151" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="J151" s="1">
         <v>6</v>
@@ -8227,8 +9016,8 @@
       <c r="H152" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I152" s="1">
-        <v>60044</v>
+      <c r="I152" s="2" t="s">
+        <v>677</v>
       </c>
       <c r="J152" s="1">
         <v>6</v>
@@ -8265,8 +9054,8 @@
       <c r="H153" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I153" s="1">
-        <v>60045</v>
+      <c r="I153" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="J153" s="1">
         <v>6</v>
@@ -8303,8 +9092,8 @@
       <c r="H154" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I154" s="1">
-        <v>60046</v>
+      <c r="I154" s="2" t="s">
+        <v>679</v>
       </c>
       <c r="J154" s="1">
         <v>6</v>
@@ -8341,8 +9130,8 @@
       <c r="H155" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I155" s="1">
-        <v>60047</v>
+      <c r="I155" s="2" t="s">
+        <v>680</v>
       </c>
       <c r="J155" s="1">
         <v>6</v>
@@ -8379,8 +9168,8 @@
       <c r="H156" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="I156" s="1">
-        <v>60048</v>
+      <c r="I156" s="2" t="s">
+        <v>681</v>
       </c>
       <c r="J156" s="1">
         <v>6</v>
@@ -8417,8 +9206,8 @@
       <c r="H157" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I157" s="1">
-        <v>60049</v>
+      <c r="I157" s="2" t="s">
+        <v>682</v>
       </c>
       <c r="J157" s="1">
         <v>6</v>
@@ -8455,8 +9244,8 @@
       <c r="H158" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I158" s="1">
-        <v>60050</v>
+      <c r="I158" s="2" t="s">
+        <v>683</v>
       </c>
       <c r="J158" s="1">
         <v>6</v>
@@ -8493,8 +9282,8 @@
       <c r="H159" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I159" s="1">
-        <v>60051</v>
+      <c r="I159" s="2" t="s">
+        <v>684</v>
       </c>
       <c r="J159" s="1">
         <v>6</v>
@@ -8531,8 +9320,8 @@
       <c r="H160" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I160" s="1">
-        <v>60052</v>
+      <c r="I160" s="2" t="s">
+        <v>685</v>
       </c>
       <c r="J160" s="1">
         <v>6</v>
@@ -8569,8 +9358,8 @@
       <c r="H161" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I161" s="1">
-        <v>60053</v>
+      <c r="I161" s="2" t="s">
+        <v>686</v>
       </c>
       <c r="J161" s="1">
         <v>6</v>
@@ -8607,8 +9396,8 @@
       <c r="H162" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="I162" s="1">
-        <v>60054</v>
+      <c r="I162" s="2" t="s">
+        <v>687</v>
       </c>
       <c r="J162" s="1">
         <v>6</v>
@@ -8645,8 +9434,8 @@
       <c r="H163" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I163" s="1">
-        <v>60055</v>
+      <c r="I163" s="2" t="s">
+        <v>688</v>
       </c>
       <c r="J163" s="1">
         <v>6</v>
@@ -8683,8 +9472,8 @@
       <c r="H164" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I164" s="1">
-        <v>60056</v>
+      <c r="I164" s="2" t="s">
+        <v>689</v>
       </c>
       <c r="J164" s="1">
         <v>6</v>
@@ -8721,8 +9510,8 @@
       <c r="H165" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I165" s="1">
-        <v>60057</v>
+      <c r="I165" s="2" t="s">
+        <v>690</v>
       </c>
       <c r="J165" s="1">
         <v>6</v>
@@ -8759,8 +9548,8 @@
       <c r="H166" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="I166" s="1">
-        <v>60058</v>
+      <c r="I166" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="J166" s="1">
         <v>6</v>
@@ -8797,8 +9586,8 @@
       <c r="H167" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="I167" s="1">
-        <v>60059</v>
+      <c r="I167" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="J167" s="1">
         <v>6</v>
@@ -8835,8 +9624,8 @@
       <c r="H168" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="I168" s="1">
-        <v>60060</v>
+      <c r="I168" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="J168" s="1">
         <v>6</v>
@@ -8873,8 +9662,8 @@
       <c r="H169" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I169" s="1">
-        <v>60061</v>
+      <c r="I169" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="J169" s="1">
         <v>6</v>
@@ -8911,8 +9700,8 @@
       <c r="H170" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I170" s="1">
-        <v>60062</v>
+      <c r="I170" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="J170" s="1">
         <v>6</v>
@@ -8949,8 +9738,8 @@
       <c r="H171" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I171" s="1">
-        <v>60063</v>
+      <c r="I171" s="2" t="s">
+        <v>696</v>
       </c>
       <c r="J171" s="1">
         <v>6</v>
@@ -8987,8 +9776,8 @@
       <c r="H172" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I172" s="1">
-        <v>60064</v>
+      <c r="I172" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="J172" s="1">
         <v>6</v>
@@ -9025,8 +9814,8 @@
       <c r="H173" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I173" s="1">
-        <v>60065</v>
+      <c r="I173" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="J173" s="1">
         <v>6</v>
@@ -9063,8 +9852,8 @@
       <c r="H174" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I174" s="1">
-        <v>60066</v>
+      <c r="I174" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="J174" s="1">
         <v>6</v>
@@ -9101,8 +9890,8 @@
       <c r="H175" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I175" s="1">
-        <v>60067</v>
+      <c r="I175" s="2" t="s">
+        <v>700</v>
       </c>
       <c r="J175" s="1">
         <v>6</v>
@@ -9139,8 +9928,8 @@
       <c r="H176" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I176" s="1">
-        <v>60068</v>
+      <c r="I176" s="2" t="s">
+        <v>701</v>
       </c>
       <c r="J176" s="1">
         <v>6</v>
@@ -9177,8 +9966,8 @@
       <c r="H177" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="I177" s="1">
-        <v>60069</v>
+      <c r="I177" s="2" t="s">
+        <v>702</v>
       </c>
       <c r="J177" s="1">
         <v>6</v>
@@ -9215,8 +10004,8 @@
       <c r="H178" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I178" s="1">
-        <v>60070</v>
+      <c r="I178" s="2" t="s">
+        <v>703</v>
       </c>
       <c r="J178" s="1">
         <v>6</v>
@@ -9253,8 +10042,8 @@
       <c r="H179" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I179" s="1">
-        <v>60071</v>
+      <c r="I179" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="J179" s="1">
         <v>6</v>
@@ -9291,8 +10080,8 @@
       <c r="H180" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I180" s="1">
-        <v>60072</v>
+      <c r="I180" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="J180" s="1">
         <v>6</v>
@@ -9329,8 +10118,8 @@
       <c r="H181" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I181" s="1">
-        <v>60073</v>
+      <c r="I181" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="J181" s="1">
         <v>6</v>
@@ -9367,8 +10156,8 @@
       <c r="H182" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="I182" s="1">
-        <v>60074</v>
+      <c r="I182" s="2" t="s">
+        <v>707</v>
       </c>
       <c r="J182" s="1">
         <v>6</v>
@@ -9405,8 +10194,8 @@
       <c r="H183" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="I183" s="1">
-        <v>60075</v>
+      <c r="I183" s="2" t="s">
+        <v>708</v>
       </c>
       <c r="J183" s="1">
         <v>6</v>
@@ -9443,8 +10232,8 @@
       <c r="H184" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="I184" s="1">
-        <v>60076</v>
+      <c r="I184" s="2" t="s">
+        <v>709</v>
       </c>
       <c r="J184" s="1">
         <v>6</v>
@@ -9481,8 +10270,8 @@
       <c r="H185" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I185" s="1">
-        <v>60077</v>
+      <c r="I185" s="2" t="s">
+        <v>710</v>
       </c>
       <c r="J185" s="1">
         <v>6</v>
@@ -9519,8 +10308,8 @@
       <c r="H186" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I186" s="1">
-        <v>60078</v>
+      <c r="I186" s="2" t="s">
+        <v>711</v>
       </c>
       <c r="J186" s="1">
         <v>6</v>
@@ -9557,8 +10346,8 @@
       <c r="H187" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="I187" s="1">
-        <v>60079</v>
+      <c r="I187" s="2" t="s">
+        <v>712</v>
       </c>
       <c r="J187" s="1">
         <v>6</v>
@@ -9595,8 +10384,8 @@
       <c r="H188" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I188" s="1">
-        <v>60080</v>
+      <c r="I188" s="2" t="s">
+        <v>713</v>
       </c>
       <c r="J188" s="1">
         <v>6</v>
@@ -9633,8 +10422,8 @@
       <c r="H189" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I189" s="1">
-        <v>60081</v>
+      <c r="I189" s="2" t="s">
+        <v>714</v>
       </c>
       <c r="J189" s="1">
         <v>6</v>
@@ -9671,8 +10460,8 @@
       <c r="H190" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I190" s="1">
-        <v>60082</v>
+      <c r="I190" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="J190" s="1">
         <v>6</v>
@@ -9709,8 +10498,8 @@
       <c r="H191" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I191" s="1">
-        <v>60083</v>
+      <c r="I191" s="2" t="s">
+        <v>716</v>
       </c>
       <c r="J191" s="1">
         <v>6</v>
@@ -9747,8 +10536,8 @@
       <c r="H192" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I192" s="1">
-        <v>60084</v>
+      <c r="I192" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="J192" s="1">
         <v>6</v>
@@ -9785,8 +10574,8 @@
       <c r="H193" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I193" s="1">
-        <v>60085</v>
+      <c r="I193" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="J193" s="1">
         <v>6</v>
@@ -9823,8 +10612,8 @@
       <c r="H194" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I194" s="1">
-        <v>60086</v>
+      <c r="I194" s="2" t="s">
+        <v>719</v>
       </c>
       <c r="J194" s="1">
         <v>6</v>
@@ -9861,8 +10650,8 @@
       <c r="H195" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I195" s="1">
-        <v>60087</v>
+      <c r="I195" s="2" t="s">
+        <v>720</v>
       </c>
       <c r="J195" s="1">
         <v>6</v>
@@ -9899,8 +10688,8 @@
       <c r="H196" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I196" s="1">
-        <v>60088</v>
+      <c r="I196" s="2" t="s">
+        <v>721</v>
       </c>
       <c r="J196" s="1">
         <v>6</v>
@@ -9937,8 +10726,8 @@
       <c r="H197" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="I197" s="1">
-        <v>60089</v>
+      <c r="I197" s="2" t="s">
+        <v>722</v>
       </c>
       <c r="J197" s="1">
         <v>6</v>
@@ -9975,8 +10764,8 @@
       <c r="H198" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I198" s="1">
-        <v>60090</v>
+      <c r="I198" s="2" t="s">
+        <v>723</v>
       </c>
       <c r="J198" s="1">
         <v>6</v>
@@ -10013,8 +10802,8 @@
       <c r="H199" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I199" s="1">
-        <v>60091</v>
+      <c r="I199" s="2" t="s">
+        <v>724</v>
       </c>
       <c r="J199" s="1">
         <v>6</v>
@@ -10051,8 +10840,8 @@
       <c r="H200" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I200" s="1">
-        <v>60092</v>
+      <c r="I200" s="2" t="s">
+        <v>725</v>
       </c>
       <c r="J200" s="1">
         <v>6</v>
@@ -10089,8 +10878,8 @@
       <c r="H201" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I201" s="1">
-        <v>60093</v>
+      <c r="I201" s="2" t="s">
+        <v>726</v>
       </c>
       <c r="J201" s="1">
         <v>6</v>
@@ -10127,8 +10916,8 @@
       <c r="H202" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I202" s="1">
-        <v>60094</v>
+      <c r="I202" s="2" t="s">
+        <v>727</v>
       </c>
       <c r="J202" s="1">
         <v>6</v>
@@ -10165,8 +10954,8 @@
       <c r="H203" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I203" s="1">
-        <v>60095</v>
+      <c r="I203" s="2" t="s">
+        <v>728</v>
       </c>
       <c r="J203" s="1">
         <v>6</v>
@@ -10203,8 +10992,8 @@
       <c r="H204" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I204" s="1">
-        <v>60096</v>
+      <c r="I204" s="2" t="s">
+        <v>729</v>
       </c>
       <c r="J204" s="1">
         <v>6</v>
@@ -10241,8 +11030,8 @@
       <c r="H205" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I205" s="1">
-        <v>60097</v>
+      <c r="I205" s="2" t="s">
+        <v>730</v>
       </c>
       <c r="J205" s="1">
         <v>6</v>
@@ -10279,8 +11068,8 @@
       <c r="H206" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I206" s="1">
-        <v>80001</v>
+      <c r="I206" s="2" t="s">
+        <v>731</v>
       </c>
       <c r="J206" s="1">
         <v>8</v>
@@ -10317,8 +11106,8 @@
       <c r="H207" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I207" s="1">
-        <v>80002</v>
+      <c r="I207" s="2" t="s">
+        <v>732</v>
       </c>
       <c r="J207" s="1">
         <v>8</v>
@@ -10355,8 +11144,8 @@
       <c r="H208" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I208" s="1">
-        <v>80003</v>
+      <c r="I208" s="2" t="s">
+        <v>733</v>
       </c>
       <c r="J208" s="1">
         <v>8</v>
@@ -10393,8 +11182,8 @@
       <c r="H209" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I209" s="1">
-        <v>80004</v>
+      <c r="I209" s="2" t="s">
+        <v>734</v>
       </c>
       <c r="J209" s="1">
         <v>8</v>
@@ -10431,8 +11220,8 @@
       <c r="H210" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I210" s="1">
-        <v>80005</v>
+      <c r="I210" s="2" t="s">
+        <v>735</v>
       </c>
       <c r="J210" s="1">
         <v>8</v>
@@ -10469,8 +11258,8 @@
       <c r="H211" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I211" s="1">
-        <v>80006</v>
+      <c r="I211" s="2" t="s">
+        <v>736</v>
       </c>
       <c r="J211" s="1">
         <v>8</v>
@@ -10507,8 +11296,8 @@
       <c r="H212" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I212" s="1">
-        <v>80007</v>
+      <c r="I212" s="2" t="s">
+        <v>737</v>
       </c>
       <c r="J212" s="1">
         <v>8</v>
@@ -10545,8 +11334,8 @@
       <c r="H213" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I213" s="1">
-        <v>80008</v>
+      <c r="I213" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="J213" s="1">
         <v>8</v>
@@ -10583,8 +11372,8 @@
       <c r="H214" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I214" s="1">
-        <v>80009</v>
+      <c r="I214" s="2" t="s">
+        <v>739</v>
       </c>
       <c r="J214" s="1">
         <v>8</v>
@@ -10621,8 +11410,8 @@
       <c r="H215" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I215" s="1">
-        <v>80010</v>
+      <c r="I215" s="2" t="s">
+        <v>740</v>
       </c>
       <c r="J215" s="1">
         <v>8</v>
@@ -10659,8 +11448,8 @@
       <c r="H216" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="I216" s="1">
-        <v>80011</v>
+      <c r="I216" s="2" t="s">
+        <v>741</v>
       </c>
       <c r="J216" s="1">
         <v>8</v>
@@ -10697,8 +11486,8 @@
       <c r="H217" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I217" s="1">
-        <v>80012</v>
+      <c r="I217" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="J217" s="1">
         <v>8</v>
@@ -10735,8 +11524,8 @@
       <c r="H218" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="I218" s="1">
-        <v>80013</v>
+      <c r="I218" s="2" t="s">
+        <v>743</v>
       </c>
       <c r="J218" s="1">
         <v>8</v>
@@ -10773,8 +11562,8 @@
       <c r="H219" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I219" s="1">
-        <v>80014</v>
+      <c r="I219" s="2" t="s">
+        <v>744</v>
       </c>
       <c r="J219" s="1">
         <v>8</v>
@@ -10811,8 +11600,8 @@
       <c r="H220" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I220" s="1">
-        <v>80015</v>
+      <c r="I220" s="2" t="s">
+        <v>745</v>
       </c>
       <c r="J220" s="1">
         <v>8</v>
@@ -10849,8 +11638,8 @@
       <c r="H221" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I221" s="1">
-        <v>80016</v>
+      <c r="I221" s="2" t="s">
+        <v>746</v>
       </c>
       <c r="J221" s="1">
         <v>8</v>
@@ -10887,8 +11676,8 @@
       <c r="H222" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I222" s="1">
-        <v>80017</v>
+      <c r="I222" s="2" t="s">
+        <v>747</v>
       </c>
       <c r="J222" s="1">
         <v>8</v>
@@ -10925,8 +11714,8 @@
       <c r="H223" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I223" s="1">
-        <v>80018</v>
+      <c r="I223" s="2" t="s">
+        <v>748</v>
       </c>
       <c r="J223" s="1">
         <v>8</v>
@@ -10963,8 +11752,8 @@
       <c r="H224" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="I224" s="1">
-        <v>80019</v>
+      <c r="I224" s="2" t="s">
+        <v>749</v>
       </c>
       <c r="J224" s="1">
         <v>8</v>
@@ -11001,8 +11790,8 @@
       <c r="H225" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I225" s="1">
-        <v>80020</v>
+      <c r="I225" s="2" t="s">
+        <v>750</v>
       </c>
       <c r="J225" s="1">
         <v>8</v>
@@ -11039,8 +11828,8 @@
       <c r="H226" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I226" s="1">
-        <v>80021</v>
+      <c r="I226" s="2" t="s">
+        <v>751</v>
       </c>
       <c r="J226" s="1">
         <v>8</v>
@@ -11077,8 +11866,8 @@
       <c r="H227" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="I227" s="1">
-        <v>80022</v>
+      <c r="I227" s="2" t="s">
+        <v>752</v>
       </c>
       <c r="J227" s="1">
         <v>8</v>
@@ -11115,8 +11904,8 @@
       <c r="H228" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I228" s="1">
-        <v>80023</v>
+      <c r="I228" s="2" t="s">
+        <v>753</v>
       </c>
       <c r="J228" s="1">
         <v>8</v>
@@ -11153,8 +11942,8 @@
       <c r="H229" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I229" s="1">
-        <v>80024</v>
+      <c r="I229" s="2" t="s">
+        <v>754</v>
       </c>
       <c r="J229" s="1">
         <v>8</v>
@@ -11191,8 +11980,8 @@
       <c r="H230" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I230" s="1">
-        <v>80025</v>
+      <c r="I230" s="2" t="s">
+        <v>755</v>
       </c>
       <c r="J230" s="1">
         <v>8</v>
@@ -11229,8 +12018,8 @@
       <c r="H231" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I231" s="1">
-        <v>80026</v>
+      <c r="I231" s="2" t="s">
+        <v>756</v>
       </c>
       <c r="J231" s="1">
         <v>8</v>
@@ -11267,8 +12056,8 @@
       <c r="H232" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I232" s="1">
-        <v>110124</v>
+      <c r="I232" s="2" t="s">
+        <v>763</v>
       </c>
       <c r="J232" s="1">
         <v>11</v>
@@ -11305,8 +12094,8 @@
       <c r="H233" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="I233" s="1">
-        <v>110125</v>
+      <c r="I233" s="2" t="s">
+        <v>764</v>
       </c>
       <c r="J233" s="1">
         <v>11</v>
@@ -11343,8 +12132,8 @@
       <c r="H234" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I234" s="1">
-        <v>110126</v>
+      <c r="I234" s="2" t="s">
+        <v>765</v>
       </c>
       <c r="J234" s="1">
         <v>11</v>
@@ -11381,8 +12170,8 @@
       <c r="H235" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I235" s="1">
-        <v>110127</v>
+      <c r="I235" s="2" t="s">
+        <v>766</v>
       </c>
       <c r="J235" s="1">
         <v>11</v>
@@ -11419,8 +12208,8 @@
       <c r="H236" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="I236" s="1">
-        <v>110128</v>
+      <c r="I236" s="2" t="s">
+        <v>767</v>
       </c>
       <c r="J236" s="1">
         <v>11</v>
@@ -11457,8 +12246,8 @@
       <c r="H237" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I237" s="1">
-        <v>110129</v>
+      <c r="I237" s="2" t="s">
+        <v>768</v>
       </c>
       <c r="J237" s="1">
         <v>11</v>
@@ -11495,8 +12284,8 @@
       <c r="H238" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I238" s="1">
-        <v>110130</v>
+      <c r="I238" s="2" t="s">
+        <v>769</v>
       </c>
       <c r="J238" s="1">
         <v>11</v>
@@ -11533,8 +12322,8 @@
       <c r="H239" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I239" s="1">
-        <v>110131</v>
+      <c r="I239" s="2" t="s">
+        <v>770</v>
       </c>
       <c r="J239" s="1">
         <v>11</v>
@@ -11571,8 +12360,8 @@
       <c r="H240" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I240" s="1">
-        <v>110132</v>
+      <c r="I240" s="2" t="s">
+        <v>771</v>
       </c>
       <c r="J240" s="1">
         <v>11</v>
@@ -11609,8 +12398,8 @@
       <c r="H241" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I241" s="1">
-        <v>110133</v>
+      <c r="I241" s="2" t="s">
+        <v>772</v>
       </c>
       <c r="J241" s="1">
         <v>11</v>
@@ -11647,8 +12436,8 @@
       <c r="H242" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I242" s="1">
-        <v>110134</v>
+      <c r="I242" s="2" t="s">
+        <v>773</v>
       </c>
       <c r="J242" s="1">
         <v>11</v>
@@ -11685,8 +12474,8 @@
       <c r="H243" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I243" s="1">
-        <v>110135</v>
+      <c r="I243" s="2" t="s">
+        <v>774</v>
       </c>
       <c r="J243" s="1">
         <v>11</v>
@@ -11723,8 +12512,8 @@
       <c r="H244" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I244" s="1">
-        <v>110136</v>
+      <c r="I244" s="2" t="s">
+        <v>775</v>
       </c>
       <c r="J244" s="1">
         <v>11</v>
@@ -11761,8 +12550,8 @@
       <c r="H245" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I245" s="1">
-        <v>110137</v>
+      <c r="I245" s="2" t="s">
+        <v>776</v>
       </c>
       <c r="J245" s="1">
         <v>11</v>
@@ -11799,8 +12588,8 @@
       <c r="H246" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I246" s="1">
-        <v>110138</v>
+      <c r="I246" s="2" t="s">
+        <v>777</v>
       </c>
       <c r="J246" s="1">
         <v>11</v>
@@ -11837,8 +12626,8 @@
       <c r="H247" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="I247" s="1">
-        <v>110139</v>
+      <c r="I247" s="2" t="s">
+        <v>778</v>
       </c>
       <c r="J247" s="1">
         <v>11</v>
@@ -11875,8 +12664,8 @@
       <c r="H248" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I248" s="1">
-        <v>110140</v>
+      <c r="I248" s="2" t="s">
+        <v>779</v>
       </c>
       <c r="J248" s="1">
         <v>11</v>
@@ -11913,8 +12702,8 @@
       <c r="H249" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="I249" s="1">
-        <v>110141</v>
+      <c r="I249" s="2" t="s">
+        <v>780</v>
       </c>
       <c r="J249" s="1">
         <v>11</v>
@@ -11951,8 +12740,8 @@
       <c r="H250" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I250" s="1">
-        <v>110142</v>
+      <c r="I250" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="J250" s="1">
         <v>11</v>
@@ -11989,8 +12778,8 @@
       <c r="H251" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="I251" s="1">
-        <v>110143</v>
+      <c r="I251" s="2" t="s">
+        <v>782</v>
       </c>
       <c r="J251" s="1">
         <v>11</v>
@@ -12027,8 +12816,8 @@
       <c r="H252" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="I252" s="1">
-        <v>110144</v>
+      <c r="I252" s="2" t="s">
+        <v>783</v>
       </c>
       <c r="J252" s="1">
         <v>11</v>
@@ -12065,8 +12854,8 @@
       <c r="H253" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I253" s="1">
-        <v>110145</v>
+      <c r="I253" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="J253" s="1">
         <v>11</v>
@@ -12103,8 +12892,8 @@
       <c r="H254" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I254" s="1">
-        <v>110146</v>
+      <c r="I254" s="2" t="s">
+        <v>785</v>
       </c>
       <c r="J254" s="1">
         <v>11</v>
@@ -12141,8 +12930,8 @@
       <c r="H255" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I255" s="1">
-        <v>110147</v>
+      <c r="I255" s="2" t="s">
+        <v>786</v>
       </c>
       <c r="J255" s="1">
         <v>11</v>
@@ -12179,11 +12968,11 @@
       <c r="H256" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I256" s="1">
-        <v>110148</v>
+      <c r="I256" s="2" t="s">
+        <v>757</v>
       </c>
       <c r="J256" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K256" s="1" t="s">
         <v>519</v>
@@ -12217,11 +13006,11 @@
       <c r="H257" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I257" s="1">
-        <v>110149</v>
+      <c r="I257" s="2" t="s">
+        <v>758</v>
       </c>
       <c r="J257" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K257" s="1" t="s">
         <v>519</v>
@@ -12255,11 +13044,11 @@
       <c r="H258" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I258" s="1">
-        <v>110150</v>
+      <c r="I258" s="2" t="s">
+        <v>759</v>
       </c>
       <c r="J258" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K258" s="1" t="s">
         <v>519</v>
@@ -12293,11 +13082,11 @@
       <c r="H259" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I259" s="1">
-        <v>110151</v>
+      <c r="I259" s="2" t="s">
+        <v>760</v>
       </c>
       <c r="J259" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K259" s="1" t="s">
         <v>519</v>
@@ -12331,11 +13120,11 @@
       <c r="H260" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I260" s="1">
-        <v>110152</v>
+      <c r="I260" s="2" t="s">
+        <v>761</v>
       </c>
       <c r="J260" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K260" s="1" t="s">
         <v>515</v>
@@ -12358,7 +13147,7 @@
         <v>11</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>516</v>
@@ -12369,17 +13158,55 @@
       <c r="H261" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="I261" s="1">
-        <v>110153</v>
+      <c r="I261" s="2" t="s">
+        <v>762</v>
       </c>
       <c r="J261" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K261" s="1" t="s">
         <v>515</v>
       </c>
       <c r="L261" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1">
+        <v>275</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="J262" s="1">
+        <v>23</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="L262" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/personal.xlsx
+++ b/Datos/personal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605E026E-2202-4189-991B-BC098DC1DF6A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC856A5C-FAC6-421E-8780-0D0CB27203A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3235,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="H235" sqref="H235"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="G234" sqref="G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datos/personal.xlsx
+++ b/Datos/personal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC856A5C-FAC6-421E-8780-0D0CB27203A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BAFF45-D19E-412A-9F35-F23216C35685}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3235,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="G234" sqref="G234"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="J256" sqref="J256:J259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12972,7 +12972,7 @@
         <v>757</v>
       </c>
       <c r="J256" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K256" s="1" t="s">
         <v>519</v>
@@ -13010,7 +13010,7 @@
         <v>758</v>
       </c>
       <c r="J257" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K257" s="1" t="s">
         <v>519</v>
@@ -13048,7 +13048,7 @@
         <v>759</v>
       </c>
       <c r="J258" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K258" s="1" t="s">
         <v>519</v>
@@ -13086,7 +13086,7 @@
         <v>760</v>
       </c>
       <c r="J259" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K259" s="1" t="s">
         <v>519</v>

--- a/Datos/personal.xlsx
+++ b/Datos/personal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BAFF45-D19E-412A-9F35-F23216C35685}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B0E188-5731-4C72-A4F5-C9F7A6799564}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="788">
   <si>
     <t>idempleado</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Yañez</t>
   </si>
   <si>
-    <t>M rquez</t>
-  </si>
-  <si>
     <t>Daniel</t>
   </si>
   <si>
@@ -460,9 +457,6 @@
     <t>Iván</t>
   </si>
   <si>
-    <t>Toal </t>
-  </si>
-  <si>
     <t>Jacqueline</t>
   </si>
   <si>
@@ -2387,6 +2381,9 @@
   </si>
   <si>
     <t>090154</t>
+  </si>
+  <si>
+    <t>Toalá</t>
   </si>
 </sst>
 </file>
@@ -3235,8 +3232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="J256" sqref="J256:J259"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3296,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>15</v>
+        <v>150000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -3317,7 +3314,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J2" s="1">
         <v>2</v>
@@ -3334,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>16</v>
+        <v>150001</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -3355,7 +3352,7 @@
         <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -3372,7 +3369,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>17</v>
+        <v>150002</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -3393,7 +3390,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
@@ -3410,7 +3407,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>18</v>
+        <v>150003</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -3431,7 +3428,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J5" s="1">
         <v>2</v>
@@ -3448,7 +3445,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>19</v>
+        <v>150004</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -3469,7 +3466,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
@@ -3486,7 +3483,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>20</v>
+        <v>150005</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -3507,7 +3504,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
@@ -3524,7 +3521,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>21</v>
+        <v>150006</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -3545,7 +3542,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J8" s="1">
         <v>2</v>
@@ -3562,7 +3559,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>22</v>
+        <v>150007</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -3583,7 +3580,7 @@
         <v>36</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J9" s="1">
         <v>2</v>
@@ -3600,7 +3597,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>23</v>
+        <v>150008</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -3621,7 +3618,7 @@
         <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J10" s="1">
         <v>2</v>
@@ -3638,7 +3635,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>24</v>
+        <v>150009</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -3659,7 +3656,7 @@
         <v>42</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J11" s="1">
         <v>2</v>
@@ -3676,10 +3673,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>25</v>
+        <v>150010</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -3697,7 +3694,7 @@
         <v>45</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
@@ -3714,10 +3711,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>26</v>
+        <v>150011</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -3735,7 +3732,7 @@
         <v>48</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -3752,10 +3749,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>27</v>
+        <v>150012</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -3773,7 +3770,7 @@
         <v>51</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J14" s="1">
         <v>2</v>
@@ -3790,10 +3787,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>28</v>
+        <v>150013</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -3811,7 +3808,7 @@
         <v>54</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
@@ -3828,10 +3825,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>29</v>
+        <v>150014</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -3849,7 +3846,7 @@
         <v>57</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
@@ -3866,10 +3863,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>30</v>
+        <v>150015</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -3887,7 +3884,7 @@
         <v>60</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J17" s="1">
         <v>2</v>
@@ -3904,10 +3901,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>31</v>
+        <v>150016</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -3925,7 +3922,7 @@
         <v>63</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J18" s="1">
         <v>2</v>
@@ -3942,10 +3939,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>32</v>
+        <v>150017</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -3963,7 +3960,7 @@
         <v>66</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J19" s="1">
         <v>2</v>
@@ -3980,10 +3977,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>33</v>
+        <v>150018</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -4001,7 +3998,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J20" s="1">
         <v>2</v>
@@ -4018,10 +4015,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>34</v>
+        <v>150019</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -4039,7 +4036,7 @@
         <v>69</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J21" s="1">
         <v>2</v>
@@ -4056,10 +4053,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>35</v>
+        <v>150020</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -4074,10 +4071,10 @@
         <v>71</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
@@ -4094,10 +4091,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>36</v>
+        <v>150021</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -4106,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>27</v>
@@ -4115,7 +4112,7 @@
         <v>63</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -4132,10 +4129,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>37</v>
+        <v>150022</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -4144,16 +4141,16 @@
         <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J24" s="1">
         <v>2</v>
@@ -4170,10 +4167,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>38</v>
+        <v>150023</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -4182,16 +4179,16 @@
         <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J25" s="1">
         <v>2</v>
@@ -4208,10 +4205,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>39</v>
+        <v>150024</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -4220,16 +4217,16 @@
         <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J26" s="1">
         <v>2</v>
@@ -4246,10 +4243,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>40</v>
+        <v>150025</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -4258,16 +4255,16 @@
         <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J27" s="1">
         <v>2</v>
@@ -4284,10 +4281,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>41</v>
+        <v>150026</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -4296,16 +4293,16 @@
         <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J28" s="1">
         <v>2</v>
@@ -4322,10 +4319,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>42</v>
+        <v>150027</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -4334,16 +4331,16 @@
         <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J29" s="1">
         <v>2</v>
@@ -4360,10 +4357,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>43</v>
+        <v>150028</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -4372,16 +4369,16 @@
         <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J30" s="1">
         <v>2</v>
@@ -4398,10 +4395,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>44</v>
+        <v>150029</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -4410,16 +4407,16 @@
         <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J31" s="1">
         <v>2</v>
@@ -4436,10 +4433,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>45</v>
+        <v>150030</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -4448,16 +4445,16 @@
         <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J32" s="1">
         <v>2</v>
@@ -4474,10 +4471,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>46</v>
+        <v>150031</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -4486,16 +4483,16 @@
         <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J33" s="1">
         <v>2</v>
@@ -4512,10 +4509,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>47</v>
+        <v>150032</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -4524,16 +4521,16 @@
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="I34" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J34" s="1">
         <v>2</v>
@@ -4550,10 +4547,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>48</v>
+        <v>150033</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
@@ -4562,16 +4559,16 @@
         <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="I35" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J35" s="1">
         <v>2</v>
@@ -4588,10 +4585,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>49</v>
+        <v>150034</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -4600,16 +4597,16 @@
         <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J36" s="1">
         <v>2</v>
@@ -4626,10 +4623,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>50</v>
+        <v>150035</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -4638,16 +4635,16 @@
         <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="I37" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J37" s="1">
         <v>2</v>
@@ -4664,10 +4661,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>51</v>
+        <v>150036</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
@@ -4676,16 +4673,16 @@
         <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J38" s="1">
         <v>5</v>
@@ -4702,10 +4699,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>52</v>
+        <v>150037</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -4714,16 +4711,16 @@
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="I39" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J39" s="1">
         <v>5</v>
@@ -4740,10 +4737,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>53</v>
+        <v>150038</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -4752,16 +4749,16 @@
         <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J40" s="1">
         <v>5</v>
@@ -4778,28 +4775,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>54</v>
+        <v>150039</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J41" s="1">
         <v>5</v>
@@ -4816,28 +4813,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>55</v>
+        <v>150040</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J42" s="1">
         <v>5</v>
@@ -4854,28 +4851,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>56</v>
+        <v>150041</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J43" s="1">
         <v>5</v>
@@ -4892,28 +4889,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>57</v>
+        <v>150042</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J44" s="1">
         <v>5</v>
@@ -4930,28 +4927,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>58</v>
+        <v>150043</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J45" s="1">
         <v>5</v>
@@ -4968,28 +4965,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>59</v>
+        <v>150044</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I46" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J46" s="1">
         <v>5</v>
@@ -5006,28 +5003,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>60</v>
+        <v>150045</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="I47" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J47" s="1">
         <v>5</v>
@@ -5044,28 +5041,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>61</v>
+        <v>150046</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="I48" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J48" s="1">
         <v>5</v>
@@ -5082,28 +5079,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>62</v>
+        <v>150047</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J49" s="1">
         <v>5</v>
@@ -5120,28 +5117,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>63</v>
+        <v>150048</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J50" s="1">
         <v>5</v>
@@ -5158,28 +5155,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>64</v>
+        <v>150049</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="I51" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J51" s="1">
         <v>5</v>
@@ -5196,28 +5193,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>65</v>
+        <v>150050</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J52" s="1">
         <v>5</v>
@@ -5234,28 +5231,28 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>66</v>
+        <v>150051</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J53" s="1">
         <v>5</v>
@@ -5272,28 +5269,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>67</v>
+        <v>150052</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>146</v>
+        <v>787</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J54" s="1">
         <v>5</v>
@@ -5310,28 +5307,28 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>68</v>
+        <v>150053</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="I55" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J55" s="1">
         <v>5</v>
@@ -5348,28 +5345,28 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>69</v>
+        <v>150054</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I56" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J56" s="1">
         <v>5</v>
@@ -5386,28 +5383,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>70</v>
+        <v>150055</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J57" s="1">
         <v>5</v>
@@ -5424,28 +5421,28 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>71</v>
+        <v>150056</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="I58" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J58" s="1">
         <v>7</v>
@@ -5462,28 +5459,28 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>72</v>
+        <v>150057</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J59" s="1">
         <v>7</v>
@@ -5500,28 +5497,28 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>73</v>
+        <v>150058</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="I60" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J60" s="1">
         <v>7</v>
@@ -5538,28 +5535,28 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>74</v>
+        <v>150059</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="I61" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J61" s="1">
         <v>7</v>
@@ -5576,28 +5573,28 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>75</v>
+        <v>150060</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="I62" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J62" s="1">
         <v>7</v>
@@ -5614,28 +5611,28 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>76</v>
+        <v>150061</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I63" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J63" s="1">
         <v>7</v>
@@ -5652,28 +5649,28 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>77</v>
+        <v>150062</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J64" s="1">
         <v>7</v>
@@ -5690,28 +5687,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>78</v>
+        <v>150063</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="H65" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J65" s="1">
         <v>7</v>
@@ -5728,28 +5725,28 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>79</v>
+        <v>150064</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J66" s="1">
         <v>7</v>
@@ -5766,28 +5763,28 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>80</v>
+        <v>150065</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="I67" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J67" s="1">
         <v>7</v>
@@ -5804,28 +5801,28 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>81</v>
+        <v>150066</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I68" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J68" s="1">
         <v>7</v>
@@ -5842,28 +5839,28 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>82</v>
+        <v>150067</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J69" s="1">
         <v>7</v>
@@ -5880,28 +5877,28 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>83</v>
+        <v>150068</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J70" s="1">
         <v>7</v>
@@ -5918,28 +5915,28 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>84</v>
+        <v>150069</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J71" s="1">
         <v>7</v>
@@ -5956,28 +5953,28 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>85</v>
+        <v>150070</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="I72" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J72" s="1">
         <v>7</v>
@@ -5994,28 +5991,28 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>86</v>
+        <v>150071</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J73" s="1">
         <v>7</v>
@@ -6032,28 +6029,28 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>87</v>
+        <v>150072</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="I74" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J74" s="1">
         <v>7</v>
@@ -6070,19 +6067,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>88</v>
+        <v>150073</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>57</v>
@@ -6091,7 +6088,7 @@
         <v>44</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J75" s="1">
         <v>7</v>
@@ -6108,28 +6105,28 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>89</v>
+        <v>150074</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J76" s="1">
         <v>7</v>
@@ -6146,28 +6143,28 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>90</v>
+        <v>150075</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J77" s="1">
         <v>7</v>
@@ -6184,28 +6181,28 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>91</v>
+        <v>150076</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="I78" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J78" s="1">
         <v>7</v>
@@ -6222,28 +6219,28 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>92</v>
+        <v>150077</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J79" s="1">
         <v>7</v>
@@ -6260,28 +6257,28 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>93</v>
+        <v>150078</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="I80" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J80" s="1">
         <v>7</v>
@@ -6298,28 +6295,28 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>94</v>
+        <v>150079</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J81" s="1">
         <v>7</v>
@@ -6336,28 +6333,28 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>95</v>
+        <v>150080</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J82" s="1">
         <v>7</v>
@@ -6374,28 +6371,28 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>96</v>
+        <v>150081</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J83" s="1">
         <v>7</v>
@@ -6412,28 +6409,28 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>97</v>
+        <v>150082</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J84" s="1">
         <v>7</v>
@@ -6450,28 +6447,28 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>98</v>
+        <v>150083</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F85" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="I85" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J85" s="1">
         <v>7</v>
@@ -6488,28 +6485,28 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>99</v>
+        <v>150084</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J86" s="1">
         <v>7</v>
@@ -6526,28 +6523,28 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>100</v>
+        <v>150085</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J87" s="1">
         <v>7</v>
@@ -6564,28 +6561,28 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>101</v>
+        <v>150086</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J88" s="1">
         <v>7</v>
@@ -6602,28 +6599,28 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>102</v>
+        <v>150087</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J89" s="1">
         <v>7</v>
@@ -6640,28 +6637,28 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>103</v>
+        <v>150088</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="I90" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J90" s="1">
         <v>7</v>
@@ -6678,28 +6675,28 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>104</v>
+        <v>150089</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J91" s="1">
         <v>7</v>
@@ -6716,28 +6713,28 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>105</v>
+        <v>150090</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J92" s="1">
         <v>7</v>
@@ -6754,28 +6751,28 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>106</v>
+        <v>150091</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F93" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="I93" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J93" s="1">
         <v>7</v>
@@ -6792,28 +6789,28 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>107</v>
+        <v>150092</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J94" s="1">
         <v>7</v>
@@ -6830,28 +6827,28 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>108</v>
+        <v>150093</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J95" s="1">
         <v>7</v>
@@ -6868,28 +6865,28 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>109</v>
+        <v>150094</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F96" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="I96" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J96" s="1">
         <v>7</v>
@@ -6906,28 +6903,28 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>110</v>
+        <v>150095</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="I97" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J97" s="1">
         <v>7</v>
@@ -6944,28 +6941,28 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>111</v>
+        <v>150096</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J98" s="1">
         <v>7</v>
@@ -6982,28 +6979,28 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>112</v>
+        <v>150097</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J99" s="1">
         <v>7</v>
@@ -7020,28 +7017,28 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>113</v>
+        <v>150098</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J100" s="1">
         <v>7</v>
@@ -7058,28 +7055,28 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>114</v>
+        <v>150099</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J101" s="1">
         <v>7</v>
@@ -7096,28 +7093,28 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>115</v>
+        <v>150100</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J102" s="1">
         <v>7</v>
@@ -7134,28 +7131,28 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>116</v>
+        <v>150101</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J103" s="1">
         <v>7</v>
@@ -7172,28 +7169,28 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>117</v>
+        <v>150102</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J104" s="1">
         <v>7</v>
@@ -7210,28 +7207,28 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>118</v>
+        <v>150103</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F105" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="H105" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J105" s="1">
         <v>7</v>
@@ -7248,28 +7245,28 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>119</v>
+        <v>150104</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="I106" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J106" s="1">
         <v>7</v>
@@ -7286,28 +7283,28 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>120</v>
+        <v>150105</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J107" s="1">
         <v>7</v>
@@ -7324,28 +7321,28 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>121</v>
+        <v>150106</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J108" s="1">
         <v>7</v>
@@ -7362,28 +7359,28 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>122</v>
+        <v>150107</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J109" s="1">
         <v>6</v>
@@ -7400,28 +7397,28 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>123</v>
+        <v>150108</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J110" s="1">
         <v>6</v>
@@ -7438,28 +7435,28 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>124</v>
+        <v>150109</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J111" s="1">
         <v>6</v>
@@ -7476,28 +7473,28 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>125</v>
+        <v>150110</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J112" s="1">
         <v>6</v>
@@ -7514,28 +7511,28 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>126</v>
+        <v>150111</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J113" s="1">
         <v>6</v>
@@ -7552,28 +7549,28 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>127</v>
+        <v>150112</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J114" s="1">
         <v>6</v>
@@ -7590,28 +7587,28 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>128</v>
+        <v>150113</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="I115" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J115" s="1">
         <v>6</v>
@@ -7628,28 +7625,28 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>129</v>
+        <v>150114</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="I116" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J116" s="1">
         <v>6</v>
@@ -7666,28 +7663,28 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>130</v>
+        <v>150115</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="I117" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J117" s="1">
         <v>6</v>
@@ -7704,28 +7701,28 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>131</v>
+        <v>150116</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J118" s="1">
         <v>6</v>
@@ -7742,28 +7739,28 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>132</v>
+        <v>150117</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J119" s="1">
         <v>6</v>
@@ -7780,28 +7777,28 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>133</v>
+        <v>150118</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="I120" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J120" s="1">
         <v>6</v>
@@ -7818,28 +7815,28 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>134</v>
+        <v>150119</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J121" s="1">
         <v>6</v>
@@ -7856,28 +7853,28 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>135</v>
+        <v>150120</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J122" s="1">
         <v>6</v>
@@ -7894,28 +7891,28 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>136</v>
+        <v>150121</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J123" s="1">
         <v>6</v>
@@ -7932,28 +7929,28 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>137</v>
+        <v>150122</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J124" s="1">
         <v>6</v>
@@ -7970,28 +7967,28 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>138</v>
+        <v>150123</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J125" s="1">
         <v>6</v>
@@ -8008,28 +8005,28 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>139</v>
+        <v>150124</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="H126" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J126" s="1">
         <v>6</v>
@@ -8046,28 +8043,28 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>140</v>
+        <v>150125</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J127" s="1">
         <v>6</v>
@@ -8084,28 +8081,28 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>141</v>
+        <v>150126</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F128" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="I128" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J128" s="1">
         <v>6</v>
@@ -8122,28 +8119,28 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>142</v>
+        <v>150127</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F129" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="I129" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J129" s="1">
         <v>6</v>
@@ -8160,28 +8157,28 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>143</v>
+        <v>150128</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F130" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="I130" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J130" s="1">
         <v>6</v>
@@ -8198,28 +8195,28 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>144</v>
+        <v>150129</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J131" s="1">
         <v>6</v>
@@ -8236,28 +8233,28 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>145</v>
+        <v>150130</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J132" s="1">
         <v>6</v>
@@ -8274,28 +8271,28 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>146</v>
+        <v>150131</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F133" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="I133" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J133" s="1">
         <v>6</v>
@@ -8312,28 +8309,28 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>147</v>
+        <v>150132</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F134" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H134" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="I134" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J134" s="1">
         <v>6</v>
@@ -8350,28 +8347,28 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>148</v>
+        <v>150133</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J135" s="1">
         <v>6</v>
@@ -8388,28 +8385,28 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>149</v>
+        <v>150134</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J136" s="1">
         <v>6</v>
@@ -8426,28 +8423,28 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>150</v>
+        <v>150135</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F137" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H137" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G137" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="I137" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J137" s="1">
         <v>6</v>
@@ -8464,28 +8461,28 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>151</v>
+        <v>150136</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J138" s="1">
         <v>6</v>
@@ -8502,28 +8499,28 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>152</v>
+        <v>150137</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J139" s="1">
         <v>6</v>
@@ -8540,19 +8537,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>153</v>
+        <v>150138</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>57</v>
@@ -8561,7 +8558,7 @@
         <v>27</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J140" s="1">
         <v>6</v>
@@ -8578,28 +8575,28 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>154</v>
+        <v>150139</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J141" s="1">
         <v>6</v>
@@ -8616,28 +8613,28 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>155</v>
+        <v>150140</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J142" s="1">
         <v>6</v>
@@ -8654,28 +8651,28 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>156</v>
+        <v>150141</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J143" s="1">
         <v>6</v>
@@ -8692,28 +8689,28 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>157</v>
+        <v>150142</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F144" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H144" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="I144" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J144" s="1">
         <v>6</v>
@@ -8730,28 +8727,28 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>158</v>
+        <v>150143</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G145" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J145" s="1">
         <v>6</v>
@@ -8768,28 +8765,28 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>159</v>
+        <v>150144</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="J146" s="1">
         <v>6</v>
@@ -8806,28 +8803,28 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>160</v>
+        <v>150145</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J147" s="1">
         <v>6</v>
@@ -8844,28 +8841,28 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>161</v>
+        <v>150146</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J148" s="1">
         <v>6</v>
@@ -8882,28 +8879,28 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>162</v>
+        <v>150147</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H149" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="I149" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J149" s="1">
         <v>6</v>
@@ -8920,28 +8917,28 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>163</v>
+        <v>150148</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J150" s="1">
         <v>6</v>
@@ -8958,28 +8955,28 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>164</v>
+        <v>150149</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J151" s="1">
         <v>6</v>
@@ -8996,28 +8993,28 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>165</v>
+        <v>150150</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J152" s="1">
         <v>6</v>
@@ -9034,28 +9031,28 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>166</v>
+        <v>150151</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J153" s="1">
         <v>6</v>
@@ -9072,28 +9069,28 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>167</v>
+        <v>150152</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J154" s="1">
         <v>6</v>
@@ -9110,28 +9107,28 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>168</v>
+        <v>150153</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F155" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J155" s="1">
         <v>6</v>
@@ -9148,28 +9145,28 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>169</v>
+        <v>150154</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F156" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H156" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="I156" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J156" s="1">
         <v>6</v>
@@ -9186,28 +9183,28 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>170</v>
+        <v>150155</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J157" s="1">
         <v>6</v>
@@ -9224,28 +9221,28 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>171</v>
+        <v>150156</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J158" s="1">
         <v>6</v>
@@ -9262,28 +9259,28 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>172</v>
+        <v>150157</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J159" s="1">
         <v>6</v>
@@ -9300,28 +9297,28 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>173</v>
+        <v>150158</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J160" s="1">
         <v>6</v>
@@ -9338,28 +9335,28 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>174</v>
+        <v>150159</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J161" s="1">
         <v>6</v>
@@ -9376,28 +9373,28 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>175</v>
+        <v>150160</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J162" s="1">
         <v>6</v>
@@ -9414,28 +9411,28 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>176</v>
+        <v>150161</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J163" s="1">
         <v>6</v>
@@ -9452,28 +9449,28 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>177</v>
+        <v>150162</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J164" s="1">
         <v>6</v>
@@ -9490,28 +9487,28 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>178</v>
+        <v>150163</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J165" s="1">
         <v>6</v>
@@ -9528,28 +9525,28 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>179</v>
+        <v>150164</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J166" s="1">
         <v>6</v>
@@ -9566,28 +9563,28 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>180</v>
+        <v>150165</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J167" s="1">
         <v>6</v>
@@ -9604,28 +9601,28 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>181</v>
+        <v>150166</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F168" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H168" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="I168" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J168" s="1">
         <v>6</v>
@@ -9642,28 +9639,28 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>182</v>
+        <v>150167</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="J169" s="1">
         <v>6</v>
@@ -9680,28 +9677,28 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>183</v>
+        <v>150168</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J170" s="1">
         <v>6</v>
@@ -9718,28 +9715,28 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>184</v>
+        <v>150169</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J171" s="1">
         <v>6</v>
@@ -9756,28 +9753,28 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>185</v>
+        <v>150170</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J172" s="1">
         <v>6</v>
@@ -9794,28 +9791,28 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>186</v>
+        <v>150171</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J173" s="1">
         <v>6</v>
@@ -9832,28 +9829,28 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>187</v>
+        <v>150172</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F174" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H174" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G174" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="I174" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J174" s="1">
         <v>6</v>
@@ -9870,28 +9867,28 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>188</v>
+        <v>150173</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="J175" s="1">
         <v>6</v>
@@ -9908,28 +9905,28 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>189</v>
+        <v>150174</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F176" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="I176" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J176" s="1">
         <v>6</v>
@@ -9946,28 +9943,28 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>190</v>
+        <v>150175</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F177" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H177" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="I177" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J177" s="1">
         <v>6</v>
@@ -9984,28 +9981,28 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>191</v>
+        <v>150176</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J178" s="1">
         <v>6</v>
@@ -10022,28 +10019,28 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>192</v>
+        <v>150177</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J179" s="1">
         <v>6</v>
@@ -10060,28 +10057,28 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>193</v>
+        <v>150178</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F180" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H180" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="G180" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="I180" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J180" s="1">
         <v>6</v>
@@ -10098,28 +10095,28 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>194</v>
+        <v>150179</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J181" s="1">
         <v>6</v>
@@ -10136,28 +10133,28 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>195</v>
+        <v>150180</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J182" s="1">
         <v>6</v>
@@ -10174,28 +10171,28 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>196</v>
+        <v>150181</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J183" s="1">
         <v>6</v>
@@ -10212,28 +10209,28 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>197</v>
+        <v>150182</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J184" s="1">
         <v>6</v>
@@ -10250,28 +10247,28 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>198</v>
+        <v>150183</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J185" s="1">
         <v>6</v>
@@ -10288,10 +10285,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>199</v>
+        <v>150184</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>11</v>
@@ -10300,16 +10297,16 @@
         <v>12</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J186" s="1">
         <v>6</v>
@@ -10326,10 +10323,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>200</v>
+        <v>150185</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>11</v>
@@ -10338,16 +10335,16 @@
         <v>12</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J187" s="1">
         <v>6</v>
@@ -10364,10 +10361,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>201</v>
+        <v>150186</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>11</v>
@@ -10376,16 +10373,16 @@
         <v>12</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J188" s="1">
         <v>6</v>
@@ -10402,28 +10399,28 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>202</v>
+        <v>150187</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F189" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H189" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G189" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="I189" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="J189" s="1">
         <v>6</v>
@@ -10440,28 +10437,28 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>203</v>
+        <v>150188</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J190" s="1">
         <v>6</v>
@@ -10478,28 +10475,28 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>204</v>
+        <v>150189</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J191" s="1">
         <v>6</v>
@@ -10516,28 +10513,28 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>205</v>
+        <v>150190</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J192" s="1">
         <v>6</v>
@@ -10554,28 +10551,28 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>206</v>
+        <v>150191</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J193" s="1">
         <v>6</v>
@@ -10592,28 +10589,28 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>207</v>
+        <v>150192</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J194" s="1">
         <v>6</v>
@@ -10630,13 +10627,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>208</v>
+        <v>150193</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>12</v>
@@ -10651,7 +10648,7 @@
         <v>48</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J195" s="1">
         <v>6</v>
@@ -10668,28 +10665,28 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>209</v>
+        <v>150194</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J196" s="1">
         <v>6</v>
@@ -10706,28 +10703,28 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>210</v>
+        <v>150195</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="J197" s="1">
         <v>6</v>
@@ -10744,28 +10741,28 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>211</v>
+        <v>150196</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J198" s="1">
         <v>6</v>
@@ -10782,28 +10779,28 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>212</v>
+        <v>150197</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J199" s="1">
         <v>6</v>
@@ -10820,28 +10817,28 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>213</v>
+        <v>150198</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="J200" s="1">
         <v>6</v>
@@ -10858,19 +10855,19 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>214</v>
+        <v>150199</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>56</v>
@@ -10879,7 +10876,7 @@
         <v>62</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J201" s="1">
         <v>6</v>
@@ -10896,28 +10893,28 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>215</v>
+        <v>150200</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="J202" s="1">
         <v>6</v>
@@ -10934,28 +10931,28 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>216</v>
+        <v>150201</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J203" s="1">
         <v>6</v>
@@ -10972,28 +10969,28 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>217</v>
+        <v>150202</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J204" s="1">
         <v>6</v>
@@ -11010,28 +11007,28 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>218</v>
+        <v>150203</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J205" s="1">
         <v>6</v>
@@ -11048,28 +11045,28 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>219</v>
+        <v>150204</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J206" s="1">
         <v>8</v>
@@ -11086,28 +11083,28 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>220</v>
+        <v>150205</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J207" s="1">
         <v>8</v>
@@ -11124,28 +11121,28 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>221</v>
+        <v>150206</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J208" s="1">
         <v>8</v>
@@ -11162,28 +11159,28 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>222</v>
+        <v>150207</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J209" s="1">
         <v>8</v>
@@ -11200,28 +11197,28 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>223</v>
+        <v>150208</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J210" s="1">
         <v>8</v>
@@ -11238,13 +11235,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>224</v>
+        <v>150209</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>12</v>
@@ -11256,10 +11253,10 @@
         <v>27</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J211" s="1">
         <v>8</v>
@@ -11276,28 +11273,28 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>225</v>
+        <v>150210</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J212" s="1">
         <v>8</v>
@@ -11314,19 +11311,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>226</v>
+        <v>150211</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>27</v>
@@ -11335,7 +11332,7 @@
         <v>48</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J213" s="1">
         <v>8</v>
@@ -11352,28 +11349,28 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>227</v>
+        <v>150212</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J214" s="1">
         <v>8</v>
@@ -11390,28 +11387,28 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>228</v>
+        <v>150213</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J215" s="1">
         <v>8</v>
@@ -11428,28 +11425,28 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>229</v>
+        <v>150214</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J216" s="1">
         <v>8</v>
@@ -11466,28 +11463,28 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>230</v>
+        <v>150215</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J217" s="1">
         <v>8</v>
@@ -11504,28 +11501,28 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>231</v>
+        <v>150216</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J218" s="1">
         <v>8</v>
@@ -11542,28 +11539,28 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>232</v>
+        <v>150217</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J219" s="1">
         <v>8</v>
@@ -11580,28 +11577,28 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>233</v>
+        <v>150218</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J220" s="1">
         <v>8</v>
@@ -11618,28 +11615,28 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>234</v>
+        <v>150219</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J221" s="1">
         <v>8</v>
@@ -11656,28 +11653,28 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>235</v>
+        <v>150220</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J222" s="1">
         <v>8</v>
@@ -11694,28 +11691,28 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>236</v>
+        <v>150221</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J223" s="1">
         <v>8</v>
@@ -11732,28 +11729,28 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>237</v>
+        <v>150222</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F224" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H224" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G224" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H224" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="I224" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J224" s="1">
         <v>8</v>
@@ -11770,28 +11767,28 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>238</v>
+        <v>150223</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J225" s="1">
         <v>8</v>
@@ -11808,28 +11805,28 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>239</v>
+        <v>150224</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J226" s="1">
         <v>8</v>
@@ -11846,28 +11843,28 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>240</v>
+        <v>150225</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J227" s="1">
         <v>8</v>
@@ -11884,28 +11881,28 @@
         <v>227</v>
       </c>
       <c r="B228" s="1">
-        <v>241</v>
+        <v>150226</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J228" s="1">
         <v>8</v>
@@ -11922,28 +11919,28 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>242</v>
+        <v>150227</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J229" s="1">
         <v>8</v>
@@ -11960,28 +11957,28 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>243</v>
+        <v>150228</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J230" s="1">
         <v>8</v>
@@ -11998,28 +11995,28 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>244</v>
+        <v>150229</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J231" s="1">
         <v>8</v>
@@ -12036,28 +12033,28 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>245</v>
+        <v>150230</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J232" s="1">
         <v>11</v>
@@ -12074,28 +12071,28 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>246</v>
+        <v>150231</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J233" s="1">
         <v>11</v>
@@ -12112,28 +12109,28 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>247</v>
+        <v>150232</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="J234" s="1">
         <v>11</v>
@@ -12150,28 +12147,28 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>248</v>
+        <v>150233</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J235" s="1">
         <v>11</v>
@@ -12188,28 +12185,28 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>249</v>
+        <v>150234</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J236" s="1">
         <v>11</v>
@@ -12226,28 +12223,28 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>250</v>
+        <v>150235</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J237" s="1">
         <v>11</v>
@@ -12264,28 +12261,28 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>251</v>
+        <v>150236</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="J238" s="1">
         <v>11</v>
@@ -12302,28 +12299,28 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>252</v>
+        <v>150237</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J239" s="1">
         <v>11</v>
@@ -12340,28 +12337,28 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>253</v>
+        <v>150238</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J240" s="1">
         <v>11</v>
@@ -12378,28 +12375,28 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>254</v>
+        <v>150239</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F241" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H241" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G241" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="H241" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I241" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J241" s="1">
         <v>11</v>
@@ -12416,28 +12413,28 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>255</v>
+        <v>150240</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J242" s="1">
         <v>11</v>
@@ -12454,28 +12451,28 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>256</v>
+        <v>150241</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J243" s="1">
         <v>11</v>
@@ -12492,28 +12489,28 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>257</v>
+        <v>150242</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F244" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H244" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G244" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H244" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="I244" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J244" s="1">
         <v>11</v>
@@ -12530,28 +12527,28 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>258</v>
+        <v>150243</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J245" s="1">
         <v>11</v>
@@ -12568,19 +12565,19 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>259</v>
+        <v>150244</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>62</v>
@@ -12589,7 +12586,7 @@
         <v>63</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J246" s="1">
         <v>11</v>
@@ -12606,28 +12603,28 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>260</v>
+        <v>150245</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F247" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H247" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="G247" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H247" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="I247" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J247" s="1">
         <v>11</v>
@@ -12644,28 +12641,28 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>261</v>
+        <v>150246</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J248" s="1">
         <v>11</v>
@@ -12682,13 +12679,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>262</v>
+        <v>150247</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>12</v>
@@ -12700,10 +12697,10 @@
         <v>22</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J249" s="1">
         <v>11</v>
@@ -12720,28 +12717,28 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>263</v>
+        <v>150248</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J250" s="1">
         <v>11</v>
@@ -12758,28 +12755,28 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>264</v>
+        <v>150249</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="J251" s="1">
         <v>11</v>
@@ -12796,28 +12793,28 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>265</v>
+        <v>150250</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J252" s="1">
         <v>11</v>
@@ -12834,10 +12831,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>266</v>
+        <v>150251</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>11</v>
@@ -12846,16 +12843,16 @@
         <v>12</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="J253" s="1">
         <v>11</v>
@@ -12872,10 +12869,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>267</v>
+        <v>150252</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>11</v>
@@ -12884,16 +12881,16 @@
         <v>12</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J254" s="1">
         <v>11</v>
@@ -12910,10 +12907,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>268</v>
+        <v>150253</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>11</v>
@@ -12922,16 +12919,16 @@
         <v>12</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="J255" s="1">
         <v>11</v>
@@ -12948,34 +12945,34 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>269</v>
+        <v>150254</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J256" s="1">
         <v>22</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L256" s="1">
         <v>5</v>
@@ -12986,10 +12983,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>270</v>
+        <v>150255</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>11</v>
@@ -12998,22 +12995,22 @@
         <v>12</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J257" s="1">
         <v>22</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L257" s="1">
         <v>5</v>
@@ -13024,10 +13021,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>271</v>
+        <v>150256</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>11</v>
@@ -13036,22 +13033,22 @@
         <v>12</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J258" s="1">
         <v>22</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L258" s="1">
         <v>1</v>
@@ -13062,10 +13059,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>272</v>
+        <v>150257</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>11</v>
@@ -13074,22 +13071,22 @@
         <v>12</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J259" s="1">
         <v>22</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L259" s="1">
         <v>1</v>
@@ -13100,10 +13097,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>273</v>
+        <v>150258</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>11</v>
@@ -13112,22 +13109,22 @@
         <v>12</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J260" s="1">
         <v>23</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L260" s="1">
         <v>1</v>
@@ -13138,10 +13135,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>274</v>
+        <v>150259</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>11</v>
@@ -13150,22 +13147,22 @@
         <v>12</v>
       </c>
       <c r="F261" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H261" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G261" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H261" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="I261" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J261" s="1">
         <v>23</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L261" s="1">
         <v>2</v>
@@ -13176,7 +13173,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>275</v>
+        <v>150260</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>11</v>
@@ -13188,22 +13185,22 @@
         <v>12</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J262" s="1">
         <v>23</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L262" s="1">
         <v>3</v>

--- a/Datos/personal.xlsx
+++ b/Datos/personal.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B0E188-5731-4C72-A4F5-C9F7A6799564}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{655230A9-849B-41F6-B953-B4028BDFA4E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="personal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -3232,8 +3232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="L263" sqref="L263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,7 +3361,7 @@
         <v>16</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3399,7 +3399,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3437,7 +3437,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3475,7 +3475,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3513,7 +3513,7 @@
         <v>16</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3551,7 +3551,7 @@
         <v>16</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3589,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3665,7 +3665,7 @@
         <v>16</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3703,7 +3703,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3741,7 +3741,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3779,7 +3779,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3817,7 +3817,7 @@
         <v>16</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3855,7 +3855,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3893,7 +3893,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3931,7 +3931,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3969,7 +3969,7 @@
         <v>16</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -4007,7 +4007,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -4045,7 +4045,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4083,7 +4083,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4121,7 +4121,7 @@
         <v>16</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -4159,7 +4159,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -4197,7 +4197,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -4235,7 +4235,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -4273,7 +4273,7 @@
         <v>16</v>
       </c>
       <c r="L27" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
         <v>16</v>
       </c>
       <c r="L28" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4349,7 +4349,7 @@
         <v>16</v>
       </c>
       <c r="L29" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4387,7 +4387,7 @@
         <v>16</v>
       </c>
       <c r="L30" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4425,7 +4425,7 @@
         <v>16</v>
       </c>
       <c r="L31" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -4463,7 +4463,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -4501,7 +4501,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -4539,7 +4539,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="1">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -4577,7 +4577,7 @@
         <v>16</v>
       </c>
       <c r="L35" s="1">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -4615,7 +4615,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -4653,7 +4653,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4691,7 +4691,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -4729,7 +4729,7 @@
         <v>16</v>
       </c>
       <c r="L39" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4767,7 +4767,7 @@
         <v>16</v>
       </c>
       <c r="L40" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -4805,7 +4805,7 @@
         <v>16</v>
       </c>
       <c r="L41" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -4843,7 +4843,7 @@
         <v>16</v>
       </c>
       <c r="L42" s="1">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -4881,7 +4881,7 @@
         <v>16</v>
       </c>
       <c r="L43" s="1">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4919,7 +4919,7 @@
         <v>16</v>
       </c>
       <c r="L44" s="1">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -4957,7 +4957,7 @@
         <v>16</v>
       </c>
       <c r="L45" s="1">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4995,7 +4995,7 @@
         <v>16</v>
       </c>
       <c r="L46" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -5033,7 +5033,7 @@
         <v>16</v>
       </c>
       <c r="L47" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -5071,7 +5071,7 @@
         <v>16</v>
       </c>
       <c r="L48" s="1">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -5109,7 +5109,7 @@
         <v>16</v>
       </c>
       <c r="L49" s="1">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -5147,7 +5147,7 @@
         <v>16</v>
       </c>
       <c r="L50" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -5185,7 +5185,7 @@
         <v>16</v>
       </c>
       <c r="L51" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -5223,7 +5223,7 @@
         <v>16</v>
       </c>
       <c r="L52" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -5261,7 +5261,7 @@
         <v>16</v>
       </c>
       <c r="L53" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -5299,7 +5299,7 @@
         <v>16</v>
       </c>
       <c r="L54" s="1">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -5337,7 +5337,7 @@
         <v>16</v>
       </c>
       <c r="L55" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -5375,7 +5375,7 @@
         <v>16</v>
       </c>
       <c r="L56" s="1">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -5413,7 +5413,7 @@
         <v>16</v>
       </c>
       <c r="L57" s="1">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -5451,7 +5451,7 @@
         <v>16</v>
       </c>
       <c r="L58" s="1">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -5489,7 +5489,7 @@
         <v>16</v>
       </c>
       <c r="L59" s="1">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -5527,7 +5527,7 @@
         <v>16</v>
       </c>
       <c r="L60" s="1">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -5565,7 +5565,7 @@
         <v>16</v>
       </c>
       <c r="L61" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -5603,7 +5603,7 @@
         <v>16</v>
       </c>
       <c r="L62" s="1">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -5641,7 +5641,7 @@
         <v>16</v>
       </c>
       <c r="L63" s="1">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -5679,7 +5679,7 @@
         <v>16</v>
       </c>
       <c r="L64" s="1">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -5717,7 +5717,7 @@
         <v>16</v>
       </c>
       <c r="L65" s="1">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -5755,7 +5755,7 @@
         <v>16</v>
       </c>
       <c r="L66" s="1">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -5793,7 +5793,7 @@
         <v>16</v>
       </c>
       <c r="L67" s="1">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -5831,7 +5831,7 @@
         <v>16</v>
       </c>
       <c r="L68" s="1">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -5869,7 +5869,7 @@
         <v>16</v>
       </c>
       <c r="L69" s="1">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -5907,7 +5907,7 @@
         <v>16</v>
       </c>
       <c r="L70" s="1">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -5945,7 +5945,7 @@
         <v>16</v>
       </c>
       <c r="L71" s="1">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -5983,7 +5983,7 @@
         <v>16</v>
       </c>
       <c r="L72" s="1">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -6021,7 +6021,7 @@
         <v>16</v>
       </c>
       <c r="L73" s="1">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -6059,7 +6059,7 @@
         <v>16</v>
       </c>
       <c r="L74" s="1">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -6097,7 +6097,7 @@
         <v>16</v>
       </c>
       <c r="L75" s="1">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -6135,7 +6135,7 @@
         <v>16</v>
       </c>
       <c r="L76" s="1">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -6173,7 +6173,7 @@
         <v>16</v>
       </c>
       <c r="L77" s="1">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -6211,7 +6211,7 @@
         <v>16</v>
       </c>
       <c r="L78" s="1">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -6249,7 +6249,7 @@
         <v>16</v>
       </c>
       <c r="L79" s="1">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -6287,7 +6287,7 @@
         <v>16</v>
       </c>
       <c r="L80" s="1">
-        <v>2</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -6325,7 +6325,7 @@
         <v>16</v>
       </c>
       <c r="L81" s="1">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -6363,7 +6363,7 @@
         <v>16</v>
       </c>
       <c r="L82" s="1">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -6401,7 +6401,7 @@
         <v>16</v>
       </c>
       <c r="L83" s="1">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -6439,7 +6439,7 @@
         <v>16</v>
       </c>
       <c r="L84" s="1">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -6477,7 +6477,7 @@
         <v>16</v>
       </c>
       <c r="L85" s="1">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -6515,7 +6515,7 @@
         <v>16</v>
       </c>
       <c r="L86" s="1">
-        <v>2</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -6553,7 +6553,7 @@
         <v>16</v>
       </c>
       <c r="L87" s="1">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -6591,7 +6591,7 @@
         <v>16</v>
       </c>
       <c r="L88" s="1">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -6629,7 +6629,7 @@
         <v>16</v>
       </c>
       <c r="L89" s="1">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -6667,7 +6667,7 @@
         <v>16</v>
       </c>
       <c r="L90" s="1">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -6705,7 +6705,7 @@
         <v>16</v>
       </c>
       <c r="L91" s="1">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -6743,7 +6743,7 @@
         <v>16</v>
       </c>
       <c r="L92" s="1">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -6781,7 +6781,7 @@
         <v>16</v>
       </c>
       <c r="L93" s="1">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -6819,7 +6819,7 @@
         <v>16</v>
       </c>
       <c r="L94" s="1">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -6857,7 +6857,7 @@
         <v>16</v>
       </c>
       <c r="L95" s="1">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -6895,7 +6895,7 @@
         <v>16</v>
       </c>
       <c r="L96" s="1">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -6933,7 +6933,7 @@
         <v>16</v>
       </c>
       <c r="L97" s="1">
-        <v>2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -6971,7 +6971,7 @@
         <v>16</v>
       </c>
       <c r="L98" s="1">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -7009,7 +7009,7 @@
         <v>16</v>
       </c>
       <c r="L99" s="1">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -7047,7 +7047,7 @@
         <v>16</v>
       </c>
       <c r="L100" s="1">
-        <v>2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -7085,7 +7085,7 @@
         <v>16</v>
       </c>
       <c r="L101" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -7123,7 +7123,7 @@
         <v>16</v>
       </c>
       <c r="L102" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -7161,7 +7161,7 @@
         <v>16</v>
       </c>
       <c r="L103" s="1">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -7199,7 +7199,7 @@
         <v>16</v>
       </c>
       <c r="L104" s="1">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -7237,7 +7237,7 @@
         <v>16</v>
       </c>
       <c r="L105" s="1">
-        <v>2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -7275,7 +7275,7 @@
         <v>16</v>
       </c>
       <c r="L106" s="1">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -7313,7 +7313,7 @@
         <v>16</v>
       </c>
       <c r="L107" s="1">
-        <v>2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -7351,7 +7351,7 @@
         <v>16</v>
       </c>
       <c r="L108" s="1">
-        <v>2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -7389,7 +7389,7 @@
         <v>16</v>
       </c>
       <c r="L109" s="1">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -7427,7 +7427,7 @@
         <v>16</v>
       </c>
       <c r="L110" s="1">
-        <v>2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -7465,7 +7465,7 @@
         <v>16</v>
       </c>
       <c r="L111" s="1">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -7503,7 +7503,7 @@
         <v>16</v>
       </c>
       <c r="L112" s="1">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -7541,7 +7541,7 @@
         <v>16</v>
       </c>
       <c r="L113" s="1">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -7579,7 +7579,7 @@
         <v>16</v>
       </c>
       <c r="L114" s="1">
-        <v>2</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -7617,7 +7617,7 @@
         <v>16</v>
       </c>
       <c r="L115" s="1">
-        <v>2</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -7655,7 +7655,7 @@
         <v>16</v>
       </c>
       <c r="L116" s="1">
-        <v>2</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -7693,7 +7693,7 @@
         <v>16</v>
       </c>
       <c r="L117" s="1">
-        <v>2</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -7731,7 +7731,7 @@
         <v>16</v>
       </c>
       <c r="L118" s="1">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -7769,7 +7769,7 @@
         <v>16</v>
       </c>
       <c r="L119" s="1">
-        <v>2</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -7807,7 +7807,7 @@
         <v>16</v>
       </c>
       <c r="L120" s="1">
-        <v>2</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -7845,7 +7845,7 @@
         <v>16</v>
       </c>
       <c r="L121" s="1">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -7883,7 +7883,7 @@
         <v>16</v>
       </c>
       <c r="L122" s="1">
-        <v>3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -7921,7 +7921,7 @@
         <v>16</v>
       </c>
       <c r="L123" s="1">
-        <v>3</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -7959,7 +7959,7 @@
         <v>16</v>
       </c>
       <c r="L124" s="1">
-        <v>3</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -7997,7 +7997,7 @@
         <v>16</v>
       </c>
       <c r="L125" s="1">
-        <v>3</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -8035,7 +8035,7 @@
         <v>16</v>
       </c>
       <c r="L126" s="1">
-        <v>3</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -8073,7 +8073,7 @@
         <v>16</v>
       </c>
       <c r="L127" s="1">
-        <v>3</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -8111,7 +8111,7 @@
         <v>16</v>
       </c>
       <c r="L128" s="1">
-        <v>3</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -8149,7 +8149,7 @@
         <v>16</v>
       </c>
       <c r="L129" s="1">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -8187,7 +8187,7 @@
         <v>16</v>
       </c>
       <c r="L130" s="1">
-        <v>3</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -8225,7 +8225,7 @@
         <v>16</v>
       </c>
       <c r="L131" s="1">
-        <v>3</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -8263,7 +8263,7 @@
         <v>16</v>
       </c>
       <c r="L132" s="1">
-        <v>3</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -8301,7 +8301,7 @@
         <v>16</v>
       </c>
       <c r="L133" s="1">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -8339,7 +8339,7 @@
         <v>16</v>
       </c>
       <c r="L134" s="1">
-        <v>3</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -8377,7 +8377,7 @@
         <v>16</v>
       </c>
       <c r="L135" s="1">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -8415,7 +8415,7 @@
         <v>16</v>
       </c>
       <c r="L136" s="1">
-        <v>3</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -8453,7 +8453,7 @@
         <v>16</v>
       </c>
       <c r="L137" s="1">
-        <v>3</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -8491,7 +8491,7 @@
         <v>16</v>
       </c>
       <c r="L138" s="1">
-        <v>3</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -8529,7 +8529,7 @@
         <v>16</v>
       </c>
       <c r="L139" s="1">
-        <v>3</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -8567,7 +8567,7 @@
         <v>16</v>
       </c>
       <c r="L140" s="1">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -8605,7 +8605,7 @@
         <v>16</v>
       </c>
       <c r="L141" s="1">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -8643,7 +8643,7 @@
         <v>16</v>
       </c>
       <c r="L142" s="1">
-        <v>3</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -8681,7 +8681,7 @@
         <v>16</v>
       </c>
       <c r="L143" s="1">
-        <v>3</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -8719,7 +8719,7 @@
         <v>16</v>
       </c>
       <c r="L144" s="1">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -8757,7 +8757,7 @@
         <v>16</v>
       </c>
       <c r="L145" s="1">
-        <v>3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -8795,7 +8795,7 @@
         <v>16</v>
       </c>
       <c r="L146" s="1">
-        <v>3</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -8833,7 +8833,7 @@
         <v>16</v>
       </c>
       <c r="L147" s="1">
-        <v>3</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -8871,7 +8871,7 @@
         <v>16</v>
       </c>
       <c r="L148" s="1">
-        <v>3</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -8909,7 +8909,7 @@
         <v>16</v>
       </c>
       <c r="L149" s="1">
-        <v>3</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -8947,7 +8947,7 @@
         <v>16</v>
       </c>
       <c r="L150" s="1">
-        <v>3</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -8985,7 +8985,7 @@
         <v>16</v>
       </c>
       <c r="L151" s="1">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -9023,7 +9023,7 @@
         <v>16</v>
       </c>
       <c r="L152" s="1">
-        <v>3</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -9061,7 +9061,7 @@
         <v>16</v>
       </c>
       <c r="L153" s="1">
-        <v>3</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -9099,7 +9099,7 @@
         <v>16</v>
       </c>
       <c r="L154" s="1">
-        <v>3</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -9137,7 +9137,7 @@
         <v>16</v>
       </c>
       <c r="L155" s="1">
-        <v>3</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -9175,7 +9175,7 @@
         <v>16</v>
       </c>
       <c r="L156" s="1">
-        <v>3</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -9213,7 +9213,7 @@
         <v>16</v>
       </c>
       <c r="L157" s="1">
-        <v>3</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -9251,7 +9251,7 @@
         <v>16</v>
       </c>
       <c r="L158" s="1">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -9289,7 +9289,7 @@
         <v>16</v>
       </c>
       <c r="L159" s="1">
-        <v>3</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -9327,7 +9327,7 @@
         <v>16</v>
       </c>
       <c r="L160" s="1">
-        <v>3</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -9365,7 +9365,7 @@
         <v>16</v>
       </c>
       <c r="L161" s="1">
-        <v>3</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -9403,7 +9403,7 @@
         <v>16</v>
       </c>
       <c r="L162" s="1">
-        <v>4</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -9441,7 +9441,7 @@
         <v>16</v>
       </c>
       <c r="L163" s="1">
-        <v>4</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -9479,7 +9479,7 @@
         <v>16</v>
       </c>
       <c r="L164" s="1">
-        <v>4</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -9517,7 +9517,7 @@
         <v>16</v>
       </c>
       <c r="L165" s="1">
-        <v>4</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -9555,7 +9555,7 @@
         <v>16</v>
       </c>
       <c r="L166" s="1">
-        <v>4</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -9593,7 +9593,7 @@
         <v>16</v>
       </c>
       <c r="L167" s="1">
-        <v>4</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -9631,7 +9631,7 @@
         <v>16</v>
       </c>
       <c r="L168" s="1">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -9669,7 +9669,7 @@
         <v>16</v>
       </c>
       <c r="L169" s="1">
-        <v>4</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -9707,7 +9707,7 @@
         <v>16</v>
       </c>
       <c r="L170" s="1">
-        <v>4</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -9745,7 +9745,7 @@
         <v>16</v>
       </c>
       <c r="L171" s="1">
-        <v>4</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -9783,7 +9783,7 @@
         <v>16</v>
       </c>
       <c r="L172" s="1">
-        <v>4</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -9821,7 +9821,7 @@
         <v>16</v>
       </c>
       <c r="L173" s="1">
-        <v>4</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -9859,7 +9859,7 @@
         <v>16</v>
       </c>
       <c r="L174" s="1">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -9897,7 +9897,7 @@
         <v>16</v>
       </c>
       <c r="L175" s="1">
-        <v>4</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -9935,7 +9935,7 @@
         <v>16</v>
       </c>
       <c r="L176" s="1">
-        <v>4</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -9973,7 +9973,7 @@
         <v>16</v>
       </c>
       <c r="L177" s="1">
-        <v>4</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -10011,7 +10011,7 @@
         <v>16</v>
       </c>
       <c r="L178" s="1">
-        <v>4</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -10049,7 +10049,7 @@
         <v>16</v>
       </c>
       <c r="L179" s="1">
-        <v>4</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -10087,7 +10087,7 @@
         <v>16</v>
       </c>
       <c r="L180" s="1">
-        <v>4</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -10125,7 +10125,7 @@
         <v>16</v>
       </c>
       <c r="L181" s="1">
-        <v>4</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -10163,7 +10163,7 @@
         <v>16</v>
       </c>
       <c r="L182" s="1">
-        <v>4</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -10201,7 +10201,7 @@
         <v>16</v>
       </c>
       <c r="L183" s="1">
-        <v>4</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -10239,7 +10239,7 @@
         <v>16</v>
       </c>
       <c r="L184" s="1">
-        <v>4</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -10277,7 +10277,7 @@
         <v>16</v>
       </c>
       <c r="L185" s="1">
-        <v>4</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -10315,7 +10315,7 @@
         <v>16</v>
       </c>
       <c r="L186" s="1">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -10353,7 +10353,7 @@
         <v>16</v>
       </c>
       <c r="L187" s="1">
-        <v>4</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -10391,7 +10391,7 @@
         <v>16</v>
       </c>
       <c r="L188" s="1">
-        <v>4</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -10429,7 +10429,7 @@
         <v>16</v>
       </c>
       <c r="L189" s="1">
-        <v>4</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -10467,7 +10467,7 @@
         <v>16</v>
       </c>
       <c r="L190" s="1">
-        <v>4</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -10505,7 +10505,7 @@
         <v>16</v>
       </c>
       <c r="L191" s="1">
-        <v>4</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -10543,7 +10543,7 @@
         <v>16</v>
       </c>
       <c r="L192" s="1">
-        <v>4</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -10581,7 +10581,7 @@
         <v>16</v>
       </c>
       <c r="L193" s="1">
-        <v>4</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -10619,7 +10619,7 @@
         <v>16</v>
       </c>
       <c r="L194" s="1">
-        <v>4</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -10657,7 +10657,7 @@
         <v>16</v>
       </c>
       <c r="L195" s="1">
-        <v>4</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -10695,7 +10695,7 @@
         <v>16</v>
       </c>
       <c r="L196" s="1">
-        <v>4</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -10733,7 +10733,7 @@
         <v>16</v>
       </c>
       <c r="L197" s="1">
-        <v>4</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -10771,7 +10771,7 @@
         <v>16</v>
       </c>
       <c r="L198" s="1">
-        <v>4</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -10809,7 +10809,7 @@
         <v>16</v>
       </c>
       <c r="L199" s="1">
-        <v>4</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -10847,7 +10847,7 @@
         <v>16</v>
       </c>
       <c r="L200" s="1">
-        <v>4</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -10885,7 +10885,7 @@
         <v>16</v>
       </c>
       <c r="L201" s="1">
-        <v>4</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -10923,7 +10923,7 @@
         <v>16</v>
       </c>
       <c r="L202" s="1">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -10961,7 +10961,7 @@
         <v>16</v>
       </c>
       <c r="L203" s="1">
-        <v>4</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -10999,7 +10999,7 @@
         <v>16</v>
       </c>
       <c r="L204" s="1">
-        <v>4</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -11037,7 +11037,7 @@
         <v>16</v>
       </c>
       <c r="L205" s="1">
-        <v>4</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -11075,7 +11075,7 @@
         <v>16</v>
       </c>
       <c r="L206" s="1">
-        <v>4</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -11113,7 +11113,7 @@
         <v>16</v>
       </c>
       <c r="L207" s="1">
-        <v>4</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -11151,7 +11151,7 @@
         <v>16</v>
       </c>
       <c r="L208" s="1">
-        <v>4</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -11189,7 +11189,7 @@
         <v>16</v>
       </c>
       <c r="L209" s="1">
-        <v>4</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -11227,7 +11227,7 @@
         <v>16</v>
       </c>
       <c r="L210" s="1">
-        <v>4</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -11265,7 +11265,7 @@
         <v>16</v>
       </c>
       <c r="L211" s="1">
-        <v>4</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -11303,7 +11303,7 @@
         <v>16</v>
       </c>
       <c r="L212" s="1">
-        <v>4</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -11341,7 +11341,7 @@
         <v>16</v>
       </c>
       <c r="L213" s="1">
-        <v>4</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -11379,7 +11379,7 @@
         <v>16</v>
       </c>
       <c r="L214" s="1">
-        <v>4</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -11417,7 +11417,7 @@
         <v>16</v>
       </c>
       <c r="L215" s="1">
-        <v>4</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -11455,7 +11455,7 @@
         <v>16</v>
       </c>
       <c r="L216" s="1">
-        <v>4</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -11493,7 +11493,7 @@
         <v>16</v>
       </c>
       <c r="L217" s="1">
-        <v>4</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -11531,7 +11531,7 @@
         <v>16</v>
       </c>
       <c r="L218" s="1">
-        <v>4</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -11569,7 +11569,7 @@
         <v>16</v>
       </c>
       <c r="L219" s="1">
-        <v>4</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -11607,7 +11607,7 @@
         <v>16</v>
       </c>
       <c r="L220" s="1">
-        <v>4</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -11645,7 +11645,7 @@
         <v>16</v>
       </c>
       <c r="L221" s="1">
-        <v>4</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -11683,7 +11683,7 @@
         <v>16</v>
       </c>
       <c r="L222" s="1">
-        <v>5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -11721,7 +11721,7 @@
         <v>16</v>
       </c>
       <c r="L223" s="1">
-        <v>5</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -11759,7 +11759,7 @@
         <v>16</v>
       </c>
       <c r="L224" s="1">
-        <v>5</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -11797,7 +11797,7 @@
         <v>16</v>
       </c>
       <c r="L225" s="1">
-        <v>5</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -11835,7 +11835,7 @@
         <v>16</v>
       </c>
       <c r="L226" s="1">
-        <v>5</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -11873,7 +11873,7 @@
         <v>16</v>
       </c>
       <c r="L227" s="1">
-        <v>5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -11911,7 +11911,7 @@
         <v>16</v>
       </c>
       <c r="L228" s="1">
-        <v>5</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -11949,7 +11949,7 @@
         <v>16</v>
       </c>
       <c r="L229" s="1">
-        <v>5</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -11987,7 +11987,7 @@
         <v>16</v>
       </c>
       <c r="L230" s="1">
-        <v>5</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -12025,7 +12025,7 @@
         <v>16</v>
       </c>
       <c r="L231" s="1">
-        <v>5</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -12063,7 +12063,7 @@
         <v>16</v>
       </c>
       <c r="L232" s="1">
-        <v>5</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -12101,7 +12101,7 @@
         <v>16</v>
       </c>
       <c r="L233" s="1">
-        <v>5</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -12139,7 +12139,7 @@
         <v>16</v>
       </c>
       <c r="L234" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -12177,7 +12177,7 @@
         <v>16</v>
       </c>
       <c r="L235" s="1">
-        <v>5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -12215,7 +12215,7 @@
         <v>16</v>
       </c>
       <c r="L236" s="1">
-        <v>5</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -12253,7 +12253,7 @@
         <v>16</v>
       </c>
       <c r="L237" s="1">
-        <v>5</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -12291,7 +12291,7 @@
         <v>16</v>
       </c>
       <c r="L238" s="1">
-        <v>5</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -12329,7 +12329,7 @@
         <v>16</v>
       </c>
       <c r="L239" s="1">
-        <v>5</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -12367,7 +12367,7 @@
         <v>16</v>
       </c>
       <c r="L240" s="1">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -12405,7 +12405,7 @@
         <v>16</v>
       </c>
       <c r="L241" s="1">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -12443,7 +12443,7 @@
         <v>16</v>
       </c>
       <c r="L242" s="1">
-        <v>5</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -12481,7 +12481,7 @@
         <v>16</v>
       </c>
       <c r="L243" s="1">
-        <v>5</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -12519,7 +12519,7 @@
         <v>16</v>
       </c>
       <c r="L244" s="1">
-        <v>5</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -12557,7 +12557,7 @@
         <v>16</v>
       </c>
       <c r="L245" s="1">
-        <v>5</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -12595,7 +12595,7 @@
         <v>16</v>
       </c>
       <c r="L246" s="1">
-        <v>5</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -12633,7 +12633,7 @@
         <v>16</v>
       </c>
       <c r="L247" s="1">
-        <v>5</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -12671,7 +12671,7 @@
         <v>16</v>
       </c>
       <c r="L248" s="1">
-        <v>5</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -12709,7 +12709,7 @@
         <v>16</v>
       </c>
       <c r="L249" s="1">
-        <v>5</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -12747,7 +12747,7 @@
         <v>16</v>
       </c>
       <c r="L250" s="1">
-        <v>5</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -12785,7 +12785,7 @@
         <v>16</v>
       </c>
       <c r="L251" s="1">
-        <v>5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -12823,7 +12823,7 @@
         <v>16</v>
       </c>
       <c r="L252" s="1">
-        <v>5</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -12861,7 +12861,7 @@
         <v>16</v>
       </c>
       <c r="L253" s="1">
-        <v>5</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -12899,7 +12899,7 @@
         <v>16</v>
       </c>
       <c r="L254" s="1">
-        <v>5</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -12937,7 +12937,7 @@
         <v>16</v>
       </c>
       <c r="L255" s="1">
-        <v>5</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -12975,7 +12975,7 @@
         <v>517</v>
       </c>
       <c r="L256" s="1">
-        <v>5</v>
+        <v>306</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -13013,7 +13013,7 @@
         <v>517</v>
       </c>
       <c r="L257" s="1">
-        <v>5</v>
+        <v>307</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -13051,7 +13051,7 @@
         <v>517</v>
       </c>
       <c r="L258" s="1">
-        <v>1</v>
+        <v>308</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -13089,7 +13089,7 @@
         <v>517</v>
       </c>
       <c r="L259" s="1">
-        <v>1</v>
+        <v>309</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -13127,7 +13127,7 @@
         <v>513</v>
       </c>
       <c r="L260" s="1">
-        <v>1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -13165,7 +13165,7 @@
         <v>513</v>
       </c>
       <c r="L261" s="1">
-        <v>2</v>
+        <v>256</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -13203,7 +13203,7 @@
         <v>513</v>
       </c>
       <c r="L262" s="1">
-        <v>3</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/personal.xlsx
+++ b/Datos/personal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{655230A9-849B-41F6-B953-B4028BDFA4E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B05779-BC48-4BFD-B889-E4188A992760}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="787">
   <si>
     <t>idempleado</t>
   </si>
@@ -1322,9 +1322,6 @@
   </si>
   <si>
     <t>Carballo</t>
-  </si>
-  <si>
-    <t>Fern ndez</t>
   </si>
   <si>
     <t>Nava</t>
@@ -3232,8 +3229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="L263" sqref="L263"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3302,7 +3299,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -3314,7 +3311,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J2" s="1">
         <v>2</v>
@@ -3340,7 +3337,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -3352,7 +3349,7 @@
         <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -3378,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -3390,7 +3387,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
@@ -3416,7 +3413,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>23</v>
@@ -3428,7 +3425,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J5" s="1">
         <v>2</v>
@@ -3454,7 +3451,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>23</v>
@@ -3466,7 +3463,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
@@ -3492,7 +3489,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
@@ -3504,7 +3501,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
@@ -3530,7 +3527,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>31</v>
@@ -3542,7 +3539,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J8" s="1">
         <v>2</v>
@@ -3580,7 +3577,7 @@
         <v>36</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J9" s="1">
         <v>2</v>
@@ -3606,7 +3603,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>37</v>
@@ -3618,7 +3615,7 @@
         <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J10" s="1">
         <v>2</v>
@@ -3644,7 +3641,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>40</v>
@@ -3656,7 +3653,7 @@
         <v>42</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J11" s="1">
         <v>2</v>
@@ -3682,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>43</v>
@@ -3694,7 +3691,7 @@
         <v>45</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
@@ -3720,7 +3717,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>46</v>
@@ -3732,7 +3729,7 @@
         <v>48</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
@@ -3758,7 +3755,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>49</v>
@@ -3770,7 +3767,7 @@
         <v>51</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J14" s="1">
         <v>2</v>
@@ -3796,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>52</v>
@@ -3808,7 +3805,7 @@
         <v>54</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
@@ -3834,7 +3831,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>55</v>
@@ -3846,7 +3843,7 @@
         <v>57</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
@@ -3872,7 +3869,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>58</v>
@@ -3884,7 +3881,7 @@
         <v>60</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J17" s="1">
         <v>2</v>
@@ -3910,7 +3907,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>61</v>
@@ -3922,7 +3919,7 @@
         <v>63</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J18" s="1">
         <v>2</v>
@@ -3948,7 +3945,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>64</v>
@@ -3960,7 +3957,7 @@
         <v>66</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J19" s="1">
         <v>2</v>
@@ -3998,7 +3995,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J20" s="1">
         <v>2</v>
@@ -4036,7 +4033,7 @@
         <v>69</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J21" s="1">
         <v>2</v>
@@ -4062,7 +4059,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>70</v>
@@ -4074,7 +4071,7 @@
         <v>132</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
@@ -4100,7 +4097,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>72</v>
@@ -4112,7 +4109,7 @@
         <v>63</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -4138,7 +4135,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>73</v>
@@ -4150,7 +4147,7 @@
         <v>75</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J24" s="1">
         <v>2</v>
@@ -4176,7 +4173,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>76</v>
@@ -4188,7 +4185,7 @@
         <v>78</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J25" s="1">
         <v>2</v>
@@ -4214,7 +4211,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>79</v>
@@ -4226,7 +4223,7 @@
         <v>62</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J26" s="1">
         <v>2</v>
@@ -4252,7 +4249,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>81</v>
@@ -4264,7 +4261,7 @@
         <v>83</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J27" s="1">
         <v>2</v>
@@ -4290,7 +4287,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>84</v>
@@ -4302,7 +4299,7 @@
         <v>86</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J28" s="1">
         <v>2</v>
@@ -4328,7 +4325,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>84</v>
@@ -4340,7 +4337,7 @@
         <v>88</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J29" s="1">
         <v>2</v>
@@ -4366,7 +4363,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>84</v>
@@ -4378,7 +4375,7 @@
         <v>90</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J30" s="1">
         <v>2</v>
@@ -4404,7 +4401,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>84</v>
@@ -4416,7 +4413,7 @@
         <v>91</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J31" s="1">
         <v>2</v>
@@ -4454,7 +4451,7 @@
         <v>93</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J32" s="1">
         <v>2</v>
@@ -4492,7 +4489,7 @@
         <v>96</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J33" s="1">
         <v>2</v>
@@ -4518,7 +4515,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>97</v>
@@ -4530,7 +4527,7 @@
         <v>99</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J34" s="1">
         <v>2</v>
@@ -4556,7 +4553,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>100</v>
@@ -4568,7 +4565,7 @@
         <v>102</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J35" s="1">
         <v>2</v>
@@ -4606,7 +4603,7 @@
         <v>105</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J36" s="1">
         <v>2</v>
@@ -4632,7 +4629,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>106</v>
@@ -4644,7 +4641,7 @@
         <v>107</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J37" s="1">
         <v>2</v>
@@ -4682,7 +4679,7 @@
         <v>24</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J38" s="1">
         <v>5</v>
@@ -4708,7 +4705,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>110</v>
@@ -4720,7 +4717,7 @@
         <v>112</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J39" s="1">
         <v>5</v>
@@ -4746,7 +4743,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>113</v>
@@ -4758,7 +4755,7 @@
         <v>63</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J40" s="1">
         <v>5</v>
@@ -4796,7 +4793,7 @@
         <v>57</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J41" s="1">
         <v>5</v>
@@ -4834,7 +4831,7 @@
         <v>119</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J42" s="1">
         <v>5</v>
@@ -4860,7 +4857,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>120</v>
@@ -4872,7 +4869,7 @@
         <v>95</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J43" s="1">
         <v>5</v>
@@ -4910,7 +4907,7 @@
         <v>122</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J44" s="1">
         <v>5</v>
@@ -4948,7 +4945,7 @@
         <v>25</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J45" s="1">
         <v>5</v>
@@ -4986,7 +4983,7 @@
         <v>127</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J46" s="1">
         <v>5</v>
@@ -5024,7 +5021,7 @@
         <v>130</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J47" s="1">
         <v>5</v>
@@ -5062,7 +5059,7 @@
         <v>133</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J48" s="1">
         <v>5</v>
@@ -5100,7 +5097,7 @@
         <v>14</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J49" s="1">
         <v>5</v>
@@ -5126,7 +5123,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>136</v>
@@ -5138,7 +5135,7 @@
         <v>25</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J50" s="1">
         <v>5</v>
@@ -5176,7 +5173,7 @@
         <v>140</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J51" s="1">
         <v>5</v>
@@ -5214,7 +5211,7 @@
         <v>142</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J52" s="1">
         <v>5</v>
@@ -5252,7 +5249,7 @@
         <v>143</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J53" s="1">
         <v>5</v>
@@ -5287,10 +5284,10 @@
         <v>75</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J54" s="1">
         <v>5</v>
@@ -5316,7 +5313,7 @@
         <v>11</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>145</v>
@@ -5328,7 +5325,7 @@
         <v>147</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J55" s="1">
         <v>5</v>
@@ -5366,7 +5363,7 @@
         <v>150</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J56" s="1">
         <v>5</v>
@@ -5404,7 +5401,7 @@
         <v>152</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J57" s="1">
         <v>5</v>
@@ -5442,7 +5439,7 @@
         <v>155</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J58" s="1">
         <v>7</v>
@@ -5480,7 +5477,7 @@
         <v>157</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J59" s="1">
         <v>7</v>
@@ -5518,7 +5515,7 @@
         <v>160</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J60" s="1">
         <v>7</v>
@@ -5556,7 +5553,7 @@
         <v>163</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J61" s="1">
         <v>7</v>
@@ -5594,7 +5591,7 @@
         <v>166</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J62" s="1">
         <v>7</v>
@@ -5632,7 +5629,7 @@
         <v>169</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J63" s="1">
         <v>7</v>
@@ -5670,7 +5667,7 @@
         <v>171</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J64" s="1">
         <v>7</v>
@@ -5708,7 +5705,7 @@
         <v>173</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J65" s="1">
         <v>7</v>
@@ -5746,7 +5743,7 @@
         <v>175</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J66" s="1">
         <v>7</v>
@@ -5784,7 +5781,7 @@
         <v>178</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J67" s="1">
         <v>7</v>
@@ -5822,7 +5819,7 @@
         <v>181</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J68" s="1">
         <v>7</v>
@@ -5860,7 +5857,7 @@
         <v>183</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J69" s="1">
         <v>7</v>
@@ -5898,7 +5895,7 @@
         <v>185</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J70" s="1">
         <v>7</v>
@@ -5936,7 +5933,7 @@
         <v>155</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J71" s="1">
         <v>7</v>
@@ -5974,7 +5971,7 @@
         <v>189</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J72" s="1">
         <v>7</v>
@@ -6012,7 +6009,7 @@
         <v>117</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J73" s="1">
         <v>7</v>
@@ -6050,7 +6047,7 @@
         <v>194</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J74" s="1">
         <v>7</v>
@@ -6088,7 +6085,7 @@
         <v>44</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J75" s="1">
         <v>7</v>
@@ -6114,7 +6111,7 @@
         <v>11</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>197</v>
@@ -6126,7 +6123,7 @@
         <v>198</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J76" s="1">
         <v>7</v>
@@ -6164,7 +6161,7 @@
         <v>200</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J77" s="1">
         <v>7</v>
@@ -6202,7 +6199,7 @@
         <v>203</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J78" s="1">
         <v>7</v>
@@ -6240,7 +6237,7 @@
         <v>27</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J79" s="1">
         <v>7</v>
@@ -6278,7 +6275,7 @@
         <v>206</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J80" s="1">
         <v>7</v>
@@ -6316,7 +6313,7 @@
         <v>63</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J81" s="1">
         <v>7</v>
@@ -6354,7 +6351,7 @@
         <v>209</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J82" s="1">
         <v>7</v>
@@ -6392,7 +6389,7 @@
         <v>211</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J83" s="1">
         <v>7</v>
@@ -6430,7 +6427,7 @@
         <v>213</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J84" s="1">
         <v>7</v>
@@ -6468,7 +6465,7 @@
         <v>216</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J85" s="1">
         <v>7</v>
@@ -6494,7 +6491,7 @@
         <v>11</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>217</v>
@@ -6506,7 +6503,7 @@
         <v>218</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J86" s="1">
         <v>7</v>
@@ -6532,7 +6529,7 @@
         <v>11</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>219</v>
@@ -6544,7 +6541,7 @@
         <v>220</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J87" s="1">
         <v>7</v>
@@ -6570,7 +6567,7 @@
         <v>11</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>221</v>
@@ -6579,10 +6576,10 @@
         <v>222</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J88" s="1">
         <v>7</v>
@@ -6620,7 +6617,7 @@
         <v>63</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J89" s="1">
         <v>7</v>
@@ -6658,7 +6655,7 @@
         <v>227</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J90" s="1">
         <v>7</v>
@@ -6696,7 +6693,7 @@
         <v>50</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J91" s="1">
         <v>7</v>
@@ -6734,7 +6731,7 @@
         <v>27</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J92" s="1">
         <v>7</v>
@@ -6772,7 +6769,7 @@
         <v>233</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J93" s="1">
         <v>7</v>
@@ -6810,7 +6807,7 @@
         <v>129</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J94" s="1">
         <v>7</v>
@@ -6848,7 +6845,7 @@
         <v>236</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J95" s="1">
         <v>7</v>
@@ -6874,7 +6871,7 @@
         <v>11</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>237</v>
@@ -6886,7 +6883,7 @@
         <v>239</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J96" s="1">
         <v>7</v>
@@ -6912,7 +6909,7 @@
         <v>11</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>240</v>
@@ -6924,7 +6921,7 @@
         <v>242</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J97" s="1">
         <v>7</v>
@@ -6950,7 +6947,7 @@
         <v>11</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>243</v>
@@ -6962,7 +6959,7 @@
         <v>244</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J98" s="1">
         <v>7</v>
@@ -6988,7 +6985,7 @@
         <v>11</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>245</v>
@@ -7000,7 +6997,7 @@
         <v>14</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J99" s="1">
         <v>7</v>
@@ -7026,7 +7023,7 @@
         <v>11</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>247</v>
@@ -7038,7 +7035,7 @@
         <v>248</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J100" s="1">
         <v>7</v>
@@ -7076,7 +7073,7 @@
         <v>155</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J101" s="1">
         <v>7</v>
@@ -7114,7 +7111,7 @@
         <v>205</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J102" s="1">
         <v>7</v>
@@ -7140,7 +7137,7 @@
         <v>11</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>252</v>
@@ -7152,7 +7149,7 @@
         <v>47</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J103" s="1">
         <v>7</v>
@@ -7190,7 +7187,7 @@
         <v>255</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J104" s="1">
         <v>7</v>
@@ -7228,7 +7225,7 @@
         <v>257</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J105" s="1">
         <v>7</v>
@@ -7266,7 +7263,7 @@
         <v>260</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J106" s="1">
         <v>7</v>
@@ -7304,7 +7301,7 @@
         <v>262</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J107" s="1">
         <v>7</v>
@@ -7342,7 +7339,7 @@
         <v>90</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J108" s="1">
         <v>7</v>
@@ -7374,13 +7371,13 @@
         <v>265</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>266</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J109" s="1">
         <v>6</v>
@@ -7406,7 +7403,7 @@
         <v>11</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>267</v>
@@ -7418,7 +7415,7 @@
         <v>48</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J110" s="1">
         <v>6</v>
@@ -7444,7 +7441,7 @@
         <v>11</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>269</v>
@@ -7456,7 +7453,7 @@
         <v>270</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J111" s="1">
         <v>6</v>
@@ -7482,7 +7479,7 @@
         <v>11</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>271</v>
@@ -7494,7 +7491,7 @@
         <v>272</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J112" s="1">
         <v>6</v>
@@ -7520,7 +7517,7 @@
         <v>11</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>273</v>
@@ -7532,7 +7529,7 @@
         <v>210</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J113" s="1">
         <v>6</v>
@@ -7558,7 +7555,7 @@
         <v>11</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>274</v>
@@ -7570,7 +7567,7 @@
         <v>48</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J114" s="1">
         <v>6</v>
@@ -7596,7 +7593,7 @@
         <v>11</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>276</v>
@@ -7608,7 +7605,7 @@
         <v>278</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J115" s="1">
         <v>6</v>
@@ -7634,7 +7631,7 @@
         <v>11</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>279</v>
@@ -7646,7 +7643,7 @@
         <v>281</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J116" s="1">
         <v>6</v>
@@ -7684,7 +7681,7 @@
         <v>284</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J117" s="1">
         <v>6</v>
@@ -7722,7 +7719,7 @@
         <v>286</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J118" s="1">
         <v>6</v>
@@ -7760,7 +7757,7 @@
         <v>288</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J119" s="1">
         <v>6</v>
@@ -7798,7 +7795,7 @@
         <v>291</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J120" s="1">
         <v>6</v>
@@ -7836,7 +7833,7 @@
         <v>91</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J121" s="1">
         <v>6</v>
@@ -7874,7 +7871,7 @@
         <v>133</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J122" s="1">
         <v>6</v>
@@ -7912,7 +7909,7 @@
         <v>296</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J123" s="1">
         <v>6</v>
@@ -7950,7 +7947,7 @@
         <v>298</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J124" s="1">
         <v>6</v>
@@ -7988,7 +7985,7 @@
         <v>22</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J125" s="1">
         <v>6</v>
@@ -8026,7 +8023,7 @@
         <v>124</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J126" s="1">
         <v>6</v>
@@ -8052,19 +8049,19 @@
         <v>11</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>300</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J127" s="1">
         <v>6</v>
@@ -8090,7 +8087,7 @@
         <v>11</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>301</v>
@@ -8102,7 +8099,7 @@
         <v>303</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J128" s="1">
         <v>6</v>
@@ -8140,7 +8137,7 @@
         <v>306</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J129" s="1">
         <v>6</v>
@@ -8178,7 +8175,7 @@
         <v>309</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J130" s="1">
         <v>6</v>
@@ -8204,7 +8201,7 @@
         <v>11</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>310</v>
@@ -8216,7 +8213,7 @@
         <v>311</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J131" s="1">
         <v>6</v>
@@ -8254,7 +8251,7 @@
         <v>98</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J132" s="1">
         <v>6</v>
@@ -8292,7 +8289,7 @@
         <v>316</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J133" s="1">
         <v>6</v>
@@ -8330,7 +8327,7 @@
         <v>319</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J134" s="1">
         <v>6</v>
@@ -8368,7 +8365,7 @@
         <v>183</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J135" s="1">
         <v>6</v>
@@ -8406,7 +8403,7 @@
         <v>107</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J136" s="1">
         <v>6</v>
@@ -8444,7 +8441,7 @@
         <v>326</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J137" s="1">
         <v>6</v>
@@ -8482,7 +8479,7 @@
         <v>177</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J138" s="1">
         <v>6</v>
@@ -8508,7 +8505,7 @@
         <v>11</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>329</v>
@@ -8520,7 +8517,7 @@
         <v>171</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J139" s="1">
         <v>6</v>
@@ -8546,7 +8543,7 @@
         <v>11</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>329</v>
@@ -8558,7 +8555,7 @@
         <v>27</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J140" s="1">
         <v>6</v>
@@ -8584,7 +8581,7 @@
         <v>11</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>331</v>
@@ -8593,10 +8590,10 @@
         <v>168</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J141" s="1">
         <v>6</v>
@@ -8634,7 +8631,7 @@
         <v>69</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J142" s="1">
         <v>6</v>
@@ -8672,7 +8669,7 @@
         <v>333</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J143" s="1">
         <v>6</v>
@@ -8710,7 +8707,7 @@
         <v>336</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J144" s="1">
         <v>6</v>
@@ -8748,7 +8745,7 @@
         <v>338</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J145" s="1">
         <v>6</v>
@@ -8786,7 +8783,7 @@
         <v>340</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J146" s="1">
         <v>6</v>
@@ -8824,7 +8821,7 @@
         <v>303</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J147" s="1">
         <v>6</v>
@@ -8862,7 +8859,7 @@
         <v>343</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J148" s="1">
         <v>6</v>
@@ -8900,7 +8897,7 @@
         <v>346</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J149" s="1">
         <v>6</v>
@@ -8938,7 +8935,7 @@
         <v>117</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J150" s="1">
         <v>6</v>
@@ -8976,7 +8973,7 @@
         <v>129</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J151" s="1">
         <v>6</v>
@@ -9014,7 +9011,7 @@
         <v>350</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J152" s="1">
         <v>6</v>
@@ -9052,7 +9049,7 @@
         <v>352</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J153" s="1">
         <v>6</v>
@@ -9090,7 +9087,7 @@
         <v>63</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J154" s="1">
         <v>6</v>
@@ -9128,7 +9125,7 @@
         <v>14</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J155" s="1">
         <v>6</v>
@@ -9166,7 +9163,7 @@
         <v>356</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J156" s="1">
         <v>6</v>
@@ -9192,7 +9189,7 @@
         <v>11</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>357</v>
@@ -9204,7 +9201,7 @@
         <v>25</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J157" s="1">
         <v>6</v>
@@ -9242,7 +9239,7 @@
         <v>360</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J158" s="1">
         <v>6</v>
@@ -9280,7 +9277,7 @@
         <v>25</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J159" s="1">
         <v>6</v>
@@ -9318,7 +9315,7 @@
         <v>205</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J160" s="1">
         <v>6</v>
@@ -9356,7 +9353,7 @@
         <v>171</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J161" s="1">
         <v>6</v>
@@ -9394,7 +9391,7 @@
         <v>364</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J162" s="1">
         <v>6</v>
@@ -9420,7 +9417,7 @@
         <v>11</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>365</v>
@@ -9432,7 +9429,7 @@
         <v>366</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J163" s="1">
         <v>6</v>
@@ -9470,7 +9467,7 @@
         <v>75</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J164" s="1">
         <v>6</v>
@@ -9508,7 +9505,7 @@
         <v>191</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J165" s="1">
         <v>6</v>
@@ -9546,7 +9543,7 @@
         <v>286</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J166" s="1">
         <v>6</v>
@@ -9584,7 +9581,7 @@
         <v>372</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J167" s="1">
         <v>6</v>
@@ -9610,7 +9607,7 @@
         <v>11</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>373</v>
@@ -9622,7 +9619,7 @@
         <v>375</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J168" s="1">
         <v>6</v>
@@ -9648,7 +9645,7 @@
         <v>11</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>376</v>
@@ -9660,7 +9657,7 @@
         <v>104</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J169" s="1">
         <v>6</v>
@@ -9695,10 +9692,10 @@
         <v>117</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J170" s="1">
         <v>6</v>
@@ -9736,7 +9733,7 @@
         <v>62</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J171" s="1">
         <v>6</v>
@@ -9774,7 +9771,7 @@
         <v>366</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J172" s="1">
         <v>6</v>
@@ -9812,7 +9809,7 @@
         <v>294</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J173" s="1">
         <v>6</v>
@@ -9838,7 +9835,7 @@
         <v>11</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>382</v>
@@ -9850,7 +9847,7 @@
         <v>384</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J174" s="1">
         <v>6</v>
@@ -9888,7 +9885,7 @@
         <v>117</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J175" s="1">
         <v>6</v>
@@ -9926,7 +9923,7 @@
         <v>389</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J176" s="1">
         <v>6</v>
@@ -9964,7 +9961,7 @@
         <v>392</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J177" s="1">
         <v>6</v>
@@ -9996,13 +9993,13 @@
         <v>320</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>393</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J178" s="1">
         <v>6</v>
@@ -10028,7 +10025,7 @@
         <v>11</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>394</v>
@@ -10040,7 +10037,7 @@
         <v>210</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J179" s="1">
         <v>6</v>
@@ -10078,7 +10075,7 @@
         <v>397</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J180" s="1">
         <v>6</v>
@@ -10104,7 +10101,7 @@
         <v>11</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>398</v>
@@ -10116,7 +10113,7 @@
         <v>173</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J181" s="1">
         <v>6</v>
@@ -10154,7 +10151,7 @@
         <v>400</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J182" s="1">
         <v>6</v>
@@ -10192,7 +10189,7 @@
         <v>402</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J183" s="1">
         <v>6</v>
@@ -10218,7 +10215,7 @@
         <v>11</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>403</v>
@@ -10230,7 +10227,7 @@
         <v>404</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J184" s="1">
         <v>6</v>
@@ -10268,7 +10265,7 @@
         <v>294</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J185" s="1">
         <v>6</v>
@@ -10294,7 +10291,7 @@
         <v>11</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>407</v>
@@ -10306,7 +10303,7 @@
         <v>62</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J186" s="1">
         <v>6</v>
@@ -10332,7 +10329,7 @@
         <v>11</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>334</v>
@@ -10344,7 +10341,7 @@
         <v>408</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J187" s="1">
         <v>6</v>
@@ -10370,7 +10367,7 @@
         <v>11</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>409</v>
@@ -10382,7 +10379,7 @@
         <v>410</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J188" s="1">
         <v>6</v>
@@ -10408,7 +10405,7 @@
         <v>411</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>412</v>
@@ -10420,7 +10417,7 @@
         <v>414</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J189" s="1">
         <v>6</v>
@@ -10458,7 +10455,7 @@
         <v>416</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J190" s="1">
         <v>6</v>
@@ -10484,7 +10481,7 @@
         <v>411</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>417</v>
@@ -10496,7 +10493,7 @@
         <v>386</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J191" s="1">
         <v>6</v>
@@ -10522,7 +10519,7 @@
         <v>411</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>418</v>
@@ -10534,7 +10531,7 @@
         <v>419</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J192" s="1">
         <v>6</v>
@@ -10560,19 +10557,19 @@
         <v>411</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>420</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J193" s="1">
         <v>6</v>
@@ -10598,7 +10595,7 @@
         <v>411</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>421</v>
@@ -10610,7 +10607,7 @@
         <v>371</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J194" s="1">
         <v>6</v>
@@ -10636,7 +10633,7 @@
         <v>411</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>23</v>
@@ -10648,7 +10645,7 @@
         <v>48</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J195" s="1">
         <v>6</v>
@@ -10674,7 +10671,7 @@
         <v>411</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>234</v>
@@ -10686,7 +10683,7 @@
         <v>168</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J196" s="1">
         <v>6</v>
@@ -10712,7 +10709,7 @@
         <v>411</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>424</v>
@@ -10724,7 +10721,7 @@
         <v>355</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J197" s="1">
         <v>6</v>
@@ -10750,19 +10747,19 @@
         <v>411</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>254</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>425</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J198" s="1">
         <v>6</v>
@@ -10788,7 +10785,7 @@
         <v>411</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>426</v>
@@ -10800,7 +10797,7 @@
         <v>63</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J199" s="1">
         <v>6</v>
@@ -10826,7 +10823,7 @@
         <v>411</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>427</v>
@@ -10838,7 +10835,7 @@
         <v>428</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J200" s="1">
         <v>6</v>
@@ -10864,7 +10861,7 @@
         <v>411</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>429</v>
@@ -10876,7 +10873,7 @@
         <v>62</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J201" s="1">
         <v>6</v>
@@ -10914,7 +10911,7 @@
         <v>431</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J202" s="1">
         <v>6</v>
@@ -10940,7 +10937,7 @@
         <v>411</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>432</v>
@@ -10952,7 +10949,7 @@
         <v>168</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J203" s="1">
         <v>6</v>
@@ -10978,7 +10975,7 @@
         <v>411</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>204</v>
@@ -10990,7 +10987,7 @@
         <v>75</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J204" s="1">
         <v>6</v>
@@ -11016,7 +11013,7 @@
         <v>411</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>223</v>
@@ -11028,7 +11025,7 @@
         <v>63</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J205" s="1">
         <v>6</v>
@@ -11054,19 +11051,19 @@
         <v>411</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>285</v>
       </c>
       <c r="G206" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H206" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H206" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="I206" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J206" s="1">
         <v>8</v>
@@ -11092,10 +11089,10 @@
         <v>411</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>196</v>
@@ -11104,7 +11101,7 @@
         <v>62</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J207" s="1">
         <v>8</v>
@@ -11130,19 +11127,19 @@
         <v>411</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F208" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G208" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J208" s="1">
         <v>8</v>
@@ -11171,7 +11168,7 @@
         <v>12</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>126</v>
@@ -11180,7 +11177,7 @@
         <v>75</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J209" s="1">
         <v>8</v>
@@ -11212,13 +11209,13 @@
         <v>243</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>281</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J210" s="1">
         <v>8</v>
@@ -11244,7 +11241,7 @@
         <v>411</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>52</v>
@@ -11256,7 +11253,7 @@
         <v>98</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J211" s="1">
         <v>8</v>
@@ -11282,19 +11279,19 @@
         <v>411</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>287</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J212" s="1">
         <v>8</v>
@@ -11320,7 +11317,7 @@
         <v>411</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>73</v>
@@ -11332,7 +11329,7 @@
         <v>48</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J213" s="1">
         <v>8</v>
@@ -11358,10 +11355,10 @@
         <v>411</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>137</v>
@@ -11370,7 +11367,7 @@
         <v>14</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J214" s="1">
         <v>8</v>
@@ -11399,16 +11396,16 @@
         <v>12</v>
       </c>
       <c r="F215" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G215" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J215" s="1">
         <v>8</v>
@@ -11437,16 +11434,16 @@
         <v>12</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>345</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J216" s="1">
         <v>8</v>
@@ -11472,7 +11469,7 @@
         <v>411</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>158</v>
@@ -11481,10 +11478,10 @@
         <v>215</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J217" s="1">
         <v>8</v>
@@ -11510,19 +11507,19 @@
         <v>411</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>129</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J218" s="1">
         <v>8</v>
@@ -11548,7 +11545,7 @@
         <v>411</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>378</v>
@@ -11560,7 +11557,7 @@
         <v>348</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J219" s="1">
         <v>8</v>
@@ -11586,19 +11583,19 @@
         <v>411</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F220" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G220" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J220" s="1">
         <v>8</v>
@@ -11624,10 +11621,10 @@
         <v>411</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>383</v>
@@ -11636,7 +11633,7 @@
         <v>104</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J221" s="1">
         <v>8</v>
@@ -11662,19 +11659,19 @@
         <v>411</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F222" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G222" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J222" s="1">
         <v>8</v>
@@ -11700,10 +11697,10 @@
         <v>411</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>104</v>
@@ -11712,7 +11709,7 @@
         <v>63</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J223" s="1">
         <v>8</v>
@@ -11738,19 +11735,19 @@
         <v>411</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F224" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G224" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="H224" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="H224" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="I224" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J224" s="1">
         <v>8</v>
@@ -11776,19 +11773,19 @@
         <v>411</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G225" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H225" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H225" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="I225" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J225" s="1">
         <v>8</v>
@@ -11814,19 +11811,19 @@
         <v>411</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J226" s="1">
         <v>8</v>
@@ -11852,19 +11849,19 @@
         <v>411</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>350</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J227" s="1">
         <v>8</v>
@@ -11890,19 +11887,19 @@
         <v>411</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J228" s="1">
         <v>8</v>
@@ -11931,16 +11928,16 @@
         <v>12</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>173</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J229" s="1">
         <v>8</v>
@@ -11969,16 +11966,16 @@
         <v>12</v>
       </c>
       <c r="F230" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G230" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>168</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J230" s="1">
         <v>8</v>
@@ -12004,19 +12001,19 @@
         <v>411</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F231" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>350</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J231" s="1">
         <v>8</v>
@@ -12042,19 +12039,19 @@
         <v>411</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>369</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J232" s="1">
         <v>11</v>
@@ -12080,19 +12077,19 @@
         <v>411</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>111</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J233" s="1">
         <v>11</v>
@@ -12118,19 +12115,19 @@
         <v>411</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F234" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G234" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>346</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J234" s="1">
         <v>11</v>
@@ -12156,19 +12153,19 @@
         <v>411</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F235" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G235" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J235" s="1">
         <v>11</v>
@@ -12194,19 +12191,19 @@
         <v>411</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J236" s="1">
         <v>11</v>
@@ -12232,7 +12229,7 @@
         <v>411</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>234</v>
@@ -12244,7 +12241,7 @@
         <v>321</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J237" s="1">
         <v>11</v>
@@ -12270,7 +12267,7 @@
         <v>411</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>170</v>
@@ -12282,7 +12279,7 @@
         <v>180</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J238" s="1">
         <v>11</v>
@@ -12308,19 +12305,19 @@
         <v>411</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F239" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G239" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J239" s="1">
         <v>11</v>
@@ -12346,19 +12343,19 @@
         <v>411</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F240" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H240" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G240" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H240" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="I240" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J240" s="1">
         <v>11</v>
@@ -12387,16 +12384,16 @@
         <v>12</v>
       </c>
       <c r="F241" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G241" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G241" s="1" t="s">
+      <c r="H241" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="H241" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="I241" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J241" s="1">
         <v>11</v>
@@ -12422,19 +12419,19 @@
         <v>411</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F242" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G242" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G242" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="H242" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J242" s="1">
         <v>11</v>
@@ -12463,16 +12460,16 @@
         <v>12</v>
       </c>
       <c r="F243" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G243" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>414</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J243" s="1">
         <v>11</v>
@@ -12501,16 +12498,16 @@
         <v>12</v>
       </c>
       <c r="F244" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G244" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="H244" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="I244" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J244" s="1">
         <v>11</v>
@@ -12536,10 +12533,10 @@
         <v>411</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>63</v>
@@ -12548,7 +12545,7 @@
         <v>238</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J245" s="1">
         <v>11</v>
@@ -12574,7 +12571,7 @@
         <v>411</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>204</v>
@@ -12586,7 +12583,7 @@
         <v>63</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J246" s="1">
         <v>11</v>
@@ -12615,16 +12612,16 @@
         <v>12</v>
       </c>
       <c r="F247" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G247" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G247" s="1" t="s">
+      <c r="H247" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H247" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="I247" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J247" s="1">
         <v>11</v>
@@ -12653,16 +12650,16 @@
         <v>12</v>
       </c>
       <c r="F248" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G248" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G248" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H248" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J248" s="1">
         <v>11</v>
@@ -12688,7 +12685,7 @@
         <v>411</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>31</v>
@@ -12700,7 +12697,7 @@
         <v>286</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J249" s="1">
         <v>11</v>
@@ -12729,16 +12726,16 @@
         <v>12</v>
       </c>
       <c r="F250" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G250" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>244</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J250" s="1">
         <v>11</v>
@@ -12767,16 +12764,16 @@
         <v>12</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J251" s="1">
         <v>11</v>
@@ -12802,19 +12799,19 @@
         <v>411</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>414</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J252" s="1">
         <v>11</v>
@@ -12840,19 +12837,19 @@
         <v>11</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>291</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J253" s="1">
         <v>11</v>
@@ -12878,7 +12875,7 @@
         <v>11</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>339</v>
@@ -12890,7 +12887,7 @@
         <v>19</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J254" s="1">
         <v>11</v>
@@ -12916,10 +12913,10 @@
         <v>11</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>154</v>
@@ -12928,7 +12925,7 @@
         <v>57</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J255" s="1">
         <v>11</v>
@@ -12966,13 +12963,13 @@
         <v>98</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J256" s="1">
         <v>22</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L256" s="1">
         <v>306</v>
@@ -12998,19 +12995,19 @@
         <v>237</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>169</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J257" s="1">
         <v>22</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L257" s="1">
         <v>307</v>
@@ -13030,25 +13027,25 @@
         <v>11</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>296</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J258" s="1">
         <v>22</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L258" s="1">
         <v>308</v>
@@ -13068,7 +13065,7 @@
         <v>11</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>289</v>
@@ -13080,13 +13077,13 @@
         <v>35</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J259" s="1">
         <v>22</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L259" s="1">
         <v>309</v>
@@ -13106,25 +13103,25 @@
         <v>11</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>205</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J260" s="1">
         <v>23</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L260" s="1">
         <v>255</v>
@@ -13147,22 +13144,22 @@
         <v>12</v>
       </c>
       <c r="F261" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G261" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G261" s="1" t="s">
+      <c r="H261" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H261" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="I261" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J261" s="1">
         <v>23</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L261" s="1">
         <v>256</v>
@@ -13185,22 +13182,22 @@
         <v>12</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>165</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J262" s="1">
         <v>23</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L262" s="1">
         <v>257</v>

--- a/Datos/personal.xlsx
+++ b/Datos/personal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B05779-BC48-4BFD-B889-E4188A992760}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C0E04EE-F666-4AB2-B4A6-F10FEC398EBC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3229,8 +3229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="H228" sqref="H228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13205,5 +13205,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>